--- a/آمار آثار صفحه عربی.xlsx
+++ b/آمار آثار صفحه عربی.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khosrojerdi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D402E-93E2-4498-8AA0-00ED63D63844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F6952-D7DF-40A0-B786-36A33300D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="7290" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="جزئیات فیلمهای عربی" sheetId="1" r:id="rId1"/>
@@ -7096,8 +7096,8 @@
   <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I179" sqref="I179"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7106,10 +7106,10 @@
     <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -8012,7 +8012,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>233700</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>630400</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>236300</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>56600</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -8709,7 +8709,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>744000</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>82800</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -9422,7 +9422,7 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>109500</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>145300</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>115500</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>87700</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -10759,7 +10759,7 @@
       <c r="H146" s="12"/>
       <c r="I146" s="11"/>
     </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>1560000</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -12132,7 +12132,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="11"/>
     </row>
-    <row r="204" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>1888100</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9">
         <v>466</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>241000</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9">
         <v>467</v>
       </c>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="I471" s="11"/>
     </row>
-    <row r="472" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9">
         <v>471</v>
       </c>
@@ -19331,7 +19331,9 @@
       <c r="H472" s="12">
         <v>21</v>
       </c>
-      <c r="I472" s="11"/>
+      <c r="I472" s="11">
+        <v>320000</v>
+      </c>
     </row>
     <row r="473" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9">
@@ -19428,6 +19430,9 @@
         <filter val="مستند"/>
         <filter val="مستند سریالی"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/آمار آثار صفحه عربی.xlsx
+++ b/آمار آثار صفحه عربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFACF1E-A94C-4388-9FEE-AB4754D5AD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216493A3-2E35-4734-A9D9-D7C53BF9F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'جزئیات فیلمهای عربی'!$A$1:$I$474</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'جزئیات فیلمهای عربی'!$D$2:$E$71</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'جزئیات فیلمهای عربی'!$F$2:$F$71</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'جزئیات فیلمهای عربی'!$G$2:$G$71</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'جزئیات فیلمهای عربی'!$H$2:$H$71</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'جزئیات فیلمهای عربی'!$I$2:$I$71</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'جزئیات فیلمهای عربی'!$D$2:$E$71</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'جزئیات فیلمهای عربی'!$F$2:$F$71</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'جزئیات فیلمهای عربی'!$G$2:$G$71</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'جزئیات فیلمهای عربی'!$H$2:$H$71</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'جزئیات فیلمهای عربی'!$I$2:$I$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="499">
   <si>
     <t>دقایق تماشا</t>
   </si>
@@ -1543,6 +1533,12 @@
   </si>
   <si>
     <t>رایگان</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1547,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_-_ ;_ * #,##0.00\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1643,7 +1639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1666,13 +1662,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1692,14 +1699,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,8 +1725,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1727,7 +1744,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -1748,7 +1765,233 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1773,20 +2016,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2023,6 +2256,66 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -5880,7 +6173,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -12329,8 +12622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}" name="Table1" displayName="Table1" ref="A1:I474" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="11">
-  <autoFilter ref="A1:I474" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}" name="Table1" displayName="Table1" ref="A1:J475" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A1:J474" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="انیمیشن"/>
@@ -12563,16 +12856,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I473">
     <sortCondition descending="1" ref="I1:I474"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" dataDxfId="2"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="18" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="Column1" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12841,11 +13137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R474"/>
+  <dimension ref="A1:R475"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G475" sqref="G475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12858,7 +13154,7 @@
     <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -12890,6 +13186,9 @@
       <c r="I1" s="7" t="s">
         <v>494</v>
       </c>
+      <c r="J1" s="21" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
@@ -12919,6 +13218,10 @@
       <c r="I2" s="10">
         <v>2721000</v>
       </c>
+      <c r="J2" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>804</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A3" s="5">
@@ -12947,6 +13250,10 @@
         <f>1060500+17400+543900+266300</f>
         <v>1888100</v>
       </c>
+      <c r="J3" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>393</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A4" s="5">
@@ -12975,6 +13282,10 @@
         <f>64300+148600+75100+1277450</f>
         <v>1565450</v>
       </c>
+      <c r="J4" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>399</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A5" s="5">
@@ -13002,6 +13313,10 @@
       <c r="I5" s="8">
         <v>1560000</v>
       </c>
+      <c r="J5" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>469</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A6" s="5">
@@ -13030,6 +13345,10 @@
         <f>4000+65000+30000+1182500</f>
         <v>1281500</v>
       </c>
+      <c r="J6" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="5">
@@ -13057,6 +13376,10 @@
       <c r="I7" s="10">
         <f>900450+34500+122000+47700</f>
         <v>1104650</v>
+      </c>
+      <c r="J7" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>163</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
@@ -13092,6 +13415,10 @@
       <c r="I8" s="8">
         <f>784000+56000+159000+84000</f>
         <v>1083000</v>
+      </c>
+      <c r="J8" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>264</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="12"/>
@@ -13128,6 +13455,10 @@
       <c r="I9" s="10">
         <v>962500</v>
       </c>
+      <c r="J9" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>386</v>
+      </c>
       <c r="K9" s="15"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
@@ -13164,6 +13495,10 @@
         <f>24500+78000+46900+749650</f>
         <v>899050</v>
       </c>
+      <c r="J10" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>113</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
@@ -13200,6 +13535,10 @@
         <f>797500+15000+40000</f>
         <v>852500</v>
       </c>
+      <c r="J11" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>36</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
@@ -13236,6 +13575,10 @@
         <f>658300+26600+70900+44000</f>
         <v>799800</v>
       </c>
+      <c r="J12" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>112</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
@@ -13270,6 +13613,10 @@
       <c r="I13" s="10">
         <v>744000</v>
       </c>
+      <c r="J13" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>252</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
@@ -13306,6 +13653,10 @@
         <f>88500+225000+309000+113250</f>
         <v>735750</v>
       </c>
+      <c r="J14" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>1160</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
@@ -13342,6 +13693,10 @@
         <f>29500+70100+29000+569850</f>
         <v>698450</v>
       </c>
+      <c r="J15" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>85</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
@@ -13378,6 +13733,10 @@
         <f>530700+19500+63000+37700</f>
         <v>650900</v>
       </c>
+      <c r="J16" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>127</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
@@ -13414,6 +13773,10 @@
         <f>520550+27400+59300+34800</f>
         <v>642050</v>
       </c>
+      <c r="J17" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>84</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="12"/>
       <c r="M17" s="13"/>
@@ -13448,6 +13811,10 @@
       <c r="I18" s="8">
         <v>630400</v>
       </c>
+      <c r="J18" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>271</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
@@ -13484,6 +13851,10 @@
         <f>15000+30000+577500</f>
         <v>622500</v>
       </c>
+      <c r="J19" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>22</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="12"/>
       <c r="M19" s="13"/>
@@ -13520,6 +13891,10 @@
         <f>35300+54300+34800+445150</f>
         <v>569550</v>
       </c>
+      <c r="J20" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>93</v>
+      </c>
       <c r="K20" s="15"/>
       <c r="L20" s="12"/>
       <c r="M20" s="13"/>
@@ -13555,6 +13930,10 @@
       <c r="I21" s="10">
         <v>552000</v>
       </c>
+      <c r="J21" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>94</v>
+      </c>
       <c r="K21" s="15"/>
       <c r="L21" s="12"/>
       <c r="M21" s="13"/>
@@ -13586,6 +13965,10 @@
       <c r="I22" s="10">
         <v>534000</v>
       </c>
+      <c r="J22" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>453</v>
+      </c>
       <c r="K22" s="15"/>
       <c r="L22" s="12"/>
       <c r="M22" s="13"/>
@@ -13622,6 +14005,10 @@
         <f>470000+45000</f>
         <v>515000</v>
       </c>
+      <c r="J23" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
       <c r="K23" s="15"/>
       <c r="L23" s="12"/>
       <c r="M23" s="13"/>
@@ -13658,6 +14045,10 @@
         <f>55000+430000</f>
         <v>485000</v>
       </c>
+      <c r="J24" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
       <c r="K24" s="15"/>
       <c r="L24" s="12"/>
       <c r="M24" s="13"/>
@@ -13693,6 +14084,10 @@
       <c r="I25" s="10">
         <v>450000</v>
       </c>
+      <c r="J25" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>320</v>
+      </c>
       <c r="K25" s="15"/>
       <c r="L25" s="12"/>
       <c r="M25" s="13"/>
@@ -13729,6 +14124,10 @@
         <f>40000+408000</f>
         <v>448000</v>
       </c>
+      <c r="J26" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>28</v>
+      </c>
       <c r="K26" s="15"/>
       <c r="L26" s="12"/>
       <c r="M26" s="13"/>
@@ -13765,6 +14164,10 @@
         <f>370000+50000</f>
         <v>420000</v>
       </c>
+      <c r="J27" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
       <c r="K27" s="15"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
@@ -13802,6 +14205,10 @@
       <c r="I28" s="10">
         <v>403000</v>
       </c>
+      <c r="J28" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>305</v>
+      </c>
       <c r="K28" s="15"/>
       <c r="L28" s="12"/>
       <c r="M28" s="13"/>
@@ -13838,6 +14245,10 @@
         <f>45000+342500</f>
         <v>387500</v>
       </c>
+      <c r="J29" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
       <c r="K29" s="15"/>
       <c r="L29" s="12"/>
       <c r="M29" s="13"/>
@@ -13874,6 +14285,10 @@
         <f>45000+66000+141000+124500</f>
         <v>376500</v>
       </c>
+      <c r="J30" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>303</v>
+      </c>
       <c r="K30" s="15"/>
       <c r="L30" s="12"/>
       <c r="M30" s="13"/>
@@ -13910,6 +14325,10 @@
         <f>51000+45000+142000+135000</f>
         <v>373000</v>
       </c>
+      <c r="J31" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>293</v>
+      </c>
       <c r="K31" s="15"/>
       <c r="L31" s="12"/>
       <c r="M31" s="13"/>
@@ -13945,8 +14364,12 @@
         <f>325000+40000</f>
         <v>365000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J32" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A33" s="5">
         <v>440</v>
       </c>
@@ -13973,8 +14396,12 @@
         <f>15000+20000+5000+320000</f>
         <v>360000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J33" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A34" s="5">
         <v>367</v>
       </c>
@@ -14001,8 +14428,12 @@
         <f>60000+56000+78000+163500</f>
         <v>357500</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J34" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A35" s="5">
         <v>169</v>
       </c>
@@ -14028,8 +14459,12 @@
       <c r="I35" s="10">
         <v>332000</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J35" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A36" s="5">
         <v>93</v>
       </c>
@@ -14054,8 +14489,12 @@
       <c r="I36" s="10">
         <v>325000</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J36" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A37" s="5">
         <v>471</v>
       </c>
@@ -14083,8 +14522,12 @@
       <c r="I37" s="8">
         <v>320000</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J37" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A38" s="5">
         <v>203</v>
       </c>
@@ -14110,8 +14553,12 @@
       <c r="I38" s="8">
         <v>318000</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J38" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A39" s="5">
         <v>441</v>
       </c>
@@ -14138,8 +14585,12 @@
         <f>272500+30000</f>
         <v>302500</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J39" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A40" s="5">
         <v>462</v>
       </c>
@@ -14166,8 +14617,12 @@
         <f>2900+11600+284200</f>
         <v>298700</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J40" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A41" s="5">
         <v>442</v>
       </c>
@@ -14194,8 +14649,12 @@
         <f>30000+260000</f>
         <v>290000</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J41" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A42" s="5">
         <v>443</v>
       </c>
@@ -14222,8 +14681,12 @@
         <f>237500+35000</f>
         <v>272500</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J42" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A43" s="5">
         <v>61</v>
       </c>
@@ -14248,8 +14711,12 @@
       <c r="I43" s="10">
         <v>269000</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J43" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A44" s="5">
         <v>371</v>
       </c>
@@ -14276,8 +14743,12 @@
         <f>12000+16000+4000+236000</f>
         <v>268000</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J44" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A45" s="5">
         <v>9</v>
       </c>
@@ -14300,8 +14771,12 @@
       <c r="I45" s="17">
         <v>265000</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J45" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A46" s="5">
         <v>202</v>
       </c>
@@ -14327,8 +14802,12 @@
       <c r="I46" s="10">
         <v>262000</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J46" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A47" s="5">
         <v>444</v>
       </c>
@@ -14354,8 +14833,12 @@
       <c r="I47" s="10">
         <v>255000</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J47" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A48" s="5">
         <v>445</v>
       </c>
@@ -14382,8 +14865,12 @@
         <f>205000+40000</f>
         <v>245000</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J48" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A49" s="5">
         <v>6</v>
       </c>
@@ -14406,8 +14893,12 @@
       <c r="I49" s="17">
         <v>245000</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J49" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A50" s="5">
         <v>8</v>
       </c>
@@ -14430,8 +14921,12 @@
       <c r="I50" s="17">
         <v>245000</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J50" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A51" s="5">
         <v>391</v>
       </c>
@@ -14458,8 +14953,12 @@
         <f>84000+98000+62000</f>
         <v>244000</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J51" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A52" s="5">
         <v>234</v>
       </c>
@@ -14486,8 +14985,12 @@
         <f>84000+60000+21000+78000</f>
         <v>243000</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J52" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A53" s="5">
         <v>466</v>
       </c>
@@ -14515,8 +15018,12 @@
       <c r="I53" s="10">
         <v>241000</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J53" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A54" s="5">
         <v>446</v>
       </c>
@@ -14543,8 +15050,12 @@
         <f>45000+195000</f>
         <v>240000</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J54" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
         <v>12</v>
       </c>
@@ -14567,8 +15078,12 @@
       <c r="I55" s="17">
         <v>240000</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J55" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A56" s="5">
         <v>25</v>
       </c>
@@ -14591,8 +15106,12 @@
       <c r="I56" s="17">
         <v>240000</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J56" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -14617,8 +15136,12 @@
       <c r="I57" s="8">
         <v>236300</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J57" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A58" s="5">
         <v>318</v>
       </c>
@@ -14645,8 +15168,12 @@
         <f>58000+32000+20000+126000</f>
         <v>236000</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J58" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A59" s="5">
         <v>11</v>
       </c>
@@ -14669,8 +15196,12 @@
       <c r="I59" s="17">
         <v>235000</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J59" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A60" s="5">
         <v>13</v>
       </c>
@@ -14693,8 +15224,12 @@
       <c r="I60" s="17">
         <v>235000</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J60" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -14716,8 +15251,12 @@
       <c r="G61" s="11">
         <v>2586</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J61" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A62" s="5">
         <v>30</v>
       </c>
@@ -14740,8 +15279,12 @@
       <c r="I62" s="17">
         <v>235000</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J62" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A63" s="5">
         <v>34</v>
       </c>
@@ -14764,8 +15307,12 @@
       <c r="I63" s="17">
         <v>235000</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J63" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A64" s="5">
         <v>317</v>
       </c>
@@ -14792,8 +15339,12 @@
         <f>26000+64000+42000+102000</f>
         <v>234000</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J64" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A65" s="5">
         <v>51</v>
       </c>
@@ -14818,8 +15369,12 @@
       <c r="I65" s="8">
         <v>233700</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J65" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A66" s="5">
         <v>72</v>
       </c>
@@ -14844,8 +15399,12 @@
       <c r="I66" s="10">
         <v>232000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J66" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A67" s="5">
         <v>2</v>
       </c>
@@ -14869,8 +15428,12 @@
         <f>205000+25000</f>
         <v>230000</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J67" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A68" s="5">
         <v>14</v>
       </c>
@@ -14893,8 +15456,12 @@
       <c r="I68" s="17">
         <v>225000</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J68" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A69" s="5">
         <v>15</v>
       </c>
@@ -14917,8 +15484,12 @@
       <c r="I69" s="17">
         <v>225000</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J69" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -14943,8 +15514,12 @@
       <c r="I70" s="10" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J70" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A71" s="5">
         <v>18</v>
       </c>
@@ -14967,8 +15542,12 @@
       <c r="I71" s="17">
         <v>225000</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J71" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A72" s="5">
         <v>26</v>
       </c>
@@ -14991,8 +15570,12 @@
       <c r="I72" s="17">
         <v>225000</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J72" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A73" s="5">
         <v>33</v>
       </c>
@@ -15015,8 +15598,12 @@
       <c r="I73" s="17">
         <v>225000</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J73" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A74" s="5">
         <v>74</v>
       </c>
@@ -15041,8 +15628,12 @@
       <c r="I74" s="10" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J74" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A75" s="5">
         <v>124</v>
       </c>
@@ -15064,8 +15655,12 @@
       <c r="I75" s="10">
         <v>222000</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J75" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A76" s="5">
         <v>76</v>
       </c>
@@ -15090,8 +15685,12 @@
       <c r="I76" s="10" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J76" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A77" s="5">
         <v>7</v>
       </c>
@@ -15114,8 +15713,12 @@
       <c r="I77" s="17">
         <v>220000</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J77" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -15138,8 +15741,12 @@
         <v>439</v>
       </c>
       <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J78" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A79" s="5">
         <v>79</v>
       </c>
@@ -15160,8 +15767,12 @@
         <v>118</v>
       </c>
       <c r="I79" s="8"/>
-    </row>
-    <row r="80" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J79" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A80" s="5">
         <v>80</v>
       </c>
@@ -15184,8 +15795,12 @@
         <v>1</v>
       </c>
       <c r="I80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J80" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A81" s="5">
         <v>81</v>
       </c>
@@ -15211,8 +15826,12 @@
         <v>5</v>
       </c>
       <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J81" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A82" s="5">
         <v>82</v>
       </c>
@@ -15238,8 +15857,12 @@
         <v>15</v>
       </c>
       <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J82" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A83" s="5">
         <v>83</v>
       </c>
@@ -15262,8 +15885,12 @@
         <v>0</v>
       </c>
       <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J83" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -15286,8 +15913,12 @@
         <v>111</v>
       </c>
       <c r="I84" s="8"/>
-    </row>
-    <row r="85" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J84" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A85" s="5">
         <v>85</v>
       </c>
@@ -15310,8 +15941,12 @@
         <v>57</v>
       </c>
       <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J85" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -15334,8 +15969,12 @@
         <v>51</v>
       </c>
       <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J86" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -15356,8 +15995,12 @@
         <v>48</v>
       </c>
       <c r="I87" s="8"/>
-    </row>
-    <row r="88" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J87" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A88" s="5">
         <v>88</v>
       </c>
@@ -15378,8 +16021,12 @@
         <v>32</v>
       </c>
       <c r="I88" s="8"/>
-    </row>
-    <row r="89" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J88" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A89" s="5">
         <v>89</v>
       </c>
@@ -15400,8 +16047,12 @@
         <v>1097</v>
       </c>
       <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J89" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A90" s="5">
         <v>90</v>
       </c>
@@ -15422,8 +16073,12 @@
         <v>66</v>
       </c>
       <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J90" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A91" s="5">
         <v>91</v>
       </c>
@@ -15444,8 +16099,12 @@
         <v>71</v>
       </c>
       <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J91" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A92" s="5">
         <v>92</v>
       </c>
@@ -15466,8 +16125,12 @@
         <v>105</v>
       </c>
       <c r="I92" s="8"/>
-    </row>
-    <row r="93" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J92" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A93" s="5">
         <v>16</v>
       </c>
@@ -15490,8 +16153,12 @@
       <c r="I93" s="17">
         <v>220000</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J93" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A94" s="5">
         <v>447</v>
       </c>
@@ -15518,8 +16185,12 @@
         <f>180000+40000</f>
         <v>220000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J94" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A95" s="5">
         <v>31</v>
       </c>
@@ -15542,8 +16213,12 @@
       <c r="I95" s="17">
         <v>220000</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J95" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A96" s="5">
         <v>17</v>
       </c>
@@ -15566,8 +16241,12 @@
       <c r="I96" s="17">
         <v>215000</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J96" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A97" s="5">
         <v>27</v>
       </c>
@@ -15590,8 +16269,12 @@
       <c r="I97" s="17">
         <v>215000</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J97" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A98" s="5">
         <v>28</v>
       </c>
@@ -15614,8 +16297,12 @@
       <c r="I98" s="17">
         <v>215000</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J98" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A99" s="5">
         <v>29</v>
       </c>
@@ -15638,8 +16325,12 @@
       <c r="I99" s="17">
         <v>215000</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J99" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A100" s="5">
         <v>10</v>
       </c>
@@ -15662,8 +16353,12 @@
       <c r="I100" s="17">
         <v>210000</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J100" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A101" s="5">
         <v>19</v>
       </c>
@@ -15686,8 +16381,12 @@
       <c r="I101" s="17">
         <v>210000</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J101" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A102" s="5">
         <v>448</v>
       </c>
@@ -15714,8 +16413,12 @@
         <f>45000+165000</f>
         <v>210000</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J102" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A103" s="5">
         <v>450</v>
       </c>
@@ -15742,8 +16445,12 @@
         <f>40000+167500</f>
         <v>207500</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J103" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A104" s="5">
         <v>320</v>
       </c>
@@ -15770,8 +16477,12 @@
         <f>4000+66000+54000+83000</f>
         <v>207000</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J104" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A105" s="5">
         <v>20</v>
       </c>
@@ -15794,8 +16505,12 @@
       <c r="I105" s="17">
         <v>205000</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J105" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A106" s="5">
         <v>449</v>
       </c>
@@ -15822,8 +16537,12 @@
         <f>165000+35000</f>
         <v>200000</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J106" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A107" s="5">
         <v>136</v>
       </c>
@@ -15846,8 +16565,12 @@
       <c r="I107" s="10">
         <v>198000</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J107" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A108" s="5">
         <v>319</v>
       </c>
@@ -15874,8 +16597,12 @@
         <f>14000+60000+30000+92000</f>
         <v>196000</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J108" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A109" s="5">
         <v>379</v>
       </c>
@@ -15902,8 +16629,12 @@
         <f>20000+16000+6000+154000</f>
         <v>196000</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J109" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A110" s="5">
         <v>24</v>
       </c>
@@ -15926,8 +16657,12 @@
       <c r="I110" s="17">
         <v>195000</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J110" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A111" s="5">
         <v>22</v>
       </c>
@@ -15950,8 +16685,12 @@
       <c r="I111" s="17">
         <v>190000</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J111" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A112" s="5">
         <v>23</v>
       </c>
@@ -15974,8 +16713,12 @@
       <c r="I112" s="17">
         <v>190000</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J112" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A113" s="5">
         <v>364</v>
       </c>
@@ -16002,8 +16745,12 @@
         <f>12000+37000+38000+100500</f>
         <v>187500</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J113" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A114" s="5">
         <v>173</v>
       </c>
@@ -16029,8 +16776,12 @@
       <c r="I114" s="10">
         <v>185000</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J114" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A115" s="5">
         <v>451</v>
       </c>
@@ -16057,8 +16808,12 @@
         <f>145000+35000</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J115" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A116" s="5">
         <v>452</v>
       </c>
@@ -16085,8 +16840,12 @@
         <f>45000+135000</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J116" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A117" s="5">
         <v>130</v>
       </c>
@@ -16108,8 +16867,12 @@
       <c r="I117" s="10">
         <v>174000</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J117" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A118" s="5">
         <v>138</v>
       </c>
@@ -16133,8 +16896,12 @@
       <c r="I118" s="8">
         <v>174000</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J118" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A119" s="5">
         <v>392</v>
       </c>
@@ -16161,8 +16928,12 @@
         <f>62000+68000+40000</f>
         <v>170000</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J119" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A120" s="5">
         <v>147</v>
       </c>
@@ -16188,8 +16959,12 @@
       <c r="I120" s="8">
         <v>165000</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J120" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A121" s="5">
         <v>453</v>
       </c>
@@ -16216,8 +16991,12 @@
         <f>130000+35000</f>
         <v>165000</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J121" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A122" s="5">
         <v>456</v>
       </c>
@@ -16244,8 +17023,12 @@
         <f>40000+122500</f>
         <v>162500</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J122" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A123" s="5">
         <v>395</v>
       </c>
@@ -16272,8 +17055,12 @@
         <f>84000+44000+30000</f>
         <v>158000</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J123" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A124" s="5">
         <v>235</v>
       </c>
@@ -16300,8 +17087,12 @@
         <f>45000+48000+9000+55500</f>
         <v>157500</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J124" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A125" s="5">
         <v>454</v>
       </c>
@@ -16328,8 +17119,12 @@
         <f>35000+120000</f>
         <v>155000</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J125" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A126" s="5">
         <v>170</v>
       </c>
@@ -16354,8 +17149,12 @@
         <f>19998+135000</f>
         <v>154998</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J126" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A127" s="5">
         <v>201</v>
       </c>
@@ -16381,8 +17180,12 @@
       <c r="I127" s="10">
         <v>153000</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J127" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A128" s="5">
         <v>394</v>
       </c>
@@ -16409,8 +17212,12 @@
         <f>80000+42000+28000</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J128" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A129" s="5">
         <v>457</v>
       </c>
@@ -16437,8 +17244,12 @@
         <f>110000+40000</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J129" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A130" s="5">
         <v>393</v>
       </c>
@@ -16465,8 +17276,12 @@
         <f>70000+46000+32000</f>
         <v>148000</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J130" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A131" s="5">
         <v>455</v>
       </c>
@@ -16493,8 +17308,12 @@
         <f>117500+30000</f>
         <v>147500</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J131" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A132" s="5">
         <v>273</v>
       </c>
@@ -16521,8 +17340,12 @@
         <f>6000+64500+22500+53250</f>
         <v>146250</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J132" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A133" s="5">
         <v>396</v>
       </c>
@@ -16549,8 +17372,12 @@
         <f>82000+38000+26000</f>
         <v>146000</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J133" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A134" s="5">
         <v>97</v>
       </c>
@@ -16575,8 +17402,12 @@
       <c r="I134" s="10">
         <v>145300</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J134" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A135" s="5">
         <v>458</v>
       </c>
@@ -16603,8 +17434,12 @@
         <f>45000+100000</f>
         <v>145000</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J135" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A136" s="5">
         <v>94</v>
       </c>
@@ -16629,8 +17464,12 @@
       <c r="I136" s="10">
         <v>144000</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J136" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A137" s="5">
         <v>363</v>
       </c>
@@ -16657,8 +17496,12 @@
         <f>13000+26000+9000+95000</f>
         <v>143000</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J137" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A138" s="5">
         <v>423</v>
       </c>
@@ -16685,8 +17528,12 @@
         <f>24000+79000+40000</f>
         <v>143000</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J138" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A139" s="5">
         <v>139</v>
       </c>
@@ -16708,8 +17555,12 @@
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="8"/>
-    </row>
-    <row r="140" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J139" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A140" s="5">
         <v>140</v>
       </c>
@@ -16733,8 +17584,12 @@
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="8"/>
-    </row>
-    <row r="141" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J140" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A141" s="5">
         <v>141</v>
       </c>
@@ -16758,8 +17613,12 @@
       </c>
       <c r="H141" s="11"/>
       <c r="I141" s="8"/>
-    </row>
-    <row r="142" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J141" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A142" s="5">
         <v>142</v>
       </c>
@@ -16781,8 +17640,12 @@
       </c>
       <c r="H142" s="11"/>
       <c r="I142" s="8"/>
-    </row>
-    <row r="143" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J142" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A143" s="5">
         <v>143</v>
       </c>
@@ -16804,8 +17667,12 @@
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="8"/>
-    </row>
-    <row r="144" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J143" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A144" s="5">
         <v>144</v>
       </c>
@@ -16827,8 +17694,12 @@
       </c>
       <c r="H144" s="11"/>
       <c r="I144" s="8"/>
-    </row>
-    <row r="145" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J144" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A145" s="5">
         <v>145</v>
       </c>
@@ -16850,8 +17721,12 @@
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="8"/>
-    </row>
-    <row r="146" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J145" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A146" s="5">
         <v>460</v>
       </c>
@@ -16878,8 +17753,12 @@
         <f>50000+92500</f>
         <v>142500</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J146" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A147" s="5">
         <v>401</v>
       </c>
@@ -16906,8 +17785,12 @@
         <f>86000+34000+20000</f>
         <v>140000</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J147" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A148" s="5">
         <v>148</v>
       </c>
@@ -16929,8 +17812,12 @@
       </c>
       <c r="H148" s="11"/>
       <c r="I148" s="8"/>
-    </row>
-    <row r="149" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J148" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A149" s="5">
         <v>149</v>
       </c>
@@ -16952,8 +17839,12 @@
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="8"/>
-    </row>
-    <row r="150" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J149" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A150" s="5">
         <v>150</v>
       </c>
@@ -16975,8 +17866,12 @@
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="8"/>
-    </row>
-    <row r="151" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J150" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A151" s="5">
         <v>151</v>
       </c>
@@ -16998,8 +17893,12 @@
       </c>
       <c r="H151" s="11"/>
       <c r="I151" s="8"/>
-    </row>
-    <row r="152" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J151" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A152" s="5">
         <v>152</v>
       </c>
@@ -17021,8 +17920,12 @@
       </c>
       <c r="H152" s="11"/>
       <c r="I152" s="8"/>
-    </row>
-    <row r="153" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J152" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A153" s="5">
         <v>153</v>
       </c>
@@ -17044,8 +17947,12 @@
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="8"/>
-    </row>
-    <row r="154" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J153" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A154" s="5">
         <v>154</v>
       </c>
@@ -17067,8 +17974,12 @@
       </c>
       <c r="H154" s="11"/>
       <c r="I154" s="8"/>
-    </row>
-    <row r="155" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J154" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A155" s="5">
         <v>155</v>
       </c>
@@ -17090,8 +18001,12 @@
       </c>
       <c r="H155" s="11"/>
       <c r="I155" s="8"/>
-    </row>
-    <row r="156" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J155" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A156" s="5">
         <v>156</v>
       </c>
@@ -17113,8 +18028,12 @@
       </c>
       <c r="H156" s="11"/>
       <c r="I156" s="8"/>
-    </row>
-    <row r="157" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J156" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A157" s="5">
         <v>157</v>
       </c>
@@ -17136,8 +18055,12 @@
       </c>
       <c r="H157" s="11"/>
       <c r="I157" s="8"/>
-    </row>
-    <row r="158" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J157" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A158" s="5">
         <v>158</v>
       </c>
@@ -17159,8 +18082,12 @@
       </c>
       <c r="H158" s="11"/>
       <c r="I158" s="8"/>
-    </row>
-    <row r="159" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J158" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A159" s="5">
         <v>159</v>
       </c>
@@ -17182,8 +18109,12 @@
       </c>
       <c r="H159" s="11"/>
       <c r="I159" s="8"/>
-    </row>
-    <row r="160" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J159" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A160" s="5">
         <v>160</v>
       </c>
@@ -17205,8 +18136,12 @@
       </c>
       <c r="H160" s="11"/>
       <c r="I160" s="8"/>
-    </row>
-    <row r="161" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J160" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A161" s="5">
         <v>161</v>
       </c>
@@ -17228,8 +18163,12 @@
       </c>
       <c r="H161" s="11"/>
       <c r="I161" s="8"/>
-    </row>
-    <row r="162" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J161" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A162" s="5">
         <v>162</v>
       </c>
@@ -17251,8 +18190,12 @@
       </c>
       <c r="H162" s="11"/>
       <c r="I162" s="8"/>
-    </row>
-    <row r="163" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J162" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A163" s="5">
         <v>163</v>
       </c>
@@ -17274,8 +18217,12 @@
       </c>
       <c r="H163" s="11"/>
       <c r="I163" s="8"/>
-    </row>
-    <row r="164" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J163" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A164" s="5">
         <v>164</v>
       </c>
@@ -17297,8 +18244,12 @@
       </c>
       <c r="H164" s="11"/>
       <c r="I164" s="8"/>
-    </row>
-    <row r="165" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J164" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A165" s="5">
         <v>165</v>
       </c>
@@ -17320,8 +18271,12 @@
       </c>
       <c r="H165" s="11"/>
       <c r="I165" s="8"/>
-    </row>
-    <row r="166" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J165" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A166" s="5">
         <v>166</v>
       </c>
@@ -17343,8 +18298,12 @@
       </c>
       <c r="H166" s="11"/>
       <c r="I166" s="8"/>
-    </row>
-    <row r="167" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J166" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A167" s="5">
         <v>167</v>
       </c>
@@ -17366,8 +18325,12 @@
       </c>
       <c r="H167" s="11"/>
       <c r="I167" s="8"/>
-    </row>
-    <row r="168" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J167" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A168" s="5">
         <v>168</v>
       </c>
@@ -17389,8 +18352,12 @@
       </c>
       <c r="H168" s="11"/>
       <c r="I168" s="8"/>
-    </row>
-    <row r="169" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J168" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A169" s="5">
         <v>125</v>
       </c>
@@ -17412,8 +18379,12 @@
       <c r="I169" s="10">
         <v>138000</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J169" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A170" s="5">
         <v>461</v>
       </c>
@@ -17440,8 +18411,12 @@
         <f>87500+50000</f>
         <v>137500</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J170" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A171" s="5">
         <v>171</v>
       </c>
@@ -17465,8 +18440,12 @@
       </c>
       <c r="H171" s="11"/>
       <c r="I171" s="8"/>
-    </row>
-    <row r="172" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J171" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A172" s="5">
         <v>172</v>
       </c>
@@ -17490,8 +18469,12 @@
       </c>
       <c r="H172" s="11"/>
       <c r="I172" s="8"/>
-    </row>
-    <row r="173" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J172" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A173" s="5">
         <v>95</v>
       </c>
@@ -17516,8 +18499,12 @@
       <c r="I173" s="10">
         <v>136500</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J173" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A174" s="5">
         <v>174</v>
       </c>
@@ -17541,8 +18528,12 @@
       </c>
       <c r="H174" s="11"/>
       <c r="I174" s="8"/>
-    </row>
-    <row r="175" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J174" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A175" s="5">
         <v>314</v>
       </c>
@@ -17569,8 +18560,12 @@
         <f>16000+74000+46000</f>
         <v>136000</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J175" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A176" s="5">
         <v>176</v>
       </c>
@@ -17594,8 +18589,12 @@
       </c>
       <c r="H176" s="11"/>
       <c r="I176" s="8"/>
-    </row>
-    <row r="177" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J176" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A177" s="5">
         <v>459</v>
       </c>
@@ -17622,8 +18621,12 @@
         <f>90000+45000</f>
         <v>135000</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J177" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A178" s="5">
         <v>178</v>
       </c>
@@ -17646,8 +18649,12 @@
         <v>131</v>
       </c>
       <c r="H178" s="11"/>
-    </row>
-    <row r="179" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J178" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A179" s="5">
         <v>179</v>
       </c>
@@ -17671,8 +18678,12 @@
       </c>
       <c r="H179" s="11"/>
       <c r="I179" s="8"/>
-    </row>
-    <row r="180" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J179" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A180" s="5">
         <v>98</v>
       </c>
@@ -17697,8 +18708,12 @@
       <c r="I180" s="10">
         <v>135000</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J180" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A181" s="5">
         <v>399</v>
       </c>
@@ -17725,8 +18740,12 @@
         <f>76000+36000+22000</f>
         <v>134000</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J181" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A182" s="5">
         <v>400</v>
       </c>
@@ -17753,8 +18772,12 @@
         <f>70000+42000+22000</f>
         <v>134000</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J182" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A183" s="5">
         <v>402</v>
       </c>
@@ -17781,8 +18804,12 @@
         <f>80000+30000+24000</f>
         <v>134000</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J183" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A184" s="5">
         <v>398</v>
       </c>
@@ -17809,8 +18836,12 @@
         <f>70000+36000+26000</f>
         <v>132000</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J184" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A185" s="5">
         <v>397</v>
       </c>
@@ -17837,8 +18868,12 @@
         <f>68000+38000+24000</f>
         <v>130000</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J185" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A186" s="5">
         <v>275</v>
       </c>
@@ -17865,8 +18900,12 @@
         <f>16500+28500+15000+68250</f>
         <v>128250</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J186" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A187" s="5">
         <v>187</v>
       </c>
@@ -17888,8 +18927,12 @@
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="8"/>
-    </row>
-    <row r="188" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J187" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A188" s="5">
         <v>188</v>
       </c>
@@ -17911,8 +18954,12 @@
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="8"/>
-    </row>
-    <row r="189" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J188" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A189" s="5">
         <v>403</v>
       </c>
@@ -17939,8 +18986,12 @@
         <f>76000+28000+24000</f>
         <v>128000</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J189" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A190" s="5">
         <v>3</v>
       </c>
@@ -17963,8 +19014,12 @@
       <c r="I190" s="17">
         <v>125000</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J190" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A191" s="5">
         <v>191</v>
       </c>
@@ -17986,8 +19041,12 @@
       </c>
       <c r="H191" s="11"/>
       <c r="I191" s="8"/>
-    </row>
-    <row r="192" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J191" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A192" s="5">
         <v>192</v>
       </c>
@@ -18009,8 +19068,12 @@
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="8"/>
-    </row>
-    <row r="193" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J192" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A193" s="5">
         <v>193</v>
       </c>
@@ -18032,8 +19095,12 @@
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="8"/>
-    </row>
-    <row r="194" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J193" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A194" s="5">
         <v>194</v>
       </c>
@@ -18055,8 +19122,12 @@
       </c>
       <c r="H194" s="11"/>
       <c r="I194" s="8"/>
-    </row>
-    <row r="195" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J194" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A195" s="5">
         <v>195</v>
       </c>
@@ -18078,8 +19149,12 @@
       </c>
       <c r="H195" s="11"/>
       <c r="I195" s="8"/>
-    </row>
-    <row r="196" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J195" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A196" s="5">
         <v>196</v>
       </c>
@@ -18101,8 +19176,12 @@
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="8"/>
-    </row>
-    <row r="197" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J196" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A197" s="5">
         <v>4</v>
       </c>
@@ -18125,8 +19204,12 @@
       <c r="I197" s="17">
         <v>125000</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J197" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A198" s="5">
         <v>5</v>
       </c>
@@ -18149,8 +19232,12 @@
       <c r="I198" s="17">
         <v>125000</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J198" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A199" s="5">
         <v>315</v>
       </c>
@@ -18177,8 +19264,12 @@
         <f>33000+58500+33000</f>
         <v>124500</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J199" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A200" s="5">
         <v>406</v>
       </c>
@@ -18205,8 +19296,12 @@
         <f>78000+24000+22000</f>
         <v>124000</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J200" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A201" s="5">
         <v>100</v>
       </c>
@@ -18231,8 +19326,12 @@
       <c r="I201" s="10">
         <v>124000</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J201" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A202" s="5">
         <v>128</v>
       </c>
@@ -18254,8 +19353,12 @@
       <c r="I202" s="10">
         <v>120000</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J202" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A203" s="5">
         <v>410</v>
       </c>
@@ -18282,8 +19385,12 @@
         <f>74000+26000+20000</f>
         <v>120000</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J203" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A204" s="5">
         <v>411</v>
       </c>
@@ -18310,8 +19417,12 @@
         <f>74000+20000+24000</f>
         <v>118000</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J204" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A205" s="5">
         <v>420</v>
       </c>
@@ -18338,8 +19449,12 @@
         <f>64000+28000+26000</f>
         <v>118000</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J205" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A206" s="5">
         <v>404</v>
       </c>
@@ -18366,8 +19481,12 @@
         <f>70000+26000+20000</f>
         <v>116000</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J206" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A207" s="5">
         <v>414</v>
       </c>
@@ -18394,8 +19513,12 @@
         <f>68000+26000+22000</f>
         <v>116000</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J207" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A208" s="5">
         <v>417</v>
       </c>
@@ -18422,8 +19545,12 @@
         <f>62000+34000+20000</f>
         <v>116000</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J208" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A209" s="5">
         <v>101</v>
       </c>
@@ -18448,8 +19575,12 @@
       <c r="I209" s="10">
         <v>115500</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J209" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A210" s="5">
         <v>380</v>
       </c>
@@ -18476,8 +19607,12 @@
         <f>10000+12000+2000+91000</f>
         <v>115000</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J210" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A211" s="5">
         <v>126</v>
       </c>
@@ -18499,8 +19634,12 @@
       <c r="I211" s="10">
         <v>114000</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J211" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A212" s="5">
         <v>236</v>
       </c>
@@ -18527,8 +19666,12 @@
         <f>33000+33000+9000+39000</f>
         <v>114000</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J212" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A213" s="5">
         <v>369</v>
       </c>
@@ -18555,8 +19698,12 @@
         <f>19000+26000+17000+52000</f>
         <v>114000</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J213" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A214" s="5">
         <v>412</v>
       </c>
@@ -18583,8 +19730,12 @@
         <f>66000+24000+24000</f>
         <v>114000</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J214" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A215" s="5">
         <v>416</v>
       </c>
@@ -18611,8 +19762,12 @@
         <f>62000+32000+20000</f>
         <v>114000</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J215" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A216" s="5">
         <v>418</v>
       </c>
@@ -18639,8 +19794,12 @@
         <f>62000+28000+24000</f>
         <v>114000</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J216" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A217" s="5">
         <v>409</v>
       </c>
@@ -18667,8 +19826,12 @@
         <f>70000+26000+16000</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J217" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A218" s="5">
         <v>413</v>
       </c>
@@ -18695,8 +19858,12 @@
         <f>64000+24000+24000</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J218" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A219" s="5">
         <v>421</v>
       </c>
@@ -18723,8 +19890,12 @@
         <f>54000+26000+32000</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J219" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A220" s="5">
         <v>415</v>
       </c>
@@ -18751,8 +19922,12 @@
         <f>64000+22000+24000</f>
         <v>110000</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J220" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A221" s="5">
         <v>419</v>
       </c>
@@ -18779,8 +19954,12 @@
         <f>52000+30000+28000</f>
         <v>110000</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J221" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A222" s="5">
         <v>186</v>
       </c>
@@ -18805,8 +19984,12 @@
         <f>40500+42000+27000</f>
         <v>109500</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J222" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A223" s="5">
         <v>473</v>
       </c>
@@ -18833,8 +20016,12 @@
         <f>9000+27000+3000+70500</f>
         <v>109500</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J223" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A224" s="5">
         <v>96</v>
       </c>
@@ -18859,8 +20046,12 @@
       <c r="I224" s="10">
         <v>109500</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J224" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A225" s="5">
         <v>204</v>
       </c>
@@ -18885,8 +20076,12 @@
         <f>29000+42000+37500</f>
         <v>108500</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J225" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A226" s="5">
         <v>407</v>
       </c>
@@ -18913,8 +20108,12 @@
         <f>64000+22000+22000</f>
         <v>108000</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J226" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A227" s="5">
         <v>408</v>
       </c>
@@ -18941,8 +20140,12 @@
         <f>66000+20000+20000</f>
         <v>106000</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J227" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A228" s="5">
         <v>77</v>
       </c>
@@ -18965,8 +20168,12 @@
       <c r="I228" s="10">
         <v>105000</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J228" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A229" s="5">
         <v>405</v>
       </c>
@@ -18993,8 +20200,12 @@
         <f>60000+26000+18000</f>
         <v>104000</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J229" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A230" s="5">
         <v>127</v>
       </c>
@@ -19016,8 +20227,12 @@
       <c r="I230" s="10">
         <v>102000</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J230" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A231" s="5">
         <v>63</v>
       </c>
@@ -19042,8 +20257,12 @@
       <c r="I231" s="10">
         <v>101000</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J231" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A232" s="5">
         <v>237</v>
       </c>
@@ -19070,8 +20289,12 @@
         <f>39000+27000+6000+28500</f>
         <v>100500</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J232" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A233" s="5">
         <v>381</v>
       </c>
@@ -19098,8 +20321,12 @@
         <f>10000+84000</f>
         <v>94000</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J233" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A234" s="5">
         <v>279</v>
       </c>
@@ -19126,8 +20353,12 @@
         <f>16000+15000+6000+55500</f>
         <v>92500</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J234" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A235" s="5">
         <v>177</v>
       </c>
@@ -19153,8 +20384,12 @@
       <c r="I235" s="8">
         <v>92000</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J235" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A236" s="5">
         <v>468</v>
       </c>
@@ -19180,8 +20415,12 @@
       <c r="I236" s="10">
         <v>91000</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J236" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A237" s="5">
         <v>383</v>
       </c>
@@ -19207,8 +20446,12 @@
       <c r="I237" s="10">
         <v>90000</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J237" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A238" s="5">
         <v>112</v>
       </c>
@@ -19233,8 +20476,12 @@
       <c r="I238" s="10">
         <v>90000</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J238" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A239" s="5">
         <v>71</v>
       </c>
@@ -19259,8 +20506,12 @@
       <c r="I239" s="10">
         <v>88000</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J239" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A240" s="5">
         <v>263</v>
       </c>
@@ -19288,8 +20539,12 @@
       <c r="I240" s="10">
         <v>88000</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J240" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A241" s="5">
         <v>102</v>
       </c>
@@ -19314,8 +20569,12 @@
       <c r="I241" s="10">
         <v>87700</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J241" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A242" s="5">
         <v>365</v>
       </c>
@@ -19342,8 +20601,12 @@
         <f>5000+9000+12000+13000+48500</f>
         <v>87500</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J242" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A243" s="5">
         <v>238</v>
       </c>
@@ -19370,8 +20633,12 @@
         <f>30000+21000+6000+30000</f>
         <v>87000</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J243" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A244" s="5">
         <v>105</v>
       </c>
@@ -19396,8 +20663,12 @@
       <c r="I244" s="10">
         <v>87000</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J244" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A245" s="5">
         <v>103</v>
       </c>
@@ -19422,8 +20693,12 @@
       <c r="I245" s="10">
         <v>85500</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J245" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A246" s="5">
         <v>131</v>
       </c>
@@ -19445,8 +20720,12 @@
       <c r="I246" s="10">
         <v>84000</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J246" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A247" s="5">
         <v>110</v>
       </c>
@@ -19471,8 +20750,12 @@
       <c r="I247" s="10">
         <v>84000</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J247" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A248" s="5">
         <v>70</v>
       </c>
@@ -19497,8 +20780,12 @@
       <c r="I248" s="10">
         <v>82800</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J248" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A249" s="5">
         <v>62</v>
       </c>
@@ -19523,8 +20810,12 @@
       <c r="I249" s="10">
         <v>81500</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J249" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A250" s="5">
         <v>372</v>
       </c>
@@ -19551,8 +20842,12 @@
         <f>22000+6000+11000+42500</f>
         <v>81500</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J250" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A251" s="5">
         <v>239</v>
       </c>
@@ -19579,8 +20874,12 @@
         <f>27000+18000+3000+31500</f>
         <v>79500</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J251" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A252" s="5">
         <v>132</v>
       </c>
@@ -19602,8 +20901,12 @@
       <c r="I252" s="10">
         <v>78000</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J252" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A253" s="5">
         <v>135</v>
       </c>
@@ -19625,8 +20928,12 @@
       <c r="I253" s="10">
         <v>78000</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J253" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A254" s="5">
         <v>382</v>
       </c>
@@ -19652,8 +20959,12 @@
       <c r="I254" s="10">
         <v>78000</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J254" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A255" s="5">
         <v>106</v>
       </c>
@@ -19678,8 +20989,12 @@
       <c r="I255" s="10">
         <v>78000</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J255" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A256" s="5">
         <v>198</v>
       </c>
@@ -19705,8 +21020,12 @@
       <c r="I256" s="10">
         <v>77000</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J256" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A257" s="5">
         <v>281</v>
       </c>
@@ -19733,8 +21052,12 @@
         <f>3000+6000+6000+61500</f>
         <v>76500</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J257" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A258" s="5">
         <v>107</v>
       </c>
@@ -19759,8 +21082,12 @@
       <c r="I258" s="10">
         <v>76000</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J258" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A259" s="5">
         <v>368</v>
       </c>
@@ -19787,8 +21114,12 @@
         <f>11000+12000+7000+45500</f>
         <v>75500</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J259" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A260" s="5">
         <v>282</v>
       </c>
@@ -19815,8 +21146,12 @@
         <f>3000+9000+63000</f>
         <v>75000</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J260" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A261" s="5">
         <v>39</v>
       </c>
@@ -19839,8 +21174,12 @@
       <c r="I261" s="10">
         <v>72000</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J261" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A262" s="5">
         <v>274</v>
       </c>
@@ -19867,8 +21206,12 @@
         <f>4000+26000+14000+28000</f>
         <v>72000</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J262" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A263" s="5">
         <v>111</v>
       </c>
@@ -19893,8 +21236,12 @@
       <c r="I263" s="10">
         <v>71500</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J263" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A264" s="5">
         <v>264</v>
       </c>
@@ -19918,8 +21265,12 @@
         <v>3</v>
       </c>
       <c r="I264" s="8"/>
-    </row>
-    <row r="265" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J264" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A265" s="5">
         <v>265</v>
       </c>
@@ -19943,8 +21294,12 @@
         <v>0</v>
       </c>
       <c r="I265" s="8"/>
-    </row>
-    <row r="266" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J265" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A266" s="5">
         <v>266</v>
       </c>
@@ -19968,8 +21323,12 @@
         <v>3</v>
       </c>
       <c r="I266" s="8"/>
-    </row>
-    <row r="267" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J266" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A267" s="5">
         <v>267</v>
       </c>
@@ -19993,8 +21352,12 @@
         <v>6</v>
       </c>
       <c r="I267" s="8"/>
-    </row>
-    <row r="268" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J267" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A268" s="5">
         <v>268</v>
       </c>
@@ -20018,8 +21381,12 @@
         <v>4</v>
       </c>
       <c r="I268" s="8"/>
-    </row>
-    <row r="269" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J268" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A269" s="5">
         <v>269</v>
       </c>
@@ -20043,8 +21410,12 @@
         <v>3</v>
       </c>
       <c r="I269" s="8"/>
-    </row>
-    <row r="270" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J269" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A270" s="5">
         <v>270</v>
       </c>
@@ -20068,8 +21439,12 @@
         <v>1</v>
       </c>
       <c r="I270" s="8"/>
-    </row>
-    <row r="271" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J270" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A271" s="5">
         <v>271</v>
       </c>
@@ -20093,8 +21468,12 @@
         <v>0</v>
       </c>
       <c r="I271" s="8"/>
-    </row>
-    <row r="272" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J271" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A272" s="5">
         <v>272</v>
       </c>
@@ -20118,8 +21497,12 @@
         <v>0</v>
       </c>
       <c r="I272" s="8"/>
-    </row>
-    <row r="273" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J272" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A273" s="5">
         <v>108</v>
       </c>
@@ -20144,8 +21527,12 @@
       <c r="I273" s="10">
         <v>70000</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J273" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A274" s="5">
         <v>113</v>
       </c>
@@ -20170,8 +21557,12 @@
       <c r="I274" s="10">
         <v>70000</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J274" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A275" s="5">
         <v>185</v>
       </c>
@@ -20197,8 +21588,12 @@
       <c r="I275" s="10">
         <v>69000</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J275" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A276" s="5">
         <v>276</v>
       </c>
@@ -20222,8 +21617,12 @@
         <v>10</v>
       </c>
       <c r="I276" s="8"/>
-    </row>
-    <row r="277" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J276" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A277" s="5">
         <v>277</v>
       </c>
@@ -20247,8 +21646,12 @@
         <v>1</v>
       </c>
       <c r="I277" s="8"/>
-    </row>
-    <row r="278" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J277" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A278" s="5">
         <v>278</v>
       </c>
@@ -20272,8 +21675,12 @@
         <v>2</v>
       </c>
       <c r="I278" s="8"/>
-    </row>
-    <row r="279" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J278" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A279" s="5">
         <v>122</v>
       </c>
@@ -20298,8 +21705,12 @@
       <c r="I279" s="10">
         <v>67000</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J279" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A280" s="5">
         <v>129</v>
       </c>
@@ -20321,8 +21732,12 @@
       <c r="I280" s="10">
         <v>66000</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J280" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A281" s="5">
         <v>134</v>
       </c>
@@ -20344,8 +21759,12 @@
       <c r="I281" s="10">
         <v>66000</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J281" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A282" s="5">
         <v>240</v>
       </c>
@@ -20372,8 +21791,12 @@
         <f>33000+15000+3000+15000</f>
         <v>66000</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J282" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A283" s="5">
         <v>259</v>
       </c>
@@ -20401,8 +21824,12 @@
       <c r="I283" s="10">
         <v>65000</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J283" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A284" s="5">
         <v>260</v>
       </c>
@@ -20430,8 +21857,12 @@
       <c r="I284" s="10">
         <v>65000</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J284" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A285" s="5">
         <v>109</v>
       </c>
@@ -20456,8 +21887,12 @@
       <c r="I285" s="10">
         <v>65000</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J285" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A286" s="5">
         <v>241</v>
       </c>
@@ -20484,8 +21919,12 @@
         <f>27000+18000+6000+12000</f>
         <v>63000</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J286" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A287" s="5">
         <v>43</v>
       </c>
@@ -20510,8 +21949,12 @@
       <c r="I287" s="10">
         <v>62000</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J287" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A288" s="5">
         <v>262</v>
       </c>
@@ -20539,8 +21982,12 @@
       <c r="I288" s="10">
         <v>61000</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J288" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A289" s="5">
         <v>205</v>
       </c>
@@ -20565,8 +22012,12 @@
         <f>35000+24000</f>
         <v>59000</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J289" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A290" s="5">
         <v>358</v>
       </c>
@@ -20592,8 +22043,12 @@
       <c r="I290" s="10">
         <v>59000</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J290" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A291" s="5">
         <v>121</v>
       </c>
@@ -20618,8 +22073,12 @@
       <c r="I291" s="10">
         <v>59000</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J291" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A292" s="5">
         <v>280</v>
       </c>
@@ -20646,8 +22105,12 @@
         <f>3000+6000+3000+46500</f>
         <v>58500</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J292" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A293" s="5">
         <v>283</v>
       </c>
@@ -20674,8 +22137,12 @@
         <f>12000+46500</f>
         <v>58500</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J293" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A294" s="5">
         <v>242</v>
       </c>
@@ -20702,8 +22169,12 @@
         <f>24000+15000+3000+15000</f>
         <v>57000</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J294" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A295" s="5">
         <v>261</v>
       </c>
@@ -20731,8 +22202,12 @@
       <c r="I295" s="10">
         <v>57000</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J295" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A296" s="5">
         <v>114</v>
       </c>
@@ -20757,8 +22232,12 @@
       <c r="I296" s="10">
         <v>57000</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J296" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A297" s="5">
         <v>56</v>
       </c>
@@ -20783,8 +22262,12 @@
       <c r="I297" s="10">
         <v>56600</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J297" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A298" s="5">
         <v>298</v>
       </c>
@@ -20804,8 +22287,12 @@
       <c r="I298" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J298" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A299" s="5">
         <v>299</v>
       </c>
@@ -20825,8 +22312,12 @@
       <c r="I299" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J299" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A300" s="5">
         <v>300</v>
       </c>
@@ -20846,8 +22337,12 @@
       <c r="I300" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J300" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A301" s="5">
         <v>301</v>
       </c>
@@ -20867,8 +22362,12 @@
       <c r="I301" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J301" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A302" s="5">
         <v>302</v>
       </c>
@@ -20888,8 +22387,12 @@
       <c r="I302" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J302" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A303" s="5">
         <v>303</v>
       </c>
@@ -20913,8 +22416,12 @@
         <v>21</v>
       </c>
       <c r="I303" s="8"/>
-    </row>
-    <row r="304" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J303" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A304" s="5">
         <v>304</v>
       </c>
@@ -20938,8 +22445,12 @@
         <v>13</v>
       </c>
       <c r="I304" s="8"/>
-    </row>
-    <row r="305" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J304" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A305" s="5">
         <v>305</v>
       </c>
@@ -20963,8 +22474,12 @@
         <v>16</v>
       </c>
       <c r="I305" s="8"/>
-    </row>
-    <row r="306" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J305" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A306" s="5">
         <v>306</v>
       </c>
@@ -20988,8 +22503,12 @@
         <v>12</v>
       </c>
       <c r="I306" s="8"/>
-    </row>
-    <row r="307" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J306" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A307" s="5">
         <v>307</v>
       </c>
@@ -21013,8 +22532,12 @@
         <v>3</v>
       </c>
       <c r="I307" s="8"/>
-    </row>
-    <row r="308" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J307" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A308" s="5">
         <v>308</v>
       </c>
@@ -21038,8 +22561,12 @@
         <v>16</v>
       </c>
       <c r="I308" s="8"/>
-    </row>
-    <row r="309" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J308" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A309" s="5">
         <v>309</v>
       </c>
@@ -21063,8 +22590,12 @@
         <v>8</v>
       </c>
       <c r="I309" s="8"/>
-    </row>
-    <row r="310" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J309" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A310" s="5">
         <v>310</v>
       </c>
@@ -21088,8 +22619,12 @@
         <v>20</v>
       </c>
       <c r="I310" s="8"/>
-    </row>
-    <row r="311" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J310" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A311" s="5">
         <v>311</v>
       </c>
@@ -21113,8 +22648,12 @@
         <v>6</v>
       </c>
       <c r="I311" s="8"/>
-    </row>
-    <row r="312" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J311" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A312" s="5">
         <v>312</v>
       </c>
@@ -21138,8 +22677,12 @@
         <v>6</v>
       </c>
       <c r="I312" s="8"/>
-    </row>
-    <row r="313" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J312" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A313" s="5">
         <v>313</v>
       </c>
@@ -21163,8 +22706,12 @@
         <v>12</v>
       </c>
       <c r="I313" s="8"/>
-    </row>
-    <row r="314" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J313" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A314" s="5">
         <v>36</v>
       </c>
@@ -21188,8 +22735,12 @@
         <f>49000+7000</f>
         <v>56000</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J314" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A315" s="5">
         <v>117</v>
       </c>
@@ -21214,8 +22765,12 @@
       <c r="I315" s="10">
         <v>56000</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J315" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A316" s="5">
         <v>243</v>
       </c>
@@ -21242,8 +22797,12 @@
         <f>27000+18000+3000+7500</f>
         <v>55500</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J316" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A317" s="5">
         <v>133</v>
       </c>
@@ -21265,8 +22824,12 @@
       <c r="I317" s="10">
         <v>54000</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J317" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A318" s="5">
         <v>119</v>
       </c>
@@ -21291,8 +22854,12 @@
       <c r="I318" s="10">
         <v>52000</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J318" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A319" s="5">
         <v>47</v>
       </c>
@@ -21317,8 +22884,12 @@
       <c r="I319" s="10">
         <v>51000</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J319" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A320" s="5">
         <v>250</v>
       </c>
@@ -21345,8 +22916,12 @@
         <f>27000+18000+6000</f>
         <v>51000</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J320" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A321" s="5">
         <v>321</v>
       </c>
@@ -21370,8 +22945,12 @@
         <v>19</v>
       </c>
       <c r="I321" s="8"/>
-    </row>
-    <row r="322" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J321" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A322" s="5">
         <v>322</v>
       </c>
@@ -21395,8 +22974,12 @@
         <v>18</v>
       </c>
       <c r="I322" s="8"/>
-    </row>
-    <row r="323" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J322" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A323" s="5">
         <v>323</v>
       </c>
@@ -21420,8 +23003,12 @@
         <v>5</v>
       </c>
       <c r="I323" s="8"/>
-    </row>
-    <row r="324" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J323" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A324" s="5">
         <v>324</v>
       </c>
@@ -21445,8 +23032,12 @@
         <v>20</v>
       </c>
       <c r="I324" s="8"/>
-    </row>
-    <row r="325" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J324" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A325" s="5">
         <v>284</v>
       </c>
@@ -21473,8 +23064,12 @@
         <f>15000+36000</f>
         <v>51000</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J325" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A326" s="5">
         <v>115</v>
       </c>
@@ -21499,8 +23094,12 @@
       <c r="I326" s="10">
         <v>49000</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J326" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A327" s="5">
         <v>116</v>
       </c>
@@ -21525,8 +23124,12 @@
       <c r="I327" s="10">
         <v>48000</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J327" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A328" s="5">
         <v>285</v>
       </c>
@@ -21553,8 +23156,12 @@
         <f>15000+30000</f>
         <v>45000</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J328" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A329" s="5">
         <v>55</v>
       </c>
@@ -21579,8 +23186,12 @@
       <c r="I329" s="8">
         <v>44000</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J329" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A330" s="5">
         <v>316</v>
       </c>
@@ -21607,8 +23218,12 @@
         <f>10000+22000+12000</f>
         <v>44000</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J330" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A331" s="5">
         <v>258</v>
       </c>
@@ -21635,8 +23250,12 @@
         <f>15000+16000+12000</f>
         <v>43000</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J331" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A332" s="5">
         <v>35</v>
       </c>
@@ -21659,8 +23278,12 @@
       <c r="I332" s="10">
         <v>42000</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J332" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A333" s="5">
         <v>37</v>
       </c>
@@ -21683,8 +23306,12 @@
       <c r="I333" s="10">
         <v>42000</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J333" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A334" s="5">
         <v>244</v>
       </c>
@@ -21711,8 +23338,12 @@
         <f>24000+15000+3000</f>
         <v>42000</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J334" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A335" s="5">
         <v>245</v>
       </c>
@@ -21739,8 +23370,12 @@
         <f>24000+18000</f>
         <v>42000</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J335" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A336" s="5">
         <v>120</v>
       </c>
@@ -21765,8 +23400,12 @@
       <c r="I336" s="10">
         <v>41500</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J336" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A337" s="5">
         <v>337</v>
       </c>
@@ -21790,8 +23429,12 @@
         <v>20</v>
       </c>
       <c r="I337" s="8"/>
-    </row>
-    <row r="338" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J337" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A338" s="5">
         <v>338</v>
       </c>
@@ -21815,8 +23458,12 @@
         <v>7</v>
       </c>
       <c r="I338" s="8"/>
-    </row>
-    <row r="339" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J338" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A339" s="5">
         <v>339</v>
       </c>
@@ -21840,8 +23487,12 @@
         <v>13</v>
       </c>
       <c r="I339" s="8"/>
-    </row>
-    <row r="340" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J339" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A340" s="5">
         <v>340</v>
       </c>
@@ -21865,8 +23516,12 @@
         <v>12</v>
       </c>
       <c r="I340" s="8"/>
-    </row>
-    <row r="341" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J340" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A341" s="5">
         <v>341</v>
       </c>
@@ -21890,8 +23545,12 @@
         <v>8</v>
       </c>
       <c r="I341" s="8"/>
-    </row>
-    <row r="342" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J341" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A342" s="5">
         <v>342</v>
       </c>
@@ -21915,8 +23574,12 @@
         <v>3</v>
       </c>
       <c r="I342" s="8"/>
-    </row>
-    <row r="343" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J342" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A343" s="5">
         <v>343</v>
       </c>
@@ -21940,8 +23603,12 @@
         <v>38</v>
       </c>
       <c r="I343" s="8"/>
-    </row>
-    <row r="344" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J343" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A344" s="5">
         <v>344</v>
       </c>
@@ -21965,8 +23632,12 @@
         <v>6</v>
       </c>
       <c r="I344" s="8"/>
-    </row>
-    <row r="345" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J344" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A345" s="5">
         <v>345</v>
       </c>
@@ -21990,8 +23661,12 @@
         <v>6</v>
       </c>
       <c r="I345" s="8"/>
-    </row>
-    <row r="346" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J345" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A346" s="5">
         <v>346</v>
       </c>
@@ -22015,8 +23690,12 @@
         <v>6</v>
       </c>
       <c r="I346" s="8"/>
-    </row>
-    <row r="347" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J346" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A347" s="5">
         <v>347</v>
       </c>
@@ -22040,8 +23719,12 @@
         <v>5</v>
       </c>
       <c r="I347" s="8"/>
-    </row>
-    <row r="348" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J347" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A348" s="5">
         <v>348</v>
       </c>
@@ -22065,8 +23748,12 @@
         <v>12</v>
       </c>
       <c r="I348" s="8"/>
-    </row>
-    <row r="349" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J348" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A349" s="5">
         <v>349</v>
       </c>
@@ -22090,8 +23777,12 @@
         <v>19</v>
       </c>
       <c r="I349" s="8"/>
-    </row>
-    <row r="350" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J349" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A350" s="5">
         <v>350</v>
       </c>
@@ -22115,8 +23806,12 @@
         <v>9</v>
       </c>
       <c r="I350" s="8"/>
-    </row>
-    <row r="351" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J350" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A351" s="5">
         <v>351</v>
       </c>
@@ -22140,8 +23835,12 @@
         <v>7</v>
       </c>
       <c r="I351" s="8"/>
-    </row>
-    <row r="352" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J351" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A352" s="5">
         <v>352</v>
       </c>
@@ -22165,8 +23864,12 @@
         <v>9</v>
       </c>
       <c r="I352" s="8"/>
-    </row>
-    <row r="353" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J352" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A353" s="5">
         <v>353</v>
       </c>
@@ -22190,8 +23893,12 @@
         <v>4</v>
       </c>
       <c r="I353" s="8"/>
-    </row>
-    <row r="354" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J353" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A354" s="5">
         <v>354</v>
       </c>
@@ -22215,8 +23922,12 @@
         <v>8</v>
       </c>
       <c r="I354" s="8"/>
-    </row>
-    <row r="355" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J354" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A355" s="5">
         <v>355</v>
       </c>
@@ -22240,8 +23951,12 @@
         <v>16</v>
       </c>
       <c r="I355" s="8"/>
-    </row>
-    <row r="356" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J355" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A356" s="5">
         <v>118</v>
       </c>
@@ -22266,8 +23981,12 @@
       <c r="I356" s="10">
         <v>41000</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J356" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A357" s="5">
         <v>197</v>
       </c>
@@ -22293,8 +24012,12 @@
       <c r="I357" s="10">
         <v>40000</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J357" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A358" s="5">
         <v>257</v>
       </c>
@@ -22321,8 +24044,12 @@
         <f>12000+22000+6000</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J358" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A359" s="5">
         <v>359</v>
       </c>
@@ -22346,8 +24073,12 @@
         <v>1</v>
       </c>
       <c r="I359" s="8"/>
-    </row>
-    <row r="360" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J359" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A360" s="5">
         <v>248</v>
       </c>
@@ -22374,8 +24105,12 @@
         <f>18000+12000+9000</f>
         <v>39000</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J360" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A361" s="5">
         <v>251</v>
       </c>
@@ -22402,8 +24137,12 @@
         <f>12000+21000+6000</f>
         <v>39000</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J361" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A362" s="5">
         <v>362</v>
       </c>
@@ -22427,8 +24166,12 @@
         <v>26</v>
       </c>
       <c r="I362" s="8"/>
-    </row>
-    <row r="363" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J362" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A363" s="5">
         <v>388</v>
       </c>
@@ -22454,8 +24197,12 @@
       <c r="I363" s="10">
         <v>39000</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J363" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A364" s="5">
         <v>390</v>
       </c>
@@ -22481,8 +24228,12 @@
       <c r="I364" s="10">
         <v>37000</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J364" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A365" s="5">
         <v>252</v>
       </c>
@@ -22509,8 +24260,12 @@
         <f>18000+15000+3000</f>
         <v>36000</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J365" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A366" s="5">
         <v>286</v>
       </c>
@@ -22536,8 +24291,12 @@
       <c r="I366" s="10">
         <v>36000</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J366" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A367" s="5">
         <v>44</v>
       </c>
@@ -22562,8 +24321,12 @@
       <c r="I367" s="10">
         <v>35000</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J367" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A368" s="5">
         <v>287</v>
       </c>
@@ -22590,8 +24353,12 @@
         <f>9000+25500</f>
         <v>34500</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J368" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A369" s="5">
         <v>199</v>
       </c>
@@ -22617,8 +24384,12 @@
       <c r="I369" s="10">
         <v>34000</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J369" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A370" s="5">
         <v>255</v>
       </c>
@@ -22645,8 +24416,12 @@
         <f>12000+19000+3000</f>
         <v>34000</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J370" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A371" s="5">
         <v>256</v>
       </c>
@@ -22673,8 +24448,12 @@
         <f>15000+16000+3000</f>
         <v>34000</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J371" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A372" s="5">
         <v>366</v>
       </c>
@@ -22700,8 +24479,12 @@
       <c r="I372" s="10">
         <v>34000</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J372" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A373" s="5">
         <v>373</v>
       </c>
@@ -22725,8 +24508,12 @@
         <v>14</v>
       </c>
       <c r="I373" s="8"/>
-    </row>
-    <row r="374" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J373" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A374" s="5">
         <v>374</v>
       </c>
@@ -22750,8 +24537,12 @@
         <v>6</v>
       </c>
       <c r="I374" s="8"/>
-    </row>
-    <row r="375" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J374" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A375" s="5">
         <v>375</v>
       </c>
@@ -22775,8 +24566,12 @@
         <v>7</v>
       </c>
       <c r="I375" s="8"/>
-    </row>
-    <row r="376" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J375" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A376" s="5">
         <v>376</v>
       </c>
@@ -22800,8 +24595,12 @@
         <v>10</v>
       </c>
       <c r="I376" s="8"/>
-    </row>
-    <row r="377" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J376" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A377" s="5">
         <v>377</v>
       </c>
@@ -22825,8 +24624,12 @@
         <v>8</v>
       </c>
       <c r="I377" s="8"/>
-    </row>
-    <row r="378" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J377" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A378" s="5">
         <v>378</v>
       </c>
@@ -22850,8 +24653,12 @@
         <v>7</v>
       </c>
       <c r="I378" s="8"/>
-    </row>
-    <row r="379" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J378" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A379" s="5">
         <v>75</v>
       </c>
@@ -22878,8 +24685,12 @@
         <f>14000+12000+7000</f>
         <v>33000</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J379" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A380" s="5">
         <v>175</v>
       </c>
@@ -22905,8 +24716,12 @@
       <c r="I380" s="10">
         <v>33000</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J380" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A381" s="5">
         <v>246</v>
       </c>
@@ -22933,8 +24748,12 @@
         <f>18000+12000+3000</f>
         <v>33000</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J381" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A382" s="5">
         <v>249</v>
       </c>
@@ -22961,8 +24780,12 @@
         <f>18000+12000+3000</f>
         <v>33000</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J382" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A383" s="5">
         <v>253</v>
       </c>
@@ -22989,8 +24812,12 @@
         <f>15000+15000+3000</f>
         <v>33000</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J383" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A384" s="5">
         <v>384</v>
       </c>
@@ -23016,8 +24843,12 @@
       <c r="I384" s="10">
         <v>33000</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J384" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A385" s="5">
         <v>290</v>
       </c>
@@ -23044,8 +24875,12 @@
         <f>12000+19500</f>
         <v>31500</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J385" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A386" s="5">
         <v>53</v>
       </c>
@@ -23070,8 +24905,12 @@
       <c r="I386" s="8">
         <v>31400</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J386" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -23097,8 +24936,12 @@
       <c r="I387" s="10">
         <v>31000</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J387" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A388" s="5">
         <v>46</v>
       </c>
@@ -23123,8 +24966,12 @@
       <c r="I388" s="10">
         <v>30000</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J388" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A389" s="5">
         <v>291</v>
       </c>
@@ -23150,8 +24997,12 @@
       <c r="I389" s="10">
         <v>30000</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J389" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A390" s="5">
         <v>200</v>
       </c>
@@ -23177,8 +25028,12 @@
       <c r="I390" s="10">
         <v>29000</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J390" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A391" s="5">
         <v>104</v>
       </c>
@@ -23203,8 +25058,12 @@
       <c r="I391" s="10">
         <v>29000</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J391" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A392" s="5">
         <v>288</v>
       </c>
@@ -23231,8 +25090,12 @@
         <f>6000+22500</f>
         <v>28500</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J392" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A393" s="5">
         <v>247</v>
       </c>
@@ -23259,8 +25122,12 @@
         <f>12000+12000+3000</f>
         <v>27000</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J393" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A394" s="5">
         <v>289</v>
       </c>
@@ -23286,8 +25153,12 @@
       <c r="I394" s="10">
         <v>27000</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J394" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A395" s="5">
         <v>389</v>
       </c>
@@ -23313,8 +25184,12 @@
       <c r="I395" s="10">
         <v>27000</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J395" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A396" s="5">
         <v>206</v>
       </c>
@@ -23339,8 +25214,12 @@
         <f>17000+9000</f>
         <v>26000</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J396" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A397" s="5">
         <v>207</v>
       </c>
@@ -23364,8 +25243,12 @@
       <c r="I397" s="10">
         <v>26000</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J397" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A398" s="5">
         <v>209</v>
       </c>
@@ -23389,8 +25272,12 @@
       <c r="I398" s="10">
         <v>26000</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J398" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A399" s="5">
         <v>64</v>
       </c>
@@ -23415,8 +25302,12 @@
       <c r="I399" s="10">
         <v>26000</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J399" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A400" s="5">
         <v>183</v>
       </c>
@@ -23442,8 +25333,12 @@
       <c r="I400" s="10">
         <v>25000</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J400" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A401" s="5">
         <v>184</v>
       </c>
@@ -23469,8 +25364,12 @@
       <c r="I401" s="10">
         <v>25000</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J401" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A402" s="5">
         <v>297</v>
       </c>
@@ -23496,8 +25395,12 @@
       <c r="I402" s="10">
         <v>25000</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J402" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A403" s="5">
         <v>40</v>
       </c>
@@ -23520,8 +25423,12 @@
       <c r="I403" s="10">
         <v>24000</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J403" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A404" s="5">
         <v>293</v>
       </c>
@@ -23547,8 +25454,12 @@
       <c r="I404" s="10">
         <v>24000</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J404" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A405" s="5">
         <v>385</v>
       </c>
@@ -23574,8 +25485,12 @@
       <c r="I405" s="10">
         <v>24000</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J405" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A406" s="5">
         <v>208</v>
       </c>
@@ -23599,8 +25514,12 @@
       <c r="I406" s="10">
         <v>23000</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J406" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A407" s="5">
         <v>50</v>
       </c>
@@ -23625,8 +25544,12 @@
       <c r="I407" s="10">
         <v>23000</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J407" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A408" s="5">
         <v>387</v>
       </c>
@@ -23652,8 +25575,12 @@
       <c r="I408" s="10">
         <v>22000</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J408" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A409" s="5">
         <v>210</v>
       </c>
@@ -23677,8 +25604,12 @@
       <c r="I409" s="10">
         <v>20000</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J409" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A410" s="5">
         <v>42</v>
       </c>
@@ -23703,8 +25634,12 @@
       <c r="I410" s="10">
         <v>20000</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J410" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A411" s="5">
         <v>45</v>
       </c>
@@ -23729,8 +25664,12 @@
       <c r="I411" s="10">
         <v>20000</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J411" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A412" s="5">
         <v>49</v>
       </c>
@@ -23755,8 +25694,12 @@
       <c r="I412" s="10">
         <v>20000</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J412" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A413" s="5">
         <v>292</v>
       </c>
@@ -23783,8 +25726,12 @@
         <f>6000+13500</f>
         <v>19500</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J413" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A414" s="5">
         <v>41</v>
       </c>
@@ -23807,8 +25754,12 @@
       <c r="I414" s="10">
         <v>18000</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J414" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A415" s="5">
         <v>212</v>
       </c>
@@ -23832,8 +25783,12 @@
       <c r="I415" s="10">
         <v>16000</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J415" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A416" s="5">
         <v>218</v>
       </c>
@@ -23857,8 +25812,12 @@
       <c r="I416" s="10">
         <v>16000</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J416" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A417" s="5">
         <v>294</v>
       </c>
@@ -23884,8 +25843,12 @@
       <c r="I417" s="10">
         <v>15000</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J417" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A418" s="5">
         <v>211</v>
       </c>
@@ -23909,8 +25872,12 @@
       <c r="I418" s="10">
         <v>13000</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J418" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A419" s="5">
         <v>214</v>
       </c>
@@ -23934,8 +25901,12 @@
       <c r="I419" s="10">
         <v>13000</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J419" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A420" s="5">
         <v>217</v>
       </c>
@@ -23959,8 +25930,12 @@
       <c r="I420" s="10">
         <v>13000</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J420" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A421" s="5">
         <v>48</v>
       </c>
@@ -23985,8 +25960,12 @@
       <c r="I421" s="10">
         <v>13000</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J421" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A422" s="5">
         <v>137</v>
       </c>
@@ -24009,8 +25988,12 @@
       <c r="I422" s="10">
         <v>12000</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J422" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A423" s="5">
         <v>99</v>
       </c>
@@ -24035,8 +26018,12 @@
       <c r="I423" s="10">
         <v>11700</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J423" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A424" s="5">
         <v>296</v>
       </c>
@@ -24062,8 +26049,12 @@
       <c r="I424" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J424" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A425" s="5">
         <v>220</v>
       </c>
@@ -24087,8 +26078,12 @@
       <c r="I425" s="10">
         <v>9000</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J425" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A426" s="5">
         <v>223</v>
       </c>
@@ -24112,8 +26107,12 @@
       <c r="I426" s="10">
         <v>9000</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J426" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A427" s="5">
         <v>225</v>
       </c>
@@ -24137,8 +26136,12 @@
       <c r="I427" s="10">
         <v>9000</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J427" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A428" s="5">
         <v>182</v>
       </c>
@@ -24164,8 +26167,12 @@
       <c r="I428" s="10">
         <v>9000</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J428" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A429" s="5">
         <v>57</v>
       </c>
@@ -24190,8 +26197,12 @@
       <c r="I429" s="10">
         <v>8000</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J429" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A430" s="5">
         <v>213</v>
       </c>
@@ -24215,8 +26226,12 @@
       <c r="I430" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J430" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A431" s="5">
         <v>215</v>
       </c>
@@ -24240,8 +26255,12 @@
       <c r="I431" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J431" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A432" s="5">
         <v>216</v>
       </c>
@@ -24265,8 +26284,12 @@
       <c r="I432" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J432" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A433" s="5">
         <v>219</v>
       </c>
@@ -24290,8 +26313,12 @@
       <c r="I433" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J433" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A434" s="5">
         <v>224</v>
       </c>
@@ -24315,8 +26342,12 @@
       <c r="I434" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J434" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A435" s="5">
         <v>229</v>
       </c>
@@ -24340,8 +26371,12 @@
       <c r="I435" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J435" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A436" s="5">
         <v>233</v>
       </c>
@@ -24365,8 +26400,12 @@
       <c r="I436" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J436" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A437" s="5">
         <v>221</v>
       </c>
@@ -24390,8 +26429,12 @@
       <c r="I437" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J437" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A438" s="5">
         <v>222</v>
       </c>
@@ -24415,8 +26458,12 @@
       <c r="I438" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J438" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A439" s="5">
         <v>226</v>
       </c>
@@ -24440,8 +26487,12 @@
       <c r="I439" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J439" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A440" s="5">
         <v>227</v>
       </c>
@@ -24465,8 +26516,12 @@
       <c r="I440" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J440" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A441" s="5">
         <v>228</v>
       </c>
@@ -24490,8 +26545,12 @@
       <c r="I441" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J441" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A442" s="5">
         <v>230</v>
       </c>
@@ -24515,8 +26574,12 @@
       <c r="I442" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J442" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A443" s="5">
         <v>231</v>
       </c>
@@ -24540,8 +26603,12 @@
       <c r="I443" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J443" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A444" s="5">
         <v>232</v>
       </c>
@@ -24565,8 +26632,12 @@
       <c r="I444" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J444" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A445" s="5">
         <v>422</v>
       </c>
@@ -24593,8 +26664,12 @@
         <f>1000</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J445" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A446" s="5">
         <v>38</v>
       </c>
@@ -24619,8 +26694,12 @@
       <c r="I446" s="10">
         <v>721</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J446" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A447" s="5">
         <v>189</v>
       </c>
@@ -24646,8 +26725,12 @@
       <c r="I447" s="10">
         <v>600</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J447" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A448" s="5">
         <v>58</v>
       </c>
@@ -24672,8 +26755,12 @@
       <c r="I448" s="10">
         <v>37</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J448" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A449" s="5">
         <v>21</v>
       </c>
@@ -24696,8 +26783,12 @@
       <c r="I449" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J449" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A450" s="5">
         <v>32</v>
       </c>
@@ -24720,8 +26811,12 @@
       <c r="I450" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J450" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A451" s="5">
         <v>59</v>
       </c>
@@ -24746,8 +26841,12 @@
       <c r="I451" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J451" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A452" s="5">
         <v>65</v>
       </c>
@@ -24772,8 +26871,12 @@
       <c r="I452" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J452" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A453" s="5">
         <v>66</v>
       </c>
@@ -24798,8 +26901,12 @@
       <c r="I453" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="J453" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A454" s="5">
         <v>67</v>
       </c>
@@ -24824,8 +26931,12 @@
       <c r="I454" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J454" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A455" s="5">
         <v>254</v>
       </c>
@@ -24851,8 +26962,12 @@
       <c r="I455" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J455" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A456" s="5">
         <v>295</v>
       </c>
@@ -24878,8 +26993,12 @@
       <c r="I456" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J456" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A457" s="5">
         <v>325</v>
       </c>
@@ -24905,8 +27024,12 @@
       <c r="I457" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J457" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A458" s="5">
         <v>326</v>
       </c>
@@ -24932,8 +27055,12 @@
       <c r="I458" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J458" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A459" s="5">
         <v>327</v>
       </c>
@@ -24959,8 +27086,12 @@
       <c r="I459" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J459" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A460" s="5">
         <v>328</v>
       </c>
@@ -24986,8 +27117,12 @@
       <c r="I460" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J460" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A461" s="5">
         <v>329</v>
       </c>
@@ -25013,8 +27148,12 @@
       <c r="I461" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J461" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A462" s="5">
         <v>330</v>
       </c>
@@ -25040,8 +27179,12 @@
       <c r="I462" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J462" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A463" s="5">
         <v>331</v>
       </c>
@@ -25067,8 +27210,12 @@
       <c r="I463" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J463" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A464" s="5">
         <v>332</v>
       </c>
@@ -25094,8 +27241,12 @@
       <c r="I464" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J464" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A465" s="5">
         <v>333</v>
       </c>
@@ -25121,8 +27272,12 @@
       <c r="I465" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J465" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A466" s="5">
         <v>334</v>
       </c>
@@ -25148,8 +27303,12 @@
       <c r="I466" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J466" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A467" s="5">
         <v>335</v>
       </c>
@@ -25175,8 +27334,12 @@
       <c r="I467" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J467" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A468" s="5">
         <v>336</v>
       </c>
@@ -25202,8 +27365,12 @@
       <c r="I468" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J468" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A469" s="5">
         <v>469</v>
       </c>
@@ -25227,8 +27394,12 @@
       </c>
       <c r="H469" s="11"/>
       <c r="I469" s="8"/>
-    </row>
-    <row r="470" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J469" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A470" s="5">
         <v>470</v>
       </c>
@@ -25254,8 +27425,12 @@
         <v>46</v>
       </c>
       <c r="I470" s="8"/>
-    </row>
-    <row r="471" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J470" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A471" s="5">
         <v>360</v>
       </c>
@@ -25281,8 +27456,12 @@
       <c r="I471" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J471" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A472" s="5">
         <v>472</v>
       </c>
@@ -25308,8 +27487,12 @@
         <v>6</v>
       </c>
       <c r="I472" s="8"/>
-    </row>
-    <row r="473" spans="1:9" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="J472" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A473" s="5">
         <v>361</v>
       </c>
@@ -25335,8 +27518,12 @@
       <c r="I473" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J473" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A474" s="5">
         <v>474</v>
       </c>
@@ -25360,6 +27547,36 @@
         <v>19</v>
       </c>
       <c r="I474" s="8"/>
+      <c r="J474" s="11">
+        <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="A475" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B475" s="19"/>
+      <c r="C475" s="19"/>
+      <c r="D475" s="19"/>
+      <c r="E475" s="19"/>
+      <c r="F475" s="19"/>
+      <c r="G475" s="19">
+        <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
+        <v>317252</v>
+      </c>
+      <c r="H475" s="19">
+        <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
+        <v>5323</v>
+      </c>
+      <c r="I475" s="20">
+        <f>SUBTOTAL(109,Table1[فروش])</f>
+        <v>56997706</v>
+      </c>
+      <c r="J475" s="19">
+        <f>SUBTOTAL(109,Table1[Column1])</f>
+        <v>31946</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/آمار آثار صفحه عربی.xlsx
+++ b/آمار آثار صفحه عربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216493A3-2E35-4734-A9D9-D7C53BF9F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B093975-9BDE-49FB-987E-DEEC782DCF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="499">
   <si>
     <t>دقایق تماشا</t>
   </si>
@@ -1679,7 +1679,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1734,10 +1734,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1766,57 +1767,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="B Mitra"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="B Mitra"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1998,6 +1948,31 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2017,6 +1992,32 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3509,2819 +3510,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="1">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="A  Mitra_1 (MRT)" panose="00000700000000000000" pitchFamily="2" charset="-78"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="fa-IR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:cs typeface="A  Mitra_1 (MRT)" panose="00000700000000000000" pitchFamily="2" charset="-78"/>
-              </a:rPr>
-              <a:t>70 پرفروش</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:cs typeface="A  Mitra_1 (MRT)" panose="00000700000000000000" pitchFamily="2" charset="-78"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="1">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="A  Mitra_1 (MRT)" panose="00000700000000000000" pitchFamily="2" charset="-78"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'جزئیات فیلمهای عربی'!$D$2:$E$71</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="68"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>انیمیشن</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>قلب الامین</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>18 تحت تعقیب</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>خامنئی - شجره نامه خانواده</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>فرحه</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>نگهبان قدس 1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>خامنئی - طلبگی تا اجتهاد</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>عیون الحرامیه</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>سفر آخر 1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>خامنئی - جوان انقلابی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>نگهبان قدس 2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>خامنئی - خمینی مشهد</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>جنگل نقب</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>سلاح مقاومت فلسطین</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>خامنئی - عزیز ایران تو یوسف میشوی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>خامنئی - ریاست تا رهبری</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>خامنئی - مدافع انقلاب</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>خون درخت خرما</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>نگهبان قدس 3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>خامنئی - مجاهدی در میدان های سخت</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>سفر آخر 2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>العقاب 1</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>نگهبان قدس 4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>نگهبان قدس 5</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>جنگ داعش و عراق</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>عسل سیاه</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>نگهبان قدس 6</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>دیواری در قلبم</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>نگهبان قدس 7</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>پدر</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>عمر</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>نگهبان قدس 8</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>نگهبان قدس 9</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>اسرائیل، شکاف از درون</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>موزه حرم امام حسین(ع)</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>فصل دوم تولد طلوع 1</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>سقطت</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>شیهانه</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>نگهبان قدس 10</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>زمستانی که گذشت</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>نگهبان قدس 11</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>نگهبان قدس 12</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>برتبه الشهید - ابومهدی المهندس</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>نواره</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>چهارسوق 8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>ساعت آخر</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>نگهبان قدس 13</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>نگهبان قدس 14</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>چهارسوق 5</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>چهارسوق 7</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>مدیرکل 1</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>مشت آزادگان 1</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>کان معنا</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>نگهبان قدس 15</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>چهارسوق 11</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>چهارسوق 24</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>الحبل السری (بند ناف)</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>از جایی که فکرش را نمی کنند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>چهارسوق 10</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>چهارسوق 12</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>چهارسوق 29</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>چهارسوق 33</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>سیدعباس موسوی</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>مریم</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>من الخیمه الی الدوله</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>چهارسوق 1</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>چهارسوق 13</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>چهارسوق 14</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>چهارسوق 17</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'جزئیات فیلمهای عربی'!$F$2:$F$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
-                <c:pt idx="0">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>146</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-08B7-431A-916F-245EA92661E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'جزئیات فیلمهای عربی'!$D$2:$E$71</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="68"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>انیمیشن</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>قلب الامین</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>18 تحت تعقیب</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>خامنئی - شجره نامه خانواده</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>فرحه</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>نگهبان قدس 1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>خامنئی - طلبگی تا اجتهاد</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>عیون الحرامیه</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>سفر آخر 1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>خامنئی - جوان انقلابی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>نگهبان قدس 2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>خامنئی - خمینی مشهد</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>جنگل نقب</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>سلاح مقاومت فلسطین</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>خامنئی - عزیز ایران تو یوسف میشوی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>خامنئی - ریاست تا رهبری</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>خامنئی - مدافع انقلاب</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>خون درخت خرما</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>نگهبان قدس 3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>خامنئی - مجاهدی در میدان های سخت</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>سفر آخر 2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>العقاب 1</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>نگهبان قدس 4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>نگهبان قدس 5</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>جنگ داعش و عراق</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>عسل سیاه</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>نگهبان قدس 6</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>دیواری در قلبم</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>نگهبان قدس 7</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>پدر</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>عمر</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>نگهبان قدس 8</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>نگهبان قدس 9</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>اسرائیل، شکاف از درون</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>موزه حرم امام حسین(ع)</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>فصل دوم تولد طلوع 1</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>سقطت</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>شیهانه</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>نگهبان قدس 10</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>زمستانی که گذشت</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>نگهبان قدس 11</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>نگهبان قدس 12</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>برتبه الشهید - ابومهدی المهندس</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>نواره</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>چهارسوق 8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>ساعت آخر</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>نگهبان قدس 13</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>نگهبان قدس 14</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>چهارسوق 5</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>چهارسوق 7</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>مدیرکل 1</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>مشت آزادگان 1</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>کان معنا</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>نگهبان قدس 15</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>چهارسوق 11</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>چهارسوق 24</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>الحبل السری (بند ناف)</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>از جایی که فکرش را نمی کنند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>چهارسوق 10</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>چهارسوق 12</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>چهارسوق 29</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>چهارسوق 33</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>سیدعباس موسوی</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>مریم</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>من الخیمه الی الدوله</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>چهارسوق 1</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>چهارسوق 13</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>چهارسوق 14</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>چهارسوق 17</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'جزئیات فیلمهای عربی'!$G$2:$G$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
-                <c:pt idx="0">
-                  <c:v>4606</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1627</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1921</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1489</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>619</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>692</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4793</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3469</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3804</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2823</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2881</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3963</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2385</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>747</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2843</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2103</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2965</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3798</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1801</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3249</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2803</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2924</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2960</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2725</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2823</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2946</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>813</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3124</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2504</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3076</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2513</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2670</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-08B7-431A-916F-245EA92661E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'جزئیات فیلمهای عربی'!$D$2:$E$71</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="68"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>انیمیشن</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>قلب الامین</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>18 تحت تعقیب</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>خامنئی - شجره نامه خانواده</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>فرحه</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>نگهبان قدس 1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>خامنئی - طلبگی تا اجتهاد</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>عیون الحرامیه</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>سفر آخر 1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>خامنئی - جوان انقلابی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>نگهبان قدس 2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>خامنئی - خمینی مشهد</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>جنگل نقب</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>سلاح مقاومت فلسطین</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>خامنئی - عزیز ایران تو یوسف میشوی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>خامنئی - ریاست تا رهبری</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>خامنئی - مدافع انقلاب</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>خون درخت خرما</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>نگهبان قدس 3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>خامنئی - مجاهدی در میدان های سخت</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>سفر آخر 2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>العقاب 1</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>نگهبان قدس 4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>نگهبان قدس 5</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>جنگ داعش و عراق</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>عسل سیاه</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>نگهبان قدس 6</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>دیواری در قلبم</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>نگهبان قدس 7</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>پدر</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>عمر</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>نگهبان قدس 8</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>نگهبان قدس 9</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>اسرائیل، شکاف از درون</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>موزه حرم امام حسین(ع)</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>فصل دوم تولد طلوع 1</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>سقطت</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>شیهانه</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>نگهبان قدس 10</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>زمستانی که گذشت</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>نگهبان قدس 11</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>نگهبان قدس 12</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>برتبه الشهید - ابومهدی المهندس</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>نواره</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>چهارسوق 8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>ساعت آخر</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>نگهبان قدس 13</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>نگهبان قدس 14</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>چهارسوق 5</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>چهارسوق 7</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>مدیرکل 1</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>مشت آزادگان 1</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>کان معنا</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>نگهبان قدس 15</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>چهارسوق 11</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>چهارسوق 24</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>الحبل السری (بند ناف)</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>از جایی که فکرش را نمی کنند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>چهارسوق 10</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>چهارسوق 12</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>چهارسوق 29</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>چهارسوق 33</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>سیدعباس موسوی</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>مریم</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>من الخیمه الی الدوله</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>چهارسوق 1</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>چهارسوق 13</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>چهارسوق 14</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>چهارسوق 17</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'جزئیات فیلمهای عربی'!$H$2:$H$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
-                <c:pt idx="0">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-08B7-431A-916F-245EA92661E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'جزئیات فیلمهای عربی'!$D$2:$E$71</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="68"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>انیمیشن</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>مستند سریالی</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>داستانی</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>سینمایی</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>مستند</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>سریال</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>قلب الامین</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>18 تحت تعقیب</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>خامنئی - شجره نامه خانواده</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>فرحه</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>نگهبان قدس 1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>خامنئی - طلبگی تا اجتهاد</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>عیون الحرامیه</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>سفر آخر 1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>خامنئی - جوان انقلابی</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>نگهبان قدس 2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>خامنئی - خمینی مشهد</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>جنگل نقب</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>سلاح مقاومت فلسطین</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>خامنئی - عزیز ایران تو یوسف میشوی</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>خامنئی - ریاست تا رهبری</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>خامنئی - مدافع انقلاب</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>خون درخت خرما</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>نگهبان قدس 3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>خامنئی - مجاهدی در میدان های سخت</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>سفر آخر 2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>العقاب 1</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>نگهبان قدس 4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>نگهبان قدس 5</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>جنگ داعش و عراق</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>عسل سیاه</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>نگهبان قدس 6</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>دیواری در قلبم</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>نگهبان قدس 7</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>پدر</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>عمر</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>نگهبان قدس 8</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>نگهبان قدس 9</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>اسرائیل، شکاف از درون</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>موزه حرم امام حسین(ع)</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>فصل دوم تولد طلوع 1</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>سقطت</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>شیهانه</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>نگهبان قدس 10</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>زمستانی که گذشت</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>نگهبان قدس 11</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>نگهبان قدس 12</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>برتبه الشهید - ابومهدی المهندس</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>نواره</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>چهارسوق 8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>ساعت آخر</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>نگهبان قدس 13</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>نگهبان قدس 14</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>چهارسوق 5</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>چهارسوق 7</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>مدیرکل 1</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>مشت آزادگان 1</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>کان معنا</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>نگهبان قدس 15</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>چهارسوق 11</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>چهارسوق 24</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>الحبل السری (بند ناف)</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>از جایی که فکرش را نمی کنند</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>چهارسوق 10</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>چهارسوق 12</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>چهارسوق 29</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>چهارسوق 33</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>سیدعباس موسوی</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>مریم</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>من الخیمه الی الدوله</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>چهارسوق 1</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>چهارسوق 13</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>چهارسوق 14</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>چهارسوق 17</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'جزئیات فیلمهای عربی'!$I$2:$I$71</c:f>
-              <c:numCache>
-                <c:formatCode>_ * #,##0_-_ ;_ * #,##0\-_ ;_ * "-"??_-_ ;_ @_ </c:formatCode>
-                <c:ptCount val="68"/>
-                <c:pt idx="0">
-                  <c:v>2721000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1888100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1565450</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1281500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1104650</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1083000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>962500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>899050</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>852500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>799800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>744000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>735750</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>698450</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>650900</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>642050</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>630400</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>622500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>569550</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>552000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>534000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>515000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>485000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>448000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>420000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>403000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>387500</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>376500</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>373000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>365000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>357500</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>332000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>325000</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>318000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>302500</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>298700</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>290000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>272500</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>269000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>268000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>265000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>262000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>255000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>245000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>245000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>244000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>243000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>241000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>236300</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>236000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>235000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>235000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>235000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>235000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>234000</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>233700</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>232000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>225000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-08B7-431A-916F-245EA92661E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="580332128"/>
-        <c:axId val="580332544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="580332128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="A  Mitra_1 (MRT)" panose="00000700000000000000" pitchFamily="2" charset="-78"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="580332544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="580332544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="580332128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6647,7 +3835,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6987,7 +4175,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7298,7 +4486,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7808,7 +4996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8558,46 +5746,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9115,7 +6263,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9126,7 +6274,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9139,7 +6287,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9156,7 +6304,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9172,7 +6320,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9216,35 +6364,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9256,30 +6404,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9319,23 +6468,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9382,19 +6530,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -9445,8 +6582,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9484,20 +6621,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9511,7 +6648,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9552,7 +6689,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9561,14 +6698,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9589,20 +6725,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9623,14 +6758,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10138,508 +7267,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11142,7 +7769,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11743,7 +8370,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12382,42 +9009,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>65088</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D3F41F-2504-46CC-AA48-DBEFCC864275}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12623,250 +9214,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}" name="Table1" displayName="Table1" ref="A1:J475" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A1:J474" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="انیمیشن"/>
-        <filter val="داستانی"/>
-        <filter val="سریال"/>
-        <filter val="سینمایی"/>
-        <filter val="مستند"/>
-        <filter val="مستند سریالی"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="-"/>
-        <filter val="1,000"/>
-        <filter val="1,104,650"/>
-        <filter val="1,281,500"/>
-        <filter val="1,565,450"/>
-        <filter val="1,888,100"/>
-        <filter val="10,000"/>
-        <filter val="100,500"/>
-        <filter val="101,000"/>
-        <filter val="102,000"/>
-        <filter val="104,000"/>
-        <filter val="105,000"/>
-        <filter val="106,000"/>
-        <filter val="108,000"/>
-        <filter val="108,500"/>
-        <filter val="1083000"/>
-        <filter val="109,500"/>
-        <filter val="11,700"/>
-        <filter val="110,000"/>
-        <filter val="112,000"/>
-        <filter val="114,000"/>
-        <filter val="115,000"/>
-        <filter val="115,500"/>
-        <filter val="116,000"/>
-        <filter val="118,000"/>
-        <filter val="12,000"/>
-        <filter val="120,000"/>
-        <filter val="124,000"/>
-        <filter val="124,500"/>
-        <filter val="125,000"/>
-        <filter val="128,000"/>
-        <filter val="128,250"/>
-        <filter val="13,000"/>
-        <filter val="130,000"/>
-        <filter val="132,000"/>
-        <filter val="134,000"/>
-        <filter val="135,000"/>
-        <filter val="136,000"/>
-        <filter val="136,500"/>
-        <filter val="137,500"/>
-        <filter val="138,000"/>
-        <filter val="140,000"/>
-        <filter val="142,500"/>
-        <filter val="143,000"/>
-        <filter val="143000"/>
-        <filter val="144,000"/>
-        <filter val="145,000"/>
-        <filter val="145,300"/>
-        <filter val="146,000"/>
-        <filter val="146,250"/>
-        <filter val="147,500"/>
-        <filter val="148,000"/>
-        <filter val="15,000"/>
-        <filter val="150,000"/>
-        <filter val="153,000"/>
-        <filter val="154998"/>
-        <filter val="155,000"/>
-        <filter val="1560000"/>
-        <filter val="157,500"/>
-        <filter val="158,000"/>
-        <filter val="16,000"/>
-        <filter val="162,500"/>
-        <filter val="165,000"/>
-        <filter val="165000"/>
-        <filter val="170,000"/>
-        <filter val="174,000"/>
-        <filter val="174000"/>
-        <filter val="18,000"/>
-        <filter val="180,000"/>
-        <filter val="185,000"/>
-        <filter val="187,500"/>
-        <filter val="19,500"/>
-        <filter val="190,000"/>
-        <filter val="195,000"/>
-        <filter val="196,000"/>
-        <filter val="198,000"/>
-        <filter val="2,721,000"/>
-        <filter val="20,000"/>
-        <filter val="200,000"/>
-        <filter val="205,000"/>
-        <filter val="207,000"/>
-        <filter val="207,500"/>
-        <filter val="210,000"/>
-        <filter val="215,000"/>
-        <filter val="22,000"/>
-        <filter val="220,000"/>
-        <filter val="222,000"/>
-        <filter val="225,000"/>
-        <filter val="23,000"/>
-        <filter val="230,000"/>
-        <filter val="232,000"/>
-        <filter val="233700"/>
-        <filter val="234,000"/>
-        <filter val="235,000"/>
-        <filter val="236,000"/>
-        <filter val="236300"/>
-        <filter val="24,000"/>
-        <filter val="240,000"/>
-        <filter val="241,000"/>
-        <filter val="243,000"/>
-        <filter val="244,000"/>
-        <filter val="245,000"/>
-        <filter val="25,000"/>
-        <filter val="255,000"/>
-        <filter val="26,000"/>
-        <filter val="262,000"/>
-        <filter val="265,000"/>
-        <filter val="268000"/>
-        <filter val="269,000"/>
-        <filter val="27,000"/>
-        <filter val="272,500"/>
-        <filter val="28,500"/>
-        <filter val="29,000"/>
-        <filter val="290,000"/>
-        <filter val="298700"/>
-        <filter val="3,000"/>
-        <filter val="30,000"/>
-        <filter val="302,500"/>
-        <filter val="31,000"/>
-        <filter val="31,500"/>
-        <filter val="31400"/>
-        <filter val="318000"/>
-        <filter val="320000"/>
-        <filter val="325,000"/>
-        <filter val="33,000"/>
-        <filter val="332,000"/>
-        <filter val="34,000"/>
-        <filter val="34,500"/>
-        <filter val="35,000"/>
-        <filter val="357,500"/>
-        <filter val="36,000"/>
-        <filter val="360,000"/>
-        <filter val="365,000"/>
-        <filter val="37"/>
-        <filter val="37,000"/>
-        <filter val="373000"/>
-        <filter val="376500"/>
-        <filter val="387,500"/>
-        <filter val="39,000"/>
-        <filter val="40,000"/>
-        <filter val="403,000"/>
-        <filter val="41,000"/>
-        <filter val="41,500"/>
-        <filter val="42,000"/>
-        <filter val="420,000"/>
-        <filter val="43,000"/>
-        <filter val="44,000"/>
-        <filter val="44000"/>
-        <filter val="448000"/>
-        <filter val="45,000"/>
-        <filter val="450,000"/>
-        <filter val="48,000"/>
-        <filter val="485,000"/>
-        <filter val="49,000"/>
-        <filter val="51,000"/>
-        <filter val="515,000"/>
-        <filter val="52,000"/>
-        <filter val="534,000"/>
-        <filter val="54,000"/>
-        <filter val="55,500"/>
-        <filter val="552,000"/>
-        <filter val="56,000"/>
-        <filter val="56,600"/>
-        <filter val="569,550"/>
-        <filter val="57,000"/>
-        <filter val="58,500"/>
-        <filter val="59,000"/>
-        <filter val="6,000"/>
-        <filter val="600"/>
-        <filter val="61,000"/>
-        <filter val="62,000"/>
-        <filter val="622,500"/>
-        <filter val="63,000"/>
-        <filter val="630400"/>
-        <filter val="642,050"/>
-        <filter val="65,000"/>
-        <filter val="650,900"/>
-        <filter val="66,000"/>
-        <filter val="67,000"/>
-        <filter val="69,000"/>
-        <filter val="698,450"/>
-        <filter val="70,000"/>
-        <filter val="71,500"/>
-        <filter val="72,000"/>
-        <filter val="721"/>
-        <filter val="735,750"/>
-        <filter val="744,000"/>
-        <filter val="75,000"/>
-        <filter val="75,500"/>
-        <filter val="76,000"/>
-        <filter val="76,500"/>
-        <filter val="77,000"/>
-        <filter val="78,000"/>
-        <filter val="79,500"/>
-        <filter val="799,800"/>
-        <filter val="8,000"/>
-        <filter val="81,500"/>
-        <filter val="81500"/>
-        <filter val="82,800"/>
-        <filter val="84,000"/>
-        <filter val="85,500"/>
-        <filter val="852,500"/>
-        <filter val="87,000"/>
-        <filter val="87,500"/>
-        <filter val="87,700"/>
-        <filter val="88,000"/>
-        <filter val="899,050"/>
-        <filter val="9,000"/>
-        <filter val="90,000"/>
-        <filter val="91,000"/>
-        <filter val="92,500"/>
-        <filter val="92000"/>
-        <filter val="94,000"/>
-        <filter val="962,500"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I473">
-    <sortCondition descending="1" ref="I1:I474"/>
-  </sortState>
+  <autoFilter ref="A1:J474" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="18" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="17" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="16" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="15" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="Column1" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1" totalsRowCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="Column1" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13139,22 +9498,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R475"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G475" sqref="G475"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="10" style="16" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -13186,7 +9545,7 @@
       <c r="I1" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>498</v>
       </c>
     </row>
@@ -15229,7 +11588,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -15489,7 +11848,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -15603,7 +11962,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A74" s="5">
         <v>74</v>
       </c>
@@ -15660,7 +12019,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A76" s="5">
         <v>76</v>
       </c>
@@ -15718,7 +12077,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -15740,13 +12099,15 @@
       <c r="G78" s="11">
         <v>439</v>
       </c>
-      <c r="I78" s="8"/>
+      <c r="I78" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J78" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A79" s="5">
         <v>79</v>
       </c>
@@ -15766,13 +12127,15 @@
       <c r="G79" s="11">
         <v>118</v>
       </c>
-      <c r="I79" s="8"/>
+      <c r="I79" s="21">
+        <v>10000</v>
+      </c>
       <c r="J79" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A80" s="5">
         <v>80</v>
       </c>
@@ -15794,13 +12157,15 @@
       <c r="G80" s="11">
         <v>1</v>
       </c>
-      <c r="I80" s="8"/>
+      <c r="I80" s="21">
+        <v>700</v>
+      </c>
       <c r="J80" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A81" s="5">
         <v>81</v>
       </c>
@@ -15825,13 +12190,15 @@
       <c r="H81" s="8">
         <v>5</v>
       </c>
-      <c r="I81" s="8"/>
+      <c r="I81" s="21">
+        <v>69000</v>
+      </c>
       <c r="J81" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A82" s="5">
         <v>82</v>
       </c>
@@ -15856,13 +12223,15 @@
       <c r="H82" s="11">
         <v>15</v>
       </c>
-      <c r="I82" s="8"/>
+      <c r="I82" s="21">
+        <v>103000</v>
+      </c>
       <c r="J82" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A83" s="5">
         <v>83</v>
       </c>
@@ -15884,13 +12253,15 @@
       <c r="G83" s="11">
         <v>0</v>
       </c>
-      <c r="I83" s="8"/>
+      <c r="I83" s="21">
+        <v>500</v>
+      </c>
       <c r="J83" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -15912,13 +12283,15 @@
       <c r="G84" s="11">
         <v>111</v>
       </c>
-      <c r="I84" s="8"/>
+      <c r="I84" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J84" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A85" s="5">
         <v>85</v>
       </c>
@@ -15940,13 +12313,15 @@
       <c r="G85" s="11">
         <v>57</v>
       </c>
-      <c r="I85" s="8"/>
+      <c r="I85" s="21">
+        <v>50000</v>
+      </c>
       <c r="J85" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -15968,13 +12343,15 @@
       <c r="G86" s="11">
         <v>51</v>
       </c>
-      <c r="I86" s="8"/>
+      <c r="I86" s="21">
+        <v>98000</v>
+      </c>
       <c r="J86" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -15994,13 +12371,15 @@
       <c r="G87" s="11">
         <v>48</v>
       </c>
-      <c r="I87" s="8"/>
+      <c r="I87" s="21">
+        <v>0</v>
+      </c>
       <c r="J87" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A88" s="5">
         <v>88</v>
       </c>
@@ -16020,13 +12399,15 @@
       <c r="G88" s="11">
         <v>32</v>
       </c>
-      <c r="I88" s="8"/>
+      <c r="I88" s="21">
+        <v>0</v>
+      </c>
       <c r="J88" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A89" s="5">
         <v>89</v>
       </c>
@@ -16046,13 +12427,15 @@
       <c r="G89" s="11">
         <v>1097</v>
       </c>
-      <c r="I89" s="8"/>
+      <c r="I89" s="21">
+        <v>365000</v>
+      </c>
       <c r="J89" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>337</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A90" s="5">
         <v>90</v>
       </c>
@@ -16072,13 +12455,15 @@
       <c r="G90" s="11">
         <v>66</v>
       </c>
-      <c r="I90" s="8"/>
+      <c r="I90" s="21">
+        <v>0</v>
+      </c>
       <c r="J90" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A91" s="5">
         <v>91</v>
       </c>
@@ -16098,13 +12483,15 @@
       <c r="G91" s="11">
         <v>71</v>
       </c>
-      <c r="I91" s="8"/>
+      <c r="I91" s="21">
+        <v>5000</v>
+      </c>
       <c r="J91" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A92" s="5">
         <v>92</v>
       </c>
@@ -16124,7 +12511,9 @@
       <c r="G92" s="11">
         <v>105</v>
       </c>
-      <c r="I92" s="8"/>
+      <c r="I92" s="21">
+        <v>10000</v>
+      </c>
       <c r="J92" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>71</v>
@@ -17533,7 +13922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A139" s="5">
         <v>139</v>
       </c>
@@ -17554,13 +13943,15 @@
         <v>348</v>
       </c>
       <c r="H139" s="11"/>
-      <c r="I139" s="8"/>
+      <c r="I139" s="21">
+        <v>0</v>
+      </c>
       <c r="J139" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A140" s="5">
         <v>140</v>
       </c>
@@ -17583,13 +13974,15 @@
         <v>1420</v>
       </c>
       <c r="H140" s="11"/>
-      <c r="I140" s="8"/>
+      <c r="I140" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J140" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>610</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A141" s="5">
         <v>141</v>
       </c>
@@ -17612,13 +14005,15 @@
         <v>142</v>
       </c>
       <c r="H141" s="11"/>
-      <c r="I141" s="8"/>
+      <c r="I141" s="21">
+        <v>104000</v>
+      </c>
       <c r="J141" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A142" s="5">
         <v>142</v>
       </c>
@@ -17639,13 +14034,15 @@
         <v>184</v>
       </c>
       <c r="H142" s="11"/>
-      <c r="I142" s="8"/>
+      <c r="I142" s="21">
+        <v>0</v>
+      </c>
       <c r="J142" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>154</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A143" s="5">
         <v>143</v>
       </c>
@@ -17666,13 +14063,15 @@
         <v>195</v>
       </c>
       <c r="H143" s="11"/>
-      <c r="I143" s="8"/>
+      <c r="I143" s="21">
+        <v>0</v>
+      </c>
       <c r="J143" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>219</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A144" s="5">
         <v>144</v>
       </c>
@@ -17693,13 +14092,15 @@
         <v>41</v>
       </c>
       <c r="H144" s="11"/>
-      <c r="I144" s="8"/>
+      <c r="I144" s="21">
+        <v>0</v>
+      </c>
       <c r="J144" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A145" s="5">
         <v>145</v>
       </c>
@@ -17720,7 +14121,9 @@
         <v>69</v>
       </c>
       <c r="H145" s="11"/>
-      <c r="I145" s="8"/>
+      <c r="I145" s="21">
+        <v>0</v>
+      </c>
       <c r="J145" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
@@ -17790,7 +14193,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A148" s="5">
         <v>148</v>
       </c>
@@ -17811,13 +14214,15 @@
         <v>10</v>
       </c>
       <c r="H148" s="11"/>
-      <c r="I148" s="8"/>
+      <c r="I148" s="21">
+        <v>7500</v>
+      </c>
       <c r="J148" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A149" s="5">
         <v>149</v>
       </c>
@@ -17838,13 +14243,15 @@
         <v>18</v>
       </c>
       <c r="H149" s="11"/>
-      <c r="I149" s="8"/>
+      <c r="I149" s="21">
+        <v>13500</v>
+      </c>
       <c r="J149" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A150" s="5">
         <v>150</v>
       </c>
@@ -17865,13 +14272,15 @@
         <v>12</v>
       </c>
       <c r="H150" s="11"/>
-      <c r="I150" s="8"/>
+      <c r="I150" s="21">
+        <v>15000</v>
+      </c>
       <c r="J150" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A151" s="5">
         <v>151</v>
       </c>
@@ -17892,13 +14301,15 @@
         <v>10</v>
       </c>
       <c r="H151" s="11"/>
-      <c r="I151" s="8"/>
+      <c r="I151" s="21">
+        <v>6000</v>
+      </c>
       <c r="J151" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A152" s="5">
         <v>152</v>
       </c>
@@ -17919,13 +14330,15 @@
         <v>12</v>
       </c>
       <c r="H152" s="11"/>
-      <c r="I152" s="8"/>
+      <c r="I152" s="21">
+        <v>6000</v>
+      </c>
       <c r="J152" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A153" s="5">
         <v>153</v>
       </c>
@@ -17946,13 +14359,15 @@
         <v>36</v>
       </c>
       <c r="H153" s="11"/>
-      <c r="I153" s="8"/>
+      <c r="I153" s="21">
+        <v>4500</v>
+      </c>
       <c r="J153" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A154" s="5">
         <v>154</v>
       </c>
@@ -17973,13 +14388,15 @@
         <v>11</v>
       </c>
       <c r="H154" s="11"/>
-      <c r="I154" s="8"/>
+      <c r="I154" s="21">
+        <v>4500</v>
+      </c>
       <c r="J154" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A155" s="5">
         <v>155</v>
       </c>
@@ -18000,13 +14417,15 @@
         <v>8</v>
       </c>
       <c r="H155" s="11"/>
-      <c r="I155" s="8"/>
+      <c r="I155" s="21">
+        <v>7500</v>
+      </c>
       <c r="J155" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A156" s="5">
         <v>156</v>
       </c>
@@ -18027,13 +14446,15 @@
         <v>6</v>
       </c>
       <c r="H156" s="11"/>
-      <c r="I156" s="8"/>
+      <c r="I156" s="21">
+        <v>3000</v>
+      </c>
       <c r="J156" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A157" s="5">
         <v>157</v>
       </c>
@@ -18054,13 +14475,15 @@
         <v>6</v>
       </c>
       <c r="H157" s="11"/>
-      <c r="I157" s="8"/>
+      <c r="I157" s="21">
+        <v>7500</v>
+      </c>
       <c r="J157" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A158" s="5">
         <v>158</v>
       </c>
@@ -18081,13 +14504,15 @@
         <v>1</v>
       </c>
       <c r="H158" s="11"/>
-      <c r="I158" s="8"/>
+      <c r="I158" s="21">
+        <v>0</v>
+      </c>
       <c r="J158" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A159" s="5">
         <v>159</v>
       </c>
@@ -18108,13 +14533,15 @@
         <v>18</v>
       </c>
       <c r="H159" s="11"/>
-      <c r="I159" s="8"/>
+      <c r="I159" s="21">
+        <v>0</v>
+      </c>
       <c r="J159" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A160" s="5">
         <v>160</v>
       </c>
@@ -18135,13 +14562,15 @@
         <v>49</v>
       </c>
       <c r="H160" s="11"/>
-      <c r="I160" s="8"/>
+      <c r="I160" s="21">
+        <v>0</v>
+      </c>
       <c r="J160" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A161" s="5">
         <v>161</v>
       </c>
@@ -18162,13 +14591,15 @@
         <v>24</v>
       </c>
       <c r="H161" s="11"/>
-      <c r="I161" s="8"/>
+      <c r="I161" s="21">
+        <v>0</v>
+      </c>
       <c r="J161" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A162" s="5">
         <v>162</v>
       </c>
@@ -18189,13 +14620,15 @@
         <v>43</v>
       </c>
       <c r="H162" s="11"/>
-      <c r="I162" s="8"/>
+      <c r="I162" s="21">
+        <v>0</v>
+      </c>
       <c r="J162" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A163" s="5">
         <v>163</v>
       </c>
@@ -18216,13 +14649,15 @@
         <v>14</v>
       </c>
       <c r="H163" s="11"/>
-      <c r="I163" s="8"/>
+      <c r="I163" s="21">
+        <v>0</v>
+      </c>
       <c r="J163" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A164" s="5">
         <v>164</v>
       </c>
@@ -18243,13 +14678,15 @@
         <v>44</v>
       </c>
       <c r="H164" s="11"/>
-      <c r="I164" s="8"/>
+      <c r="I164" s="21">
+        <v>0</v>
+      </c>
       <c r="J164" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A165" s="5">
         <v>165</v>
       </c>
@@ -18270,13 +14707,15 @@
         <v>41</v>
       </c>
       <c r="H165" s="11"/>
-      <c r="I165" s="8"/>
+      <c r="I165" s="21">
+        <v>0</v>
+      </c>
       <c r="J165" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A166" s="5">
         <v>166</v>
       </c>
@@ -18297,13 +14736,15 @@
         <v>49</v>
       </c>
       <c r="H166" s="11"/>
-      <c r="I166" s="8"/>
+      <c r="I166" s="21">
+        <v>0</v>
+      </c>
       <c r="J166" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A167" s="5">
         <v>167</v>
       </c>
@@ -18324,13 +14765,15 @@
         <v>38</v>
       </c>
       <c r="H167" s="11"/>
-      <c r="I167" s="8"/>
+      <c r="I167" s="21">
+        <v>0</v>
+      </c>
       <c r="J167" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A168" s="5">
         <v>168</v>
       </c>
@@ -18351,7 +14794,9 @@
         <v>22</v>
       </c>
       <c r="H168" s="11"/>
-      <c r="I168" s="8"/>
+      <c r="I168" s="21">
+        <v>0</v>
+      </c>
       <c r="J168" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>27</v>
@@ -18416,7 +14861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A171" s="5">
         <v>171</v>
       </c>
@@ -18439,13 +14884,15 @@
         <v>183</v>
       </c>
       <c r="H171" s="11"/>
-      <c r="I171" s="8"/>
+      <c r="I171" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J171" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A172" s="5">
         <v>172</v>
       </c>
@@ -18468,7 +14915,9 @@
         <v>36</v>
       </c>
       <c r="H172" s="11"/>
-      <c r="I172" s="8"/>
+      <c r="I172" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J172" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
@@ -18504,7 +14953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A174" s="5">
         <v>174</v>
       </c>
@@ -18527,7 +14976,9 @@
         <v>830</v>
       </c>
       <c r="H174" s="11"/>
-      <c r="I174" s="8"/>
+      <c r="I174" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J174" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>186</v>
@@ -18565,7 +15016,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A176" s="5">
         <v>176</v>
       </c>
@@ -18588,7 +15039,9 @@
         <v>237</v>
       </c>
       <c r="H176" s="11"/>
-      <c r="I176" s="8"/>
+      <c r="I176" s="21">
+        <v>118000</v>
+      </c>
       <c r="J176" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>67</v>
@@ -18626,7 +15079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A178" s="5">
         <v>178</v>
       </c>
@@ -18654,7 +15107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A179" s="5">
         <v>179</v>
       </c>
@@ -18677,7 +15130,9 @@
         <v>19</v>
       </c>
       <c r="H179" s="11"/>
-      <c r="I179" s="8"/>
+      <c r="I179" s="21">
+        <v>7200</v>
+      </c>
       <c r="J179" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
@@ -18905,7 +15360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A187" s="5">
         <v>187</v>
       </c>
@@ -18926,13 +15381,16 @@
         <v>92</v>
       </c>
       <c r="H187" s="11"/>
-      <c r="I187" s="8"/>
+      <c r="I187" s="21">
+        <f>17000+8000+11000</f>
+        <v>36000</v>
+      </c>
       <c r="J187" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>105</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A188" s="5">
         <v>188</v>
       </c>
@@ -18953,7 +15411,10 @@
         <v>79</v>
       </c>
       <c r="H188" s="11"/>
-      <c r="I188" s="8"/>
+      <c r="I188" s="21">
+        <f>9000+3000</f>
+        <v>12000</v>
+      </c>
       <c r="J188" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
@@ -19019,7 +15480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A191" s="5">
         <v>191</v>
       </c>
@@ -19040,13 +15501,15 @@
         <v>65</v>
       </c>
       <c r="H191" s="11"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="21">
+        <v>21000</v>
+      </c>
       <c r="J191" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A192" s="5">
         <v>192</v>
       </c>
@@ -19067,13 +15530,15 @@
         <v>15</v>
       </c>
       <c r="H192" s="11"/>
-      <c r="I192" s="8"/>
+      <c r="I192" s="21">
+        <v>3000</v>
+      </c>
       <c r="J192" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A193" s="5">
         <v>193</v>
       </c>
@@ -19094,13 +15559,15 @@
         <v>12</v>
       </c>
       <c r="H193" s="11"/>
-      <c r="I193" s="8"/>
+      <c r="I193" s="21">
+        <v>3000</v>
+      </c>
       <c r="J193" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A194" s="5">
         <v>194</v>
       </c>
@@ -19121,13 +15588,15 @@
         <v>4</v>
       </c>
       <c r="H194" s="11"/>
-      <c r="I194" s="8"/>
+      <c r="I194" s="21">
+        <v>1500</v>
+      </c>
       <c r="J194" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A195" s="5">
         <v>195</v>
       </c>
@@ -19148,13 +15617,15 @@
         <v>27</v>
       </c>
       <c r="H195" s="11"/>
-      <c r="I195" s="8"/>
+      <c r="I195" s="21">
+        <v>4500</v>
+      </c>
       <c r="J195" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A196" s="5">
         <v>196</v>
       </c>
@@ -19175,7 +15646,9 @@
         <v>27</v>
       </c>
       <c r="H196" s="11"/>
-      <c r="I196" s="8"/>
+      <c r="I196" s="21">
+        <v>1500</v>
+      </c>
       <c r="J196" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
@@ -21241,7 +17714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A264" s="5">
         <v>264</v>
       </c>
@@ -21264,13 +17737,16 @@
       <c r="H264" s="11">
         <v>3</v>
       </c>
-      <c r="I264" s="8"/>
+      <c r="I264" s="21">
+        <f>10500+3000</f>
+        <v>13500</v>
+      </c>
       <c r="J264" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A265" s="5">
         <v>265</v>
       </c>
@@ -21293,13 +17769,15 @@
       <c r="H265" s="11">
         <v>0</v>
       </c>
-      <c r="I265" s="8"/>
+      <c r="I265" s="21">
+        <v>0</v>
+      </c>
       <c r="J265" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A266" s="5">
         <v>266</v>
       </c>
@@ -21322,13 +17800,15 @@
       <c r="H266" s="11">
         <v>3</v>
       </c>
-      <c r="I266" s="8"/>
+      <c r="I266" s="21">
+        <v>4500</v>
+      </c>
       <c r="J266" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A267" s="5">
         <v>267</v>
       </c>
@@ -21351,13 +17831,16 @@
       <c r="H267" s="11">
         <v>6</v>
       </c>
-      <c r="I267" s="8"/>
+      <c r="I267" s="21">
+        <f>33000+1500+3000</f>
+        <v>37500</v>
+      </c>
       <c r="J267" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>64</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A268" s="5">
         <v>268</v>
       </c>
@@ -21380,13 +17863,16 @@
       <c r="H268" s="11">
         <v>4</v>
       </c>
-      <c r="I268" s="8"/>
+      <c r="I268" s="21">
+        <f>13500+1500+3000</f>
+        <v>18000</v>
+      </c>
       <c r="J268" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>66</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A269" s="5">
         <v>269</v>
       </c>
@@ -21409,13 +17895,15 @@
       <c r="H269" s="11">
         <v>3</v>
       </c>
-      <c r="I269" s="8"/>
+      <c r="I269" s="21">
+        <v>1500</v>
+      </c>
       <c r="J269" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A270" s="5">
         <v>270</v>
       </c>
@@ -21438,13 +17926,15 @@
       <c r="H270" s="11">
         <v>1</v>
       </c>
-      <c r="I270" s="8"/>
+      <c r="I270" s="21">
+        <v>3000</v>
+      </c>
       <c r="J270" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A271" s="5">
         <v>271</v>
       </c>
@@ -21467,13 +17957,15 @@
       <c r="H271" s="11">
         <v>0</v>
       </c>
-      <c r="I271" s="8"/>
+      <c r="I271" s="21">
+        <v>1500</v>
+      </c>
       <c r="J271" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A272" s="5">
         <v>272</v>
       </c>
@@ -21496,7 +17988,9 @@
       <c r="H272" s="11">
         <v>0</v>
       </c>
-      <c r="I272" s="8"/>
+      <c r="I272" s="21">
+        <v>0</v>
+      </c>
       <c r="J272" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
@@ -21593,7 +18087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A276" s="5">
         <v>276</v>
       </c>
@@ -21616,13 +18110,15 @@
       <c r="H276" s="11">
         <v>10</v>
       </c>
-      <c r="I276" s="8"/>
+      <c r="I276" s="21">
+        <v>0</v>
+      </c>
       <c r="J276" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A277" s="5">
         <v>277</v>
       </c>
@@ -21645,13 +18141,15 @@
       <c r="H277" s="11">
         <v>1</v>
       </c>
-      <c r="I277" s="8"/>
+      <c r="I277" s="21">
+        <v>0</v>
+      </c>
       <c r="J277" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A278" s="5">
         <v>278</v>
       </c>
@@ -21674,7 +18172,9 @@
       <c r="H278" s="11">
         <v>2</v>
       </c>
-      <c r="I278" s="8"/>
+      <c r="I278" s="21">
+        <v>0</v>
+      </c>
       <c r="J278" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
@@ -22267,7 +18767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A298" s="5">
         <v>298</v>
       </c>
@@ -22292,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A299" s="5">
         <v>299</v>
       </c>
@@ -22317,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A300" s="5">
         <v>300</v>
       </c>
@@ -22342,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A301" s="5">
         <v>301</v>
       </c>
@@ -22367,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A302" s="5">
         <v>302</v>
       </c>
@@ -22392,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A303" s="5">
         <v>303</v>
       </c>
@@ -22415,13 +18915,15 @@
       <c r="H303" s="11">
         <v>21</v>
       </c>
-      <c r="I303" s="8"/>
+      <c r="I303" s="21">
+        <v>0</v>
+      </c>
       <c r="J303" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>49</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A304" s="5">
         <v>304</v>
       </c>
@@ -22444,13 +18946,15 @@
       <c r="H304" s="11">
         <v>13</v>
       </c>
-      <c r="I304" s="8"/>
+      <c r="I304" s="21">
+        <v>0</v>
+      </c>
       <c r="J304" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>37</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A305" s="5">
         <v>305</v>
       </c>
@@ -22473,13 +18977,15 @@
       <c r="H305" s="11">
         <v>16</v>
       </c>
-      <c r="I305" s="8"/>
+      <c r="I305" s="21">
+        <v>0</v>
+      </c>
       <c r="J305" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A306" s="5">
         <v>306</v>
       </c>
@@ -22502,13 +19008,15 @@
       <c r="H306" s="11">
         <v>12</v>
       </c>
-      <c r="I306" s="8"/>
+      <c r="I306" s="21">
+        <v>0</v>
+      </c>
       <c r="J306" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A307" s="5">
         <v>307</v>
       </c>
@@ -22531,13 +19039,15 @@
       <c r="H307" s="11">
         <v>3</v>
       </c>
-      <c r="I307" s="8"/>
+      <c r="I307" s="21">
+        <v>0</v>
+      </c>
       <c r="J307" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A308" s="5">
         <v>308</v>
       </c>
@@ -22560,13 +19070,15 @@
       <c r="H308" s="11">
         <v>16</v>
       </c>
-      <c r="I308" s="8"/>
+      <c r="I308" s="21">
+        <v>0</v>
+      </c>
       <c r="J308" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A309" s="5">
         <v>309</v>
       </c>
@@ -22589,13 +19101,15 @@
       <c r="H309" s="11">
         <v>8</v>
       </c>
-      <c r="I309" s="8"/>
+      <c r="I309" s="21">
+        <v>0</v>
+      </c>
       <c r="J309" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A310" s="5">
         <v>310</v>
       </c>
@@ -22618,13 +19132,15 @@
       <c r="H310" s="11">
         <v>20</v>
       </c>
-      <c r="I310" s="8"/>
+      <c r="I310" s="21">
+        <v>0</v>
+      </c>
       <c r="J310" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A311" s="5">
         <v>311</v>
       </c>
@@ -22647,13 +19163,15 @@
       <c r="H311" s="11">
         <v>6</v>
       </c>
-      <c r="I311" s="8"/>
+      <c r="I311" s="21">
+        <v>0</v>
+      </c>
       <c r="J311" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A312" s="5">
         <v>312</v>
       </c>
@@ -22676,13 +19194,15 @@
       <c r="H312" s="11">
         <v>6</v>
       </c>
-      <c r="I312" s="8"/>
+      <c r="I312" s="21">
+        <v>0</v>
+      </c>
       <c r="J312" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A313" s="5">
         <v>313</v>
       </c>
@@ -22705,7 +19225,9 @@
       <c r="H313" s="11">
         <v>12</v>
       </c>
-      <c r="I313" s="8"/>
+      <c r="I313" s="21">
+        <v>0</v>
+      </c>
       <c r="J313" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>28</v>
@@ -22921,7 +19443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A321" s="5">
         <v>321</v>
       </c>
@@ -22944,13 +19466,15 @@
       <c r="H321" s="11">
         <v>19</v>
       </c>
-      <c r="I321" s="8"/>
+      <c r="I321" s="21">
+        <v>0</v>
+      </c>
       <c r="J321" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>40</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A322" s="5">
         <v>322</v>
       </c>
@@ -22973,13 +19497,15 @@
       <c r="H322" s="11">
         <v>18</v>
       </c>
-      <c r="I322" s="8"/>
+      <c r="I322" s="21">
+        <v>0</v>
+      </c>
       <c r="J322" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A323" s="5">
         <v>323</v>
       </c>
@@ -23002,13 +19528,15 @@
       <c r="H323" s="11">
         <v>5</v>
       </c>
-      <c r="I323" s="8"/>
+      <c r="I323" s="21">
+        <v>0</v>
+      </c>
       <c r="J323" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A324" s="5">
         <v>324</v>
       </c>
@@ -23031,7 +19559,9 @@
       <c r="H324" s="11">
         <v>20</v>
       </c>
-      <c r="I324" s="8"/>
+      <c r="I324" s="21">
+        <v>0</v>
+      </c>
       <c r="J324" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>63</v>
@@ -23405,7 +19935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A337" s="5">
         <v>337</v>
       </c>
@@ -23428,13 +19958,15 @@
       <c r="H337" s="11">
         <v>20</v>
       </c>
-      <c r="I337" s="8"/>
+      <c r="I337" s="21">
+        <v>0</v>
+      </c>
       <c r="J337" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>61</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A338" s="5">
         <v>338</v>
       </c>
@@ -23457,13 +19989,15 @@
       <c r="H338" s="11">
         <v>7</v>
       </c>
-      <c r="I338" s="8"/>
+      <c r="I338" s="21">
+        <v>0</v>
+      </c>
       <c r="J338" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A339" s="5">
         <v>339</v>
       </c>
@@ -23486,13 +20020,15 @@
       <c r="H339" s="11">
         <v>13</v>
       </c>
-      <c r="I339" s="8"/>
+      <c r="I339" s="21">
+        <v>0</v>
+      </c>
       <c r="J339" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A340" s="5">
         <v>340</v>
       </c>
@@ -23515,13 +20051,15 @@
       <c r="H340" s="11">
         <v>12</v>
       </c>
-      <c r="I340" s="8"/>
+      <c r="I340" s="21">
+        <v>0</v>
+      </c>
       <c r="J340" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A341" s="5">
         <v>341</v>
       </c>
@@ -23544,13 +20082,15 @@
       <c r="H341" s="11">
         <v>8</v>
       </c>
-      <c r="I341" s="8"/>
+      <c r="I341" s="21">
+        <v>0</v>
+      </c>
       <c r="J341" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A342" s="5">
         <v>342</v>
       </c>
@@ -23573,13 +20113,15 @@
       <c r="H342" s="11">
         <v>3</v>
       </c>
-      <c r="I342" s="8"/>
+      <c r="I342" s="21">
+        <v>0</v>
+      </c>
       <c r="J342" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A343" s="5">
         <v>343</v>
       </c>
@@ -23602,13 +20144,15 @@
       <c r="H343" s="11">
         <v>38</v>
       </c>
-      <c r="I343" s="8"/>
+      <c r="I343" s="21">
+        <v>0</v>
+      </c>
       <c r="J343" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>164</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A344" s="5">
         <v>344</v>
       </c>
@@ -23631,13 +20175,15 @@
       <c r="H344" s="11">
         <v>6</v>
       </c>
-      <c r="I344" s="8"/>
+      <c r="I344" s="21">
+        <v>0</v>
+      </c>
       <c r="J344" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A345" s="5">
         <v>345</v>
       </c>
@@ -23660,13 +20206,15 @@
       <c r="H345" s="11">
         <v>6</v>
       </c>
-      <c r="I345" s="8"/>
+      <c r="I345" s="21">
+        <v>0</v>
+      </c>
       <c r="J345" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A346" s="5">
         <v>346</v>
       </c>
@@ -23689,13 +20237,15 @@
       <c r="H346" s="11">
         <v>6</v>
       </c>
-      <c r="I346" s="8"/>
+      <c r="I346" s="21">
+        <v>0</v>
+      </c>
       <c r="J346" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>81</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A347" s="5">
         <v>347</v>
       </c>
@@ -23718,13 +20268,15 @@
       <c r="H347" s="11">
         <v>5</v>
       </c>
-      <c r="I347" s="8"/>
+      <c r="I347" s="21">
+        <v>0</v>
+      </c>
       <c r="J347" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A348" s="5">
         <v>348</v>
       </c>
@@ -23747,13 +20299,15 @@
       <c r="H348" s="11">
         <v>12</v>
       </c>
-      <c r="I348" s="8"/>
+      <c r="I348" s="21">
+        <v>0</v>
+      </c>
       <c r="J348" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A349" s="5">
         <v>349</v>
       </c>
@@ -23776,13 +20330,15 @@
       <c r="H349" s="11">
         <v>19</v>
       </c>
-      <c r="I349" s="8"/>
+      <c r="I349" s="21">
+        <v>0</v>
+      </c>
       <c r="J349" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>77</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A350" s="5">
         <v>350</v>
       </c>
@@ -23805,13 +20361,15 @@
       <c r="H350" s="11">
         <v>9</v>
       </c>
-      <c r="I350" s="8"/>
+      <c r="I350" s="21">
+        <v>0</v>
+      </c>
       <c r="J350" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A351" s="5">
         <v>351</v>
       </c>
@@ -23834,13 +20392,15 @@
       <c r="H351" s="11">
         <v>7</v>
       </c>
-      <c r="I351" s="8"/>
+      <c r="I351" s="21">
+        <v>0</v>
+      </c>
       <c r="J351" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A352" s="5">
         <v>352</v>
       </c>
@@ -23863,13 +20423,15 @@
       <c r="H352" s="11">
         <v>9</v>
       </c>
-      <c r="I352" s="8"/>
+      <c r="I352" s="21">
+        <v>0</v>
+      </c>
       <c r="J352" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A353" s="5">
         <v>353</v>
       </c>
@@ -23892,13 +20454,15 @@
       <c r="H353" s="11">
         <v>4</v>
       </c>
-      <c r="I353" s="8"/>
+      <c r="I353" s="21">
+        <v>0</v>
+      </c>
       <c r="J353" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A354" s="5">
         <v>354</v>
       </c>
@@ -23921,13 +20485,15 @@
       <c r="H354" s="11">
         <v>8</v>
       </c>
-      <c r="I354" s="8"/>
+      <c r="I354" s="21">
+        <v>0</v>
+      </c>
       <c r="J354" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>40</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A355" s="5">
         <v>355</v>
       </c>
@@ -23950,7 +20516,9 @@
       <c r="H355" s="11">
         <v>16</v>
       </c>
-      <c r="I355" s="8"/>
+      <c r="I355" s="21">
+        <v>0</v>
+      </c>
       <c r="J355" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>61</v>
@@ -24049,7 +20617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A359" s="5">
         <v>359</v>
       </c>
@@ -24072,7 +20640,9 @@
       <c r="H359" s="11">
         <v>1</v>
       </c>
-      <c r="I359" s="8"/>
+      <c r="I359" s="21">
+        <v>1500</v>
+      </c>
       <c r="J359" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
@@ -24142,7 +20712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A362" s="5">
         <v>362</v>
       </c>
@@ -24165,7 +20735,9 @@
       <c r="H362" s="11">
         <v>26</v>
       </c>
-      <c r="I362" s="8"/>
+      <c r="I362" s="21">
+        <v>28000</v>
+      </c>
       <c r="J362" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>135</v>
@@ -24484,7 +21056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A373" s="5">
         <v>373</v>
       </c>
@@ -24507,13 +21079,15 @@
       <c r="H373" s="11">
         <v>14</v>
       </c>
-      <c r="I373" s="8"/>
+      <c r="I373" s="21">
+        <v>0</v>
+      </c>
       <c r="J373" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A374" s="5">
         <v>374</v>
       </c>
@@ -24536,13 +21110,15 @@
       <c r="H374" s="11">
         <v>6</v>
       </c>
-      <c r="I374" s="8"/>
+      <c r="I374" s="21">
+        <v>0</v>
+      </c>
       <c r="J374" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A375" s="5">
         <v>375</v>
       </c>
@@ -24565,13 +21141,15 @@
       <c r="H375" s="11">
         <v>7</v>
       </c>
-      <c r="I375" s="8"/>
+      <c r="I375" s="21">
+        <v>0</v>
+      </c>
       <c r="J375" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A376" s="5">
         <v>376</v>
       </c>
@@ -24594,13 +21172,15 @@
       <c r="H376" s="11">
         <v>10</v>
       </c>
-      <c r="I376" s="8"/>
+      <c r="I376" s="21">
+        <v>0</v>
+      </c>
       <c r="J376" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A377" s="5">
         <v>377</v>
       </c>
@@ -24623,13 +21203,15 @@
       <c r="H377" s="11">
         <v>8</v>
       </c>
-      <c r="I377" s="8"/>
+      <c r="I377" s="21">
+        <v>0</v>
+      </c>
       <c r="J377" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A378" s="5">
         <v>378</v>
       </c>
@@ -24652,7 +21234,9 @@
       <c r="H378" s="11">
         <v>7</v>
       </c>
-      <c r="I378" s="8"/>
+      <c r="I378" s="21">
+        <v>0</v>
+      </c>
       <c r="J378" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
@@ -27370,7 +23954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A469" s="5">
         <v>469</v>
       </c>
@@ -27393,13 +23977,15 @@
         <v>12</v>
       </c>
       <c r="H469" s="11"/>
-      <c r="I469" s="8"/>
+      <c r="I469" s="21">
+        <v>33000</v>
+      </c>
       <c r="J469" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A470" s="5">
         <v>470</v>
       </c>
@@ -27424,7 +24010,9 @@
       <c r="H470" s="11">
         <v>46</v>
       </c>
-      <c r="I470" s="8"/>
+      <c r="I470" s="21" t="s">
+        <v>496</v>
+      </c>
       <c r="J470" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>170</v>
@@ -27461,7 +24049,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A472" s="5">
         <v>472</v>
       </c>
@@ -27486,7 +24074,9 @@
       <c r="H472" s="11">
         <v>6</v>
       </c>
-      <c r="I472" s="8"/>
+      <c r="I472" s="21">
+        <v>45000</v>
+      </c>
       <c r="J472" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>45</v>
@@ -27523,7 +24113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="22.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A474" s="5">
         <v>474</v>
       </c>
@@ -27546,7 +24136,9 @@
       <c r="H474" s="11">
         <v>19</v>
       </c>
-      <c r="I474" s="8"/>
+      <c r="I474" s="21">
+        <v>0</v>
+      </c>
       <c r="J474" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>78</v>
@@ -27563,19 +24155,19 @@
       <c r="F475" s="19"/>
       <c r="G475" s="19">
         <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
-        <v>317252</v>
+        <v>333254</v>
       </c>
       <c r="H475" s="19">
         <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
-        <v>5323</v>
-      </c>
-      <c r="I475" s="20">
+        <v>5929</v>
+      </c>
+      <c r="I475" s="22">
         <f>SUBTOTAL(109,Table1[فروش])</f>
-        <v>56997706</v>
+        <v>58282606</v>
       </c>
       <c r="J475" s="19">
         <f>SUBTOTAL(109,Table1[Column1])</f>
-        <v>31946</v>
+        <v>38875</v>
       </c>
     </row>
   </sheetData>

--- a/آمار آثار صفحه عربی.xlsx
+++ b/آمار آثار صفحه عربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361321DB-F117-47A3-AEB8-E9A1CCC644CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3ABA6-4EDF-430A-B930-9C727C4170C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,6 +1788,32 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
@@ -1816,7 +1842,56 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1866,7 +1941,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1916,7 +1991,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1966,57 +2041,6 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="B Mitra"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="B Mitra"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2042,31 +2066,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="B Mitra"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2116,7 +2116,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2166,7 +2166,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2198,7 +2198,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2216,7 +2216,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9150,20 +9150,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}" name="Table1" displayName="Table1" ref="A1:J475" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A1:J474" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>MEDIAN(G2:G474)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1" totalsRowCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" totalsRowCellStyle="Comma">
       <totalsRowFormula>MEDIAN(I2:I474)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="جمع دانلود و تماشا" totalsRowFunction="stdDev" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="جمع دانلود و تماشا" totalsRowFunction="max" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9434,11 +9434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R475"/>
+  <dimension ref="A1:R477"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I472" sqref="I472"/>
+      <selection pane="bottomLeft" activeCell="J478" sqref="J478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -9490,7 +9490,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
         <v>67</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
         <v>59</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A9" s="5">
         <v>65</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A10" s="5">
         <v>66</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A15" s="5">
         <v>80</v>
       </c>
@@ -10107,7 +10107,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A20" s="5">
         <v>58</v>
       </c>
@@ -10332,7 +10332,7 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A26" s="5">
         <v>57</v>
       </c>
@@ -10370,7 +10370,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A27" s="5">
         <v>48</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A48" s="5">
         <v>210</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A64" s="5">
         <v>49</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A71" s="5">
         <v>50</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A78" s="5">
         <v>42</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A90" s="5">
         <v>45</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A102" s="5">
         <v>453</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A106" s="5">
         <v>41</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A128" s="5">
         <v>46</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A146" s="5">
         <v>114</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A147" s="5">
         <v>122</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A153" s="5">
         <v>376</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A158" s="5">
         <v>64</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A164" s="5">
         <v>47</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A177" s="5">
         <v>44</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A194" s="5">
         <v>62</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A195" s="5">
         <v>40</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A214" s="5">
         <v>308</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A223" s="5">
         <v>86</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A231" s="5">
         <v>37</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A247" s="5">
         <v>244</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A248" s="5">
         <v>43</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A263" s="5">
         <v>63</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A283" s="5">
         <v>70</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A284" s="5">
         <v>239</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A295" s="5">
         <v>337</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A312" s="5">
         <v>183</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A317" s="5">
         <v>310</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A325" s="5">
         <v>61</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A330" s="5">
         <v>38</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A331" s="5">
         <v>56</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A337" s="5">
         <v>125</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A374" s="5">
         <v>39</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A380" s="5">
         <v>203</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A391" s="5">
         <v>403</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A400" s="5">
         <v>28</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A407" s="5">
         <v>401</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A428" s="5">
         <v>74</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A441" s="5">
         <v>315</v>
       </c>
@@ -23071,7 +23071,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A442" s="5">
         <v>319</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A451" s="5">
         <v>202</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A461" s="5">
         <v>60</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:10" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A464" s="5">
         <v>465</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A465" s="5">
         <v>424</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A466" s="5">
         <v>6</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A469" s="5">
         <v>2</v>
       </c>
@@ -24111,8 +24111,14 @@
         <v>56800</v>
       </c>
       <c r="J475" s="19">
-        <f>SUBTOTAL(107,Table1[جمع دانلود و تماشا])</f>
-        <v>115.41551915978752</v>
+        <f>SUBTOTAL(104,Table1[جمع دانلود و تماشا])</f>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="J477" s="8">
+        <f>1+(3.3*LOG10(473))</f>
+        <v>9.8270417644347781</v>
       </c>
     </row>
   </sheetData>

--- a/آمار آثار صفحه عربی.xlsx
+++ b/آمار آثار صفحه عربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1DE5EF-796C-4C24-B165-71D87F4DCF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70FFD2-12C5-4752-855E-7E7B6F903809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="مقایسه براساس قالب" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'جزئیات فیلمهای عربی'!$A$1:$J$474</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'جزئیات فیلمهای عربی'!$L$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="519">
   <si>
     <t>دقایق تماشا</t>
   </si>
@@ -1596,6 +1596,9 @@
   </si>
   <si>
     <t>تامین کننده</t>
+  </si>
+  <si>
+    <t>ارزیابی شاندیزی</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1610,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,13 +1678,6 @@
       <name val="B Mitra"/>
       <charset val="178"/>
     </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="B Mitra"/>
-      <charset val="178"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1697,7 +1693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1718,6 +1714,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1767,9 +1774,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1795,6 +1799,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1802,7 +1809,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -1820,6 +1827,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1858,6 +1866,31 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2038,6 +2071,31 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2137,31 +2195,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="B Mitra"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2605,6 +2638,31 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9690,40 +9748,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}" name="Table1" displayName="Table1" ref="A1:K475" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="A1:K474" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="32" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="31" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="30" totalsRowDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{BFD7394B-DA9E-4478-864A-445E4EE9FDE8}" name="تامین کننده" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="29" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="28" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}" name="Table1" displayName="Table1" ref="A1:L475" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="A1:L474" xr:uid="{F83820D8-E7DB-4B2B-AC36-E0CD3A2D55A0}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{374EC389-C208-4A3E-B469-17308B666A9C}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{24ECBE55-B49C-47FD-B94C-7EB2F95D4057}" name="شناسه اثر" dataDxfId="34" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E03D8D73-0982-447F-B42B-C4DBE8AD6C97}" name="آیدی استریم" dataDxfId="33" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2245BCD6-A993-451B-8ABF-C6BAA72657EC}" name="نام اثر" dataDxfId="32" totalsRowDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{BFD7394B-DA9E-4478-864A-445E4EE9FDE8}" name="تامین کننده" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4FA14DDE-CB15-4C2D-8F23-309830E5B1D9}" name="قالب" dataDxfId="30" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{8E90F1F2-0371-4EA3-8373-57AC3D312E06}" name="تعداد تماشا (سایت جدید)" dataDxfId="29" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{73871BC4-5FD9-4050-BB5B-E05F1A0376CF}" name="دقایق تماشا" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="5">
       <totalsRowFormula>MEDIAN(H2:H474)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="جمع دانلود و تماشا" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{DFDCD0C6-DC87-4180-B75C-39D4C9F1AB2B}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{5B3434F4-26AA-475C-BC53-95E4BE6BD168}" name="فروش" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0EADA2E3-AE95-45C5-9EED-8E924DAE5AAC}" name="جمع دانلود و تماشا" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="0" totalsRowCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="12" xr3:uid="{87B9B900-DE5E-449F-97EA-A90C751A5DAF}" name="ارزیابی شاندیزی" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B75812A2-9C52-4291-9378-3A0DC12EE598}" name="Table2" displayName="Table2" ref="E477:I488" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B75812A2-9C52-4291-9378-3A0DC12EE598}" name="Table2" displayName="Table2" ref="E477:I488" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="E477:I487" xr:uid="{B75812A2-9C52-4291-9378-3A0DC12EE598}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1987BC8C-0971-4B4A-824E-D221E3DC5E7B}" name="فراوانی نسبی" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{1987BC8C-0971-4B4A-824E-D221E3DC5E7B}" name="فراوانی نسبی" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>F478/473</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8C0453FD-7670-467E-89A4-73E303554CE1}" name="فراوانی مطلق" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{BB544562-2C48-45F6-8D3B-5273409B4572}" name="حد بالا" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DB40578F-CA79-4135-B5F3-FCB83118EA7C}" name="حد پایین" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CA993473-3486-496A-9438-896E7C3C4E59}" name="رده ها" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8C0453FD-7670-467E-89A4-73E303554CE1}" name="فراوانی مطلق" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{BB544562-2C48-45F6-8D3B-5273409B4572}" name="حد بالا" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{DB40578F-CA79-4135-B5F3-FCB83118EA7C}" name="حد پایین" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{CA993473-3486-496A-9438-896E7C3C4E59}" name="رده ها" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9994,25 +10053,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S488"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K475" sqref="K475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="15" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -10050,6 +10109,9 @@
       <c r="K1" s="5" t="s">
         <v>498</v>
       </c>
+      <c r="L1" s="26" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
@@ -10084,6 +10146,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>0</v>
       </c>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A3" s="5">
@@ -10110,6 +10173,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>0</v>
       </c>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:19" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A4" s="5">
@@ -10136,6 +10200,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>0</v>
       </c>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A5" s="5">
@@ -10162,6 +10227,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>0</v>
       </c>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A6" s="5">
@@ -10188,6 +10254,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>0</v>
       </c>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="5">
@@ -10214,7 +10281,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>0</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="13"/>
       <c r="N7" s="12"/>
       <c r="O7" s="14"/>
@@ -10255,7 +10322,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>1</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="12"/>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -10295,7 +10362,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>1</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
       <c r="O9" s="12"/>
@@ -10335,7 +10402,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>1</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
       <c r="O10" s="12"/>
@@ -10373,7 +10440,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>1</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
       <c r="O11" s="12"/>
@@ -10411,7 +10478,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>1</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
       <c r="O12" s="12"/>
@@ -10446,14 +10513,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>500</v>
       </c>
       <c r="K13" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="12"/>
       <c r="N13" s="13"/>
       <c r="O13" s="12"/>
@@ -10495,7 +10562,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="N14" s="13"/>
       <c r="O14" s="12"/>
@@ -10530,14 +10597,14 @@
         <v>1</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <v>700</v>
       </c>
       <c r="K15" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="12"/>
       <c r="N15" s="13"/>
       <c r="O15" s="12"/>
@@ -10570,14 +10637,14 @@
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>0</v>
       </c>
       <c r="K16" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="12"/>
       <c r="N16" s="13"/>
       <c r="O16" s="12"/>
@@ -10615,7 +10682,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="12"/>
       <c r="N17" s="13"/>
       <c r="O17" s="12"/>
@@ -10653,7 +10720,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L18" s="15"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="N18" s="13"/>
       <c r="O18" s="12"/>
@@ -10693,7 +10760,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>2</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="12"/>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
@@ -10735,7 +10802,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
-      <c r="L20" s="15"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="12"/>
       <c r="N20" s="13"/>
       <c r="O20" s="12"/>
@@ -10768,14 +10835,14 @@
       <c r="I21" s="11">
         <v>3</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <v>1500</v>
       </c>
       <c r="K21" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="12"/>
       <c r="N21" s="13"/>
       <c r="O21" s="12"/>
@@ -10813,7 +10880,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
-      <c r="L22" s="15"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="12"/>
       <c r="N22" s="13"/>
       <c r="O22" s="12"/>
@@ -10851,7 +10918,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="12"/>
       <c r="N23" s="13"/>
       <c r="O23" s="12"/>
@@ -10889,7 +10956,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
-      <c r="L24" s="15"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="12"/>
       <c r="N24" s="13"/>
       <c r="O24" s="12"/>
@@ -10927,7 +10994,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>3</v>
       </c>
-      <c r="L25" s="15"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="12"/>
       <c r="N25" s="13"/>
       <c r="O25" s="12"/>
@@ -10969,7 +11036,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-      <c r="L26" s="15"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="12"/>
       <c r="N26" s="13"/>
       <c r="O26" s="12"/>
@@ -11011,7 +11078,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="12"/>
       <c r="N27" s="13"/>
       <c r="O27" s="12"/>
@@ -11044,14 +11111,14 @@
         <v>12</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="18">
+      <c r="J28" s="17">
         <v>33000</v>
       </c>
       <c r="K28" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-      <c r="L28" s="15"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="12"/>
       <c r="N28" s="13"/>
       <c r="O28" s="12"/>
@@ -11084,14 +11151,14 @@
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="17">
         <v>1500</v>
       </c>
       <c r="K29" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="12"/>
       <c r="N29" s="13"/>
       <c r="O29" s="12"/>
@@ -11132,7 +11199,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="12"/>
       <c r="N30" s="13"/>
       <c r="O30" s="12"/>
@@ -11173,7 +11240,7 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="12"/>
       <c r="N31" s="13"/>
       <c r="O31" s="12"/>
@@ -11210,8 +11277,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A33" s="5">
         <v>215</v>
       </c>
@@ -11240,8 +11308,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A34" s="5">
         <v>222</v>
       </c>
@@ -11270,8 +11339,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A35" s="5">
         <v>232</v>
       </c>
@@ -11300,8 +11370,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A36" s="5">
         <v>182</v>
       </c>
@@ -11334,8 +11405,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A37" s="5">
         <v>158</v>
       </c>
@@ -11357,15 +11429,16 @@
         <v>1</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="18">
+      <c r="J37" s="17">
         <v>0</v>
       </c>
       <c r="K37" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A38" s="5">
         <v>194</v>
       </c>
@@ -11387,15 +11460,16 @@
         <v>4</v>
       </c>
       <c r="I38" s="11"/>
-      <c r="J38" s="18">
+      <c r="J38" s="17">
         <v>1500</v>
       </c>
       <c r="K38" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A39" s="5">
         <v>286</v>
       </c>
@@ -11426,8 +11500,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A40" s="5">
         <v>287</v>
       </c>
@@ -11459,8 +11534,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A41" s="5">
         <v>220</v>
       </c>
@@ -11489,8 +11565,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A42" s="5">
         <v>225</v>
       </c>
@@ -11519,8 +11596,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A43" s="5">
         <v>213</v>
       </c>
@@ -11549,8 +11627,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A44" s="5">
         <v>224</v>
       </c>
@@ -11579,8 +11658,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A45" s="5">
         <v>226</v>
       </c>
@@ -11609,8 +11689,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A46" s="5">
         <v>284</v>
       </c>
@@ -11642,8 +11723,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A47" s="5">
         <v>285</v>
       </c>
@@ -11675,8 +11757,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A48" s="5">
         <v>210</v>
       </c>
@@ -11705,8 +11788,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A49" s="5">
         <v>216</v>
       </c>
@@ -11735,8 +11819,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A50" s="5">
         <v>219</v>
       </c>
@@ -11765,8 +11850,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A51" s="5">
         <v>192</v>
       </c>
@@ -11788,15 +11874,16 @@
         <v>15</v>
       </c>
       <c r="I51" s="11"/>
-      <c r="J51" s="18">
+      <c r="J51" s="17">
         <v>3000</v>
       </c>
       <c r="K51" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A52" s="5">
         <v>193</v>
       </c>
@@ -11818,15 +11905,16 @@
         <v>12</v>
       </c>
       <c r="I52" s="11"/>
-      <c r="J52" s="18">
+      <c r="J52" s="17">
         <v>3000</v>
       </c>
       <c r="K52" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A53" s="5">
         <v>271</v>
       </c>
@@ -11850,15 +11938,16 @@
       <c r="I53" s="11">
         <v>0</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="17">
         <v>1500</v>
       </c>
       <c r="K53" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A54" s="5">
         <v>351</v>
       </c>
@@ -11882,15 +11971,16 @@
       <c r="I54" s="11">
         <v>7</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="17">
         <v>0</v>
       </c>
       <c r="K54" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
         <v>289</v>
       </c>
@@ -11921,8 +12011,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A56" s="5">
         <v>207</v>
       </c>
@@ -11951,8 +12042,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A57" s="5">
         <v>293</v>
       </c>
@@ -11983,8 +12075,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A58" s="5">
         <v>156</v>
       </c>
@@ -12006,15 +12099,16 @@
         <v>6</v>
       </c>
       <c r="I58" s="11"/>
-      <c r="J58" s="18">
+      <c r="J58" s="17">
         <v>3000</v>
       </c>
       <c r="K58" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A59" s="5">
         <v>270</v>
       </c>
@@ -12038,15 +12132,16 @@
       <c r="I59" s="11">
         <v>1</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="17">
         <v>3000</v>
       </c>
       <c r="K59" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A60" s="5">
         <v>283</v>
       </c>
@@ -12078,8 +12173,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A61" s="5">
         <v>211</v>
       </c>
@@ -12108,8 +12204,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A62" s="5">
         <v>233</v>
       </c>
@@ -12138,8 +12235,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A63" s="5">
         <v>179</v>
       </c>
@@ -12165,15 +12263,16 @@
         <v>19</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="18">
+      <c r="J63" s="17">
         <v>7200</v>
       </c>
       <c r="K63" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A64" s="5">
         <v>49</v>
       </c>
@@ -12206,8 +12305,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A65" s="5">
         <v>120</v>
       </c>
@@ -12240,8 +12340,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A66" s="5">
         <v>154</v>
       </c>
@@ -12263,15 +12364,16 @@
         <v>11</v>
       </c>
       <c r="I66" s="11"/>
-      <c r="J66" s="18">
+      <c r="J66" s="17">
         <v>4500</v>
       </c>
       <c r="K66" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A67" s="5">
         <v>280</v>
       </c>
@@ -12303,8 +12405,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A68" s="5">
         <v>350</v>
       </c>
@@ -12328,15 +12431,16 @@
       <c r="I68" s="11">
         <v>9</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="17">
         <v>0</v>
       </c>
       <c r="K68" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A69" s="5">
         <v>209</v>
       </c>
@@ -12365,8 +12469,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A70" s="5">
         <v>212</v>
       </c>
@@ -12395,8 +12500,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A71" s="5">
         <v>50</v>
       </c>
@@ -12429,8 +12535,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A72" s="5">
         <v>282</v>
       </c>
@@ -12462,8 +12569,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A73" s="5">
         <v>307</v>
       </c>
@@ -12487,15 +12595,16 @@
       <c r="I73" s="11">
         <v>3</v>
       </c>
-      <c r="J73" s="18">
+      <c r="J73" s="17">
         <v>0</v>
       </c>
       <c r="K73" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A74" s="5">
         <v>290</v>
       </c>
@@ -12527,8 +12636,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A75" s="5">
         <v>291</v>
       </c>
@@ -12559,8 +12669,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A76" s="5">
         <v>208</v>
       </c>
@@ -12589,8 +12700,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A77" s="5">
         <v>445</v>
       </c>
@@ -12622,8 +12734,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A78" s="5">
         <v>42</v>
       </c>
@@ -12656,8 +12769,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A79" s="5">
         <v>199</v>
       </c>
@@ -12690,8 +12804,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A80" s="5">
         <v>456</v>
       </c>
@@ -12723,8 +12838,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A81" s="5">
         <v>457</v>
       </c>
@@ -12756,8 +12872,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A82" s="5">
         <v>148</v>
       </c>
@@ -12779,15 +12896,16 @@
         <v>10</v>
       </c>
       <c r="I82" s="11"/>
-      <c r="J82" s="18">
+      <c r="J82" s="17">
         <v>7500</v>
       </c>
       <c r="K82" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L82" s="11"/>
+    </row>
+    <row r="83" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A83" s="5">
         <v>261</v>
       </c>
@@ -12820,8 +12938,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A84" s="5">
         <v>265</v>
       </c>
@@ -12845,15 +12964,16 @@
       <c r="I84" s="11">
         <v>0</v>
       </c>
-      <c r="J84" s="18">
+      <c r="J84" s="17">
         <v>0</v>
       </c>
       <c r="K84" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A85" s="5">
         <v>294</v>
       </c>
@@ -12884,8 +13004,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A86" s="5">
         <v>296</v>
       </c>
@@ -12916,8 +13037,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L86" s="11"/>
+    </row>
+    <row r="87" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A87" s="5">
         <v>439</v>
       </c>
@@ -12949,8 +13071,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L87" s="11"/>
+    </row>
+    <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A88" s="5">
         <v>440</v>
       </c>
@@ -12982,8 +13105,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L88" s="11"/>
+    </row>
+    <row r="89" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A89" s="5">
         <v>442</v>
       </c>
@@ -13015,8 +13139,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A90" s="5">
         <v>45</v>
       </c>
@@ -13049,8 +13174,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L90" s="11"/>
+    </row>
+    <row r="91" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A91" s="5">
         <v>447</v>
       </c>
@@ -13082,8 +13208,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A92" s="5">
         <v>448</v>
       </c>
@@ -13115,8 +13242,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L92" s="11"/>
+    </row>
+    <row r="93" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A93" s="5">
         <v>450</v>
       </c>
@@ -13148,8 +13276,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A94" s="5">
         <v>454</v>
       </c>
@@ -13181,8 +13310,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A95" s="5">
         <v>458</v>
       </c>
@@ -13214,8 +13344,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L95" s="11"/>
+    </row>
+    <row r="96" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A96" s="5">
         <v>281</v>
       </c>
@@ -13247,8 +13378,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A97" s="5">
         <v>386</v>
       </c>
@@ -13279,8 +13411,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A98" s="5">
         <v>331</v>
       </c>
@@ -13311,8 +13444,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A99" s="5">
         <v>336</v>
       </c>
@@ -13343,8 +13477,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L99" s="11"/>
+    </row>
+    <row r="100" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A100" s="5">
         <v>444</v>
       </c>
@@ -13375,8 +13510,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L100" s="11"/>
+    </row>
+    <row r="101" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A101" s="5">
         <v>118</v>
       </c>
@@ -13409,8 +13545,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L101" s="11"/>
+    </row>
+    <row r="102" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A102" s="5">
         <v>453</v>
       </c>
@@ -13442,8 +13579,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L102" s="11"/>
+    </row>
+    <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A103" s="5">
         <v>455</v>
       </c>
@@ -13475,8 +13613,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A104" s="5">
         <v>378</v>
       </c>
@@ -13500,15 +13639,16 @@
       <c r="I104" s="11">
         <v>7</v>
       </c>
-      <c r="J104" s="18">
+      <c r="J104" s="17">
         <v>0</v>
       </c>
       <c r="K104" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L104" s="11"/>
+    </row>
+    <row r="105" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A105" s="5">
         <v>206</v>
       </c>
@@ -13538,8 +13678,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A106" s="5">
         <v>41</v>
       </c>
@@ -13570,8 +13711,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L106" s="11"/>
+    </row>
+    <row r="107" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A107" s="5">
         <v>333</v>
       </c>
@@ -13602,8 +13744,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A108" s="5">
         <v>443</v>
       </c>
@@ -13635,8 +13778,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L108" s="11"/>
+    </row>
+    <row r="109" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A109" s="5">
         <v>116</v>
       </c>
@@ -13669,8 +13813,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L109" s="11"/>
+    </row>
+    <row r="110" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A110" s="5">
         <v>115</v>
       </c>
@@ -13703,8 +13848,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A111" s="5">
         <v>151</v>
       </c>
@@ -13726,15 +13872,16 @@
         <v>10</v>
       </c>
       <c r="I111" s="11"/>
-      <c r="J111" s="18">
+      <c r="J111" s="17">
         <v>6000</v>
       </c>
       <c r="K111" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A112" s="5">
         <v>152</v>
       </c>
@@ -13756,15 +13903,16 @@
         <v>12</v>
       </c>
       <c r="I112" s="11"/>
-      <c r="J112" s="18">
+      <c r="J112" s="17">
         <v>6000</v>
       </c>
       <c r="K112" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L112" s="11"/>
+    </row>
+    <row r="113" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A113" s="5">
         <v>262</v>
       </c>
@@ -13797,8 +13945,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A114" s="5">
         <v>375</v>
       </c>
@@ -13822,15 +13971,16 @@
       <c r="I114" s="11">
         <v>7</v>
       </c>
-      <c r="J114" s="18">
+      <c r="J114" s="17">
         <v>0</v>
       </c>
       <c r="K114" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A115" s="5">
         <v>377</v>
       </c>
@@ -13854,15 +14004,16 @@
       <c r="I115" s="11">
         <v>8</v>
       </c>
-      <c r="J115" s="18">
+      <c r="J115" s="17">
         <v>0</v>
       </c>
       <c r="K115" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A116" s="5">
         <v>223</v>
       </c>
@@ -13891,8 +14042,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A117" s="5">
         <v>446</v>
       </c>
@@ -13924,8 +14076,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L117" s="11"/>
+    </row>
+    <row r="118" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A118" s="5">
         <v>119</v>
       </c>
@@ -13958,8 +14111,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L118" s="11"/>
+    </row>
+    <row r="119" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13992,8 +14146,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L119" s="11"/>
+    </row>
+    <row r="120" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A120" s="5">
         <v>266</v>
       </c>
@@ -14017,15 +14172,16 @@
       <c r="I120" s="11">
         <v>3</v>
       </c>
-      <c r="J120" s="18">
+      <c r="J120" s="17">
         <v>4500</v>
       </c>
       <c r="K120" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L120" s="11"/>
+    </row>
+    <row r="121" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A121" s="5">
         <v>312</v>
       </c>
@@ -14049,15 +14205,16 @@
       <c r="I121" s="11">
         <v>6</v>
       </c>
-      <c r="J121" s="18">
+      <c r="J121" s="17">
         <v>0</v>
       </c>
       <c r="K121" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A122" s="5">
         <v>390</v>
       </c>
@@ -14088,8 +14245,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L122" s="11"/>
+    </row>
+    <row r="123" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A123" s="5">
         <v>374</v>
       </c>
@@ -14113,15 +14271,16 @@
       <c r="I123" s="11">
         <v>6</v>
       </c>
-      <c r="J123" s="18">
+      <c r="J123" s="17">
         <v>0</v>
       </c>
       <c r="K123" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L123" s="11"/>
+    </row>
+    <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A124" s="5">
         <v>384</v>
       </c>
@@ -14152,8 +14311,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L124" s="11"/>
+    </row>
+    <row r="125" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A125" s="5">
         <v>387</v>
       </c>
@@ -14184,8 +14344,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L125" s="11"/>
+    </row>
+    <row r="126" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A126" s="5">
         <v>76</v>
       </c>
@@ -14216,8 +14377,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L126" s="11"/>
+    </row>
+    <row r="127" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A127" s="5">
         <v>332</v>
       </c>
@@ -14248,8 +14410,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L127" s="11"/>
+    </row>
+    <row r="128" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A128" s="5">
         <v>46</v>
       </c>
@@ -14282,8 +14445,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L128" s="11"/>
+    </row>
+    <row r="129" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A129" s="5">
         <v>451</v>
       </c>
@@ -14315,8 +14479,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L129" s="11"/>
+    </row>
+    <row r="130" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A130" s="5">
         <v>452</v>
       </c>
@@ -14348,8 +14513,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L130" s="11"/>
+    </row>
+    <row r="131" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A131" s="5">
         <v>163</v>
       </c>
@@ -14371,15 +14537,16 @@
         <v>14</v>
       </c>
       <c r="I131" s="11"/>
-      <c r="J131" s="18">
+      <c r="J131" s="17">
         <v>0</v>
       </c>
       <c r="K131" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L131" s="11"/>
+    </row>
+    <row r="132" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A132" s="5">
         <v>117</v>
       </c>
@@ -14412,8 +14579,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L132" s="11"/>
+    </row>
+    <row r="133" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A133" s="5">
         <v>459</v>
       </c>
@@ -14445,8 +14613,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L133" s="11"/>
+    </row>
+    <row r="134" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A134" s="5">
         <v>195</v>
       </c>
@@ -14468,15 +14637,16 @@
         <v>27</v>
       </c>
       <c r="I134" s="11"/>
-      <c r="J134" s="18">
+      <c r="J134" s="17">
         <v>4500</v>
       </c>
       <c r="K134" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L134" s="11"/>
+    </row>
+    <row r="135" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A135" s="5">
         <v>196</v>
       </c>
@@ -14498,15 +14668,16 @@
         <v>27</v>
       </c>
       <c r="I135" s="11"/>
-      <c r="J135" s="18">
+      <c r="J135" s="17">
         <v>1500</v>
       </c>
       <c r="K135" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L135" s="11"/>
+    </row>
+    <row r="136" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A136" s="5">
         <v>311</v>
       </c>
@@ -14530,15 +14701,16 @@
       <c r="I136" s="11">
         <v>6</v>
       </c>
-      <c r="J136" s="18">
+      <c r="J136" s="17">
         <v>0</v>
       </c>
       <c r="K136" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L136" s="11"/>
+    </row>
+    <row r="137" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A137" s="5">
         <v>347</v>
       </c>
@@ -14562,15 +14734,16 @@
       <c r="I137" s="11">
         <v>5</v>
       </c>
-      <c r="J137" s="18">
+      <c r="J137" s="17">
         <v>0</v>
       </c>
       <c r="K137" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L137" s="11"/>
+    </row>
+    <row r="138" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A138" s="5">
         <v>388</v>
       </c>
@@ -14601,8 +14774,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L138" s="11"/>
+    </row>
+    <row r="139" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A139" s="5">
         <v>334</v>
       </c>
@@ -14633,8 +14807,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L139" s="11"/>
+    </row>
+    <row r="140" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A140" s="5">
         <v>435</v>
       </c>
@@ -14666,8 +14841,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L140" s="11"/>
+    </row>
+    <row r="141" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A141" s="5">
         <v>437</v>
       </c>
@@ -14699,8 +14875,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L141" s="11"/>
+    </row>
+    <row r="142" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A142" s="5">
         <v>438</v>
       </c>
@@ -14732,8 +14909,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L142" s="11"/>
+    </row>
+    <row r="143" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A143" s="5">
         <v>200</v>
       </c>
@@ -14766,8 +14944,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L143" s="11"/>
+    </row>
+    <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A144" s="5">
         <v>449</v>
       </c>
@@ -14799,8 +14978,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L144" s="11"/>
+    </row>
+    <row r="145" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A145" s="5">
         <v>460</v>
       </c>
@@ -14832,8 +15012,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L145" s="11"/>
+    </row>
+    <row r="146" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A146" s="5">
         <v>114</v>
       </c>
@@ -14866,8 +15047,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L146" s="11"/>
+    </row>
+    <row r="147" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A147" s="5">
         <v>122</v>
       </c>
@@ -14900,8 +15082,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L147" s="11"/>
+    </row>
+    <row r="148" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A148" s="5">
         <v>389</v>
       </c>
@@ -14932,8 +15115,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L148" s="11"/>
+    </row>
+    <row r="149" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A149" s="5">
         <v>385</v>
       </c>
@@ -14964,8 +15148,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L149" s="11"/>
+    </row>
+    <row r="150" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A150" s="5">
         <v>441</v>
       </c>
@@ -14997,8 +15182,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L150" s="11"/>
+    </row>
+    <row r="151" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A151" s="5">
         <v>107</v>
       </c>
@@ -15031,8 +15217,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L151" s="11"/>
+    </row>
+    <row r="152" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A152" s="5">
         <v>278</v>
       </c>
@@ -15056,15 +15243,16 @@
       <c r="I152" s="11">
         <v>2</v>
       </c>
-      <c r="J152" s="18">
+      <c r="J152" s="17">
         <v>0</v>
       </c>
       <c r="K152" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L152" s="11"/>
+    </row>
+    <row r="153" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A153" s="5">
         <v>376</v>
       </c>
@@ -15088,15 +15276,16 @@
       <c r="I153" s="11">
         <v>10</v>
       </c>
-      <c r="J153" s="18">
+      <c r="J153" s="17">
         <v>0</v>
       </c>
       <c r="K153" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L153" s="11"/>
+    </row>
+    <row r="154" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A154" s="5">
         <v>137</v>
       </c>
@@ -15127,8 +15316,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L154" s="11"/>
+    </row>
+    <row r="155" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A155" s="5">
         <v>330</v>
       </c>
@@ -15159,8 +15349,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L155" s="11"/>
+    </row>
+    <row r="156" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A156" s="5">
         <v>462</v>
       </c>
@@ -15192,8 +15383,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L156" s="11"/>
+    </row>
+    <row r="157" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A157" s="5">
         <v>184</v>
       </c>
@@ -15226,8 +15418,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L157" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A158" s="5">
         <v>64</v>
       </c>
@@ -15260,8 +15455,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L158" s="11"/>
+    </row>
+    <row r="159" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A159" s="5">
         <v>461</v>
       </c>
@@ -15293,8 +15489,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L159" s="11"/>
+    </row>
+    <row r="160" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A160" s="5">
         <v>260</v>
       </c>
@@ -15327,8 +15524,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L160" s="11"/>
+    </row>
+    <row r="161" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A161" s="5">
         <v>436</v>
       </c>
@@ -15360,8 +15558,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L161" s="11"/>
+    </row>
+    <row r="162" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A162" s="5">
         <v>55</v>
       </c>
@@ -15394,8 +15593,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L162" s="11"/>
+    </row>
+    <row r="163" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A163" s="5">
         <v>155</v>
       </c>
@@ -15417,15 +15617,16 @@
         <v>8</v>
       </c>
       <c r="I163" s="11"/>
-      <c r="J163" s="18">
+      <c r="J163" s="17">
         <v>7500</v>
       </c>
       <c r="K163" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L163" s="11"/>
+    </row>
+    <row r="164" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A164" s="5">
         <v>47</v>
       </c>
@@ -15458,8 +15659,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L164" s="11"/>
+    </row>
+    <row r="165" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A165" s="5">
         <v>323</v>
       </c>
@@ -15483,15 +15685,16 @@
       <c r="I165" s="11">
         <v>5</v>
       </c>
-      <c r="J165" s="18">
+      <c r="J165" s="17">
         <v>0</v>
       </c>
       <c r="K165" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L165" s="11"/>
+    </row>
+    <row r="166" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A166" s="5">
         <v>345</v>
       </c>
@@ -15515,15 +15718,16 @@
       <c r="I166" s="11">
         <v>6</v>
       </c>
-      <c r="J166" s="18">
+      <c r="J166" s="17">
         <v>0</v>
       </c>
       <c r="K166" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L166" s="11"/>
+    </row>
+    <row r="167" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A167" s="5">
         <v>335</v>
       </c>
@@ -15554,8 +15758,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L167" s="11"/>
+    </row>
+    <row r="168" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A168" s="5">
         <v>434</v>
       </c>
@@ -15587,8 +15792,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L168" s="11"/>
+    </row>
+    <row r="169" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A169" s="5">
         <v>157</v>
       </c>
@@ -15610,15 +15816,16 @@
         <v>6</v>
       </c>
       <c r="I169" s="11"/>
-      <c r="J169" s="18">
+      <c r="J169" s="17">
         <v>7500</v>
       </c>
       <c r="K169" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L169" s="11"/>
+    </row>
+    <row r="170" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A170" s="5">
         <v>259</v>
       </c>
@@ -15651,8 +15858,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L170" s="11"/>
+    </row>
+    <row r="171" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A171" s="5">
         <v>111</v>
       </c>
@@ -15685,8 +15893,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L171" s="11"/>
+    </row>
+    <row r="172" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A172" s="5">
         <v>353</v>
       </c>
@@ -15710,15 +15919,16 @@
       <c r="I172" s="11">
         <v>4</v>
       </c>
-      <c r="J172" s="18">
+      <c r="J172" s="17">
         <v>0</v>
       </c>
       <c r="K172" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L172" s="11"/>
+    </row>
+    <row r="173" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A173" s="5">
         <v>297</v>
       </c>
@@ -15749,8 +15959,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L173" s="11"/>
+    </row>
+    <row r="174" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A174" s="5">
         <v>113</v>
       </c>
@@ -15783,8 +15994,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L174" s="11"/>
+    </row>
+    <row r="175" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A175" s="5">
         <v>348</v>
       </c>
@@ -15808,15 +16020,16 @@
       <c r="I175" s="11">
         <v>12</v>
       </c>
-      <c r="J175" s="18">
+      <c r="J175" s="17">
         <v>0</v>
       </c>
       <c r="K175" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L175" s="11"/>
+    </row>
+    <row r="176" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -15847,8 +16060,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L176" s="11"/>
+    </row>
+    <row r="177" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A177" s="5">
         <v>44</v>
       </c>
@@ -15881,8 +16095,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L177" s="11"/>
+    </row>
+    <row r="178" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A178" s="5">
         <v>109</v>
       </c>
@@ -15915,8 +16130,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L178" s="11"/>
+    </row>
+    <row r="179" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A179" s="5">
         <v>309</v>
       </c>
@@ -15940,15 +16156,16 @@
       <c r="I179" s="11">
         <v>8</v>
       </c>
-      <c r="J179" s="18">
+      <c r="J179" s="17">
         <v>0</v>
       </c>
       <c r="K179" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L179" s="11"/>
+    </row>
+    <row r="180" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A180" s="5">
         <v>245</v>
       </c>
@@ -15980,8 +16197,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L180" s="11"/>
+    </row>
+    <row r="181" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A181" s="5">
         <v>172</v>
       </c>
@@ -16005,15 +16223,16 @@
         <v>36</v>
       </c>
       <c r="I181" s="11"/>
-      <c r="J181" s="18" t="s">
+      <c r="J181" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K181" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L181" s="11"/>
+    </row>
+    <row r="182" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A182" s="5">
         <v>329</v>
       </c>
@@ -16044,8 +16263,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L182" s="11"/>
+    </row>
+    <row r="183" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A183" s="5">
         <v>161</v>
       </c>
@@ -16069,15 +16289,16 @@
         <v>24</v>
       </c>
       <c r="I183" s="11"/>
-      <c r="J183" s="18">
+      <c r="J183" s="17">
         <v>0</v>
       </c>
       <c r="K183" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L183" s="11"/>
+    </row>
+    <row r="184" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A184" s="5">
         <v>108</v>
       </c>
@@ -16110,8 +16331,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L184" s="11"/>
+    </row>
+    <row r="185" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A185" s="5">
         <v>106</v>
       </c>
@@ -16144,8 +16366,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L185" s="11"/>
+    </row>
+    <row r="186" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A186" s="5">
         <v>342</v>
       </c>
@@ -16169,15 +16392,16 @@
       <c r="I186" s="11">
         <v>3</v>
       </c>
-      <c r="J186" s="18">
+      <c r="J186" s="17">
         <v>0</v>
       </c>
       <c r="K186" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L186" s="11"/>
+    </row>
+    <row r="187" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A187" s="5">
         <v>344</v>
       </c>
@@ -16201,15 +16425,16 @@
       <c r="I187" s="11">
         <v>6</v>
       </c>
-      <c r="J187" s="18">
+      <c r="J187" s="17">
         <v>0</v>
       </c>
       <c r="K187" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L187" s="11"/>
+    </row>
+    <row r="188" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A188" s="5">
         <v>85</v>
       </c>
@@ -16235,15 +16460,16 @@
         <v>57</v>
       </c>
       <c r="I188" s="8"/>
-      <c r="J188" s="18">
+      <c r="J188" s="17">
         <v>50000</v>
       </c>
       <c r="K188" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L188" s="11"/>
+    </row>
+    <row r="189" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A189" s="5">
         <v>150</v>
       </c>
@@ -16265,15 +16491,16 @@
         <v>12</v>
       </c>
       <c r="I189" s="11"/>
-      <c r="J189" s="18">
+      <c r="J189" s="17">
         <v>15000</v>
       </c>
       <c r="K189" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L189" s="11"/>
+    </row>
+    <row r="190" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A190" s="5">
         <v>102</v>
       </c>
@@ -16306,8 +16533,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L190" s="11"/>
+    </row>
+    <row r="191" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A191" s="5">
         <v>277</v>
       </c>
@@ -16331,15 +16559,16 @@
       <c r="I191" s="11">
         <v>1</v>
       </c>
-      <c r="J191" s="18">
+      <c r="J191" s="17">
         <v>0</v>
       </c>
       <c r="K191" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L191" s="11"/>
+    </row>
+    <row r="192" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A192" s="5">
         <v>53</v>
       </c>
@@ -16372,8 +16601,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L192" s="11"/>
+    </row>
+    <row r="193" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A193" s="5">
         <v>168</v>
       </c>
@@ -16395,15 +16625,16 @@
         <v>22</v>
       </c>
       <c r="I193" s="11"/>
-      <c r="J193" s="18">
+      <c r="J193" s="17">
         <v>0</v>
       </c>
       <c r="K193" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L193" s="11"/>
+    </row>
+    <row r="194" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A194" s="5">
         <v>62</v>
       </c>
@@ -16436,8 +16667,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L194" s="11"/>
+    </row>
+    <row r="195" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A195" s="5">
         <v>40</v>
       </c>
@@ -16468,8 +16700,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L195" s="11"/>
+    </row>
+    <row r="196" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A196" s="5">
         <v>464</v>
       </c>
@@ -16503,8 +16736,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L196" s="11"/>
+    </row>
+    <row r="197" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A197" s="5">
         <v>313</v>
       </c>
@@ -16528,15 +16762,16 @@
       <c r="I197" s="11">
         <v>12</v>
       </c>
-      <c r="J197" s="18">
+      <c r="J197" s="17">
         <v>0</v>
       </c>
       <c r="K197" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L197" s="11"/>
+    </row>
+    <row r="198" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A198" s="5">
         <v>248</v>
       </c>
@@ -16568,8 +16803,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L198" s="11"/>
+    </row>
+    <row r="199" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A199" s="5">
         <v>99</v>
       </c>
@@ -16602,8 +16838,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L199" s="11"/>
+    </row>
+    <row r="200" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A200" s="5">
         <v>81</v>
       </c>
@@ -16629,15 +16866,16 @@
       <c r="I200" s="8">
         <v>5</v>
       </c>
-      <c r="J200" s="18">
+      <c r="J200" s="17">
         <v>69000</v>
       </c>
       <c r="K200" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L200" s="11"/>
+    </row>
+    <row r="201" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A201" s="5">
         <v>382</v>
       </c>
@@ -16668,8 +16906,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L201" s="11"/>
+    </row>
+    <row r="202" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A202" s="5">
         <v>112</v>
       </c>
@@ -16702,8 +16941,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L202" s="11"/>
+    </row>
+    <row r="203" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A203" s="5">
         <v>134</v>
       </c>
@@ -16733,8 +16973,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L203" s="11"/>
+    </row>
+    <row r="204" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A204" s="5">
         <v>264</v>
       </c>
@@ -16758,7 +16999,7 @@
       <c r="I204" s="11">
         <v>3</v>
       </c>
-      <c r="J204" s="18">
+      <c r="J204" s="17">
         <f>10500+3000</f>
         <v>13500</v>
       </c>
@@ -16766,8 +17007,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L204" s="11"/>
+    </row>
+    <row r="205" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A205" s="5">
         <v>249</v>
       </c>
@@ -16799,8 +17041,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L205" s="11"/>
+    </row>
+    <row r="206" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A206" s="5">
         <v>104</v>
       </c>
@@ -16833,8 +17076,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L206" s="11"/>
+    </row>
+    <row r="207" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A207" s="5">
         <v>160</v>
       </c>
@@ -16856,15 +17100,16 @@
         <v>49</v>
       </c>
       <c r="I207" s="11"/>
-      <c r="J207" s="18">
+      <c r="J207" s="17">
         <v>0</v>
       </c>
       <c r="K207" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L207" s="11"/>
+    </row>
+    <row r="208" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A208" s="5">
         <v>101</v>
       </c>
@@ -16897,8 +17142,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L208" s="11"/>
+    </row>
+    <row r="209" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A209" s="5">
         <v>352</v>
       </c>
@@ -16922,15 +17168,16 @@
       <c r="I209" s="11">
         <v>9</v>
       </c>
-      <c r="J209" s="18">
+      <c r="J209" s="17">
         <v>0</v>
       </c>
       <c r="K209" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L209" s="11"/>
+    </row>
+    <row r="210" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A210" s="5">
         <v>246</v>
       </c>
@@ -16962,8 +17209,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L210" s="11"/>
+    </row>
+    <row r="211" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A211" s="5">
         <v>197</v>
       </c>
@@ -16996,8 +17244,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L211" s="11"/>
+    </row>
+    <row r="212" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A212" s="5">
         <v>96</v>
       </c>
@@ -17030,8 +17279,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L212" s="11"/>
+    </row>
+    <row r="213" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A213" s="5">
         <v>242</v>
       </c>
@@ -17063,8 +17313,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L213" s="11"/>
+    </row>
+    <row r="214" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A214" s="5">
         <v>308</v>
       </c>
@@ -17088,15 +17339,16 @@
       <c r="I214" s="11">
         <v>16</v>
       </c>
-      <c r="J214" s="18">
+      <c r="J214" s="17">
         <v>0</v>
       </c>
       <c r="K214" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L214" s="11"/>
+    </row>
+    <row r="215" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A215" s="5">
         <v>153</v>
       </c>
@@ -17118,15 +17370,16 @@
         <v>36</v>
       </c>
       <c r="I215" s="11"/>
-      <c r="J215" s="18">
+      <c r="J215" s="17">
         <v>4500</v>
       </c>
       <c r="K215" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L215" s="11"/>
+    </row>
+    <row r="216" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A216" s="5">
         <v>381</v>
       </c>
@@ -17158,8 +17411,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L216" s="11"/>
+    </row>
+    <row r="217" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A217" s="5">
         <v>105</v>
       </c>
@@ -17192,8 +17446,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L217" s="11"/>
+    </row>
+    <row r="218" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A218" s="5">
         <v>71</v>
       </c>
@@ -17226,8 +17481,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L218" s="11"/>
+    </row>
+    <row r="219" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A219" s="5">
         <v>205</v>
       </c>
@@ -17257,8 +17513,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L219" s="11"/>
+    </row>
+    <row r="220" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A220" s="5">
         <v>256</v>
       </c>
@@ -17290,8 +17547,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L220" s="11"/>
+    </row>
+    <row r="221" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A221" s="5">
         <v>159</v>
       </c>
@@ -17313,15 +17571,16 @@
         <v>18</v>
       </c>
       <c r="I221" s="11"/>
-      <c r="J221" s="18">
+      <c r="J221" s="17">
         <v>0</v>
       </c>
       <c r="K221" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L221" s="11"/>
+    </row>
+    <row r="222" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A222" s="5">
         <v>263</v>
       </c>
@@ -17354,8 +17613,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L222" s="11"/>
+    </row>
+    <row r="223" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A223" s="5">
         <v>86</v>
       </c>
@@ -17379,15 +17639,16 @@
         <v>51</v>
       </c>
       <c r="I223" s="8"/>
-      <c r="J223" s="18">
+      <c r="J223" s="17">
         <v>98000</v>
       </c>
       <c r="K223" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L223" s="11"/>
+    </row>
+    <row r="224" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A224" s="5">
         <v>341</v>
       </c>
@@ -17411,15 +17672,16 @@
       <c r="I224" s="11">
         <v>8</v>
       </c>
-      <c r="J224" s="18">
+      <c r="J224" s="17">
         <v>0</v>
       </c>
       <c r="K224" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L224" s="11"/>
+    </row>
+    <row r="225" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A225" s="5">
         <v>241</v>
       </c>
@@ -17451,8 +17713,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L225" s="11"/>
+    </row>
+    <row r="226" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A226" s="5">
         <v>253</v>
       </c>
@@ -17484,8 +17747,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L226" s="11"/>
+    </row>
+    <row r="227" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A227" s="5">
         <v>328</v>
       </c>
@@ -17516,8 +17780,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L227" s="11"/>
+    </row>
+    <row r="228" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A228" s="5">
         <v>433</v>
       </c>
@@ -17549,8 +17814,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L228" s="11"/>
+    </row>
+    <row r="229" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A229" s="5">
         <v>103</v>
       </c>
@@ -17583,8 +17849,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L229" s="11"/>
+    </row>
+    <row r="230" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A230" s="5">
         <v>240</v>
       </c>
@@ -17616,8 +17883,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L230" s="11"/>
+    </row>
+    <row r="231" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A231" s="5">
         <v>37</v>
       </c>
@@ -17648,8 +17916,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L231" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A232" s="5">
         <v>326</v>
       </c>
@@ -17680,8 +17951,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L232" s="11"/>
+    </row>
+    <row r="233" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A233" s="5">
         <v>304</v>
       </c>
@@ -17705,15 +17977,16 @@
       <c r="I233" s="11">
         <v>13</v>
       </c>
-      <c r="J233" s="18">
+      <c r="J233" s="17">
         <v>0</v>
       </c>
       <c r="K233" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L233" s="11"/>
+    </row>
+    <row r="234" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A234" s="5">
         <v>255</v>
       </c>
@@ -17745,8 +18018,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L234" s="11"/>
+    </row>
+    <row r="235" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A235" s="5">
         <v>247</v>
       </c>
@@ -17778,8 +18052,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L235" s="11"/>
+    </row>
+    <row r="236" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A236" s="5">
         <v>327</v>
       </c>
@@ -17810,8 +18085,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L236" s="11"/>
+    </row>
+    <row r="237" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A237" s="5">
         <v>149</v>
       </c>
@@ -17833,15 +18109,16 @@
         <v>18</v>
       </c>
       <c r="I237" s="11"/>
-      <c r="J237" s="18">
+      <c r="J237" s="17">
         <v>13500</v>
       </c>
       <c r="K237" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L237" s="11"/>
+    </row>
+    <row r="238" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A238" s="5">
         <v>165</v>
       </c>
@@ -17863,15 +18140,16 @@
         <v>41</v>
       </c>
       <c r="I238" s="11"/>
-      <c r="J238" s="18">
+      <c r="J238" s="17">
         <v>0</v>
       </c>
       <c r="K238" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L238" s="11"/>
+    </row>
+    <row r="239" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A239" s="5">
         <v>100</v>
       </c>
@@ -17904,8 +18182,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L239" s="11"/>
+    </row>
+    <row r="240" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A240" s="5">
         <v>257</v>
       </c>
@@ -17937,8 +18216,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L240" s="11"/>
+    </row>
+    <row r="241" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A241" s="5">
         <v>276</v>
       </c>
@@ -17962,15 +18242,16 @@
       <c r="I241" s="11">
         <v>10</v>
       </c>
-      <c r="J241" s="18">
+      <c r="J241" s="17">
         <v>0</v>
       </c>
       <c r="K241" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L241" s="11"/>
+    </row>
+    <row r="242" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A242" s="5">
         <v>468</v>
       </c>
@@ -18003,8 +18284,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L242" s="11"/>
+    </row>
+    <row r="243" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A243" s="5">
         <v>243</v>
       </c>
@@ -18036,8 +18318,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L243" s="11"/>
+    </row>
+    <row r="244" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A244" s="5">
         <v>383</v>
       </c>
@@ -18068,8 +18351,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L244" s="11"/>
+    </row>
+    <row r="245" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A245" s="5">
         <v>321</v>
       </c>
@@ -18093,15 +18377,16 @@
       <c r="I245" s="11">
         <v>19</v>
       </c>
-      <c r="J245" s="18">
+      <c r="J245" s="17">
         <v>0</v>
       </c>
       <c r="K245" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L245" s="11"/>
+    </row>
+    <row r="246" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A246" s="5">
         <v>354</v>
       </c>
@@ -18125,15 +18410,16 @@
       <c r="I246" s="11">
         <v>8</v>
       </c>
-      <c r="J246" s="18">
+      <c r="J246" s="17">
         <v>0</v>
       </c>
       <c r="K246" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L246" s="11"/>
+    </row>
+    <row r="247" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A247" s="5">
         <v>244</v>
       </c>
@@ -18165,8 +18451,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L247" s="11"/>
+    </row>
+    <row r="248" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A248" s="5">
         <v>43</v>
       </c>
@@ -18199,8 +18486,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L248" s="11"/>
+    </row>
+    <row r="249" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A249" s="5">
         <v>110</v>
       </c>
@@ -18233,8 +18521,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L249" s="11"/>
+    </row>
+    <row r="250" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A250" s="5">
         <v>358</v>
       </c>
@@ -18265,8 +18554,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L250" s="11"/>
+    </row>
+    <row r="251" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A251" s="5">
         <v>54</v>
       </c>
@@ -18299,8 +18589,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L251" s="11"/>
+    </row>
+    <row r="252" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A252" s="5">
         <v>366</v>
       </c>
@@ -18331,8 +18622,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L252" s="11"/>
+    </row>
+    <row r="253" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A253" s="5">
         <v>373</v>
       </c>
@@ -18356,15 +18648,16 @@
       <c r="I253" s="11">
         <v>14</v>
       </c>
-      <c r="J253" s="18">
+      <c r="J253" s="17">
         <v>0</v>
       </c>
       <c r="K253" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L253" s="11"/>
+    </row>
+    <row r="254" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A254" s="5">
         <v>305</v>
       </c>
@@ -18388,15 +18681,16 @@
       <c r="I254" s="11">
         <v>16</v>
       </c>
-      <c r="J254" s="18">
+      <c r="J254" s="17">
         <v>0</v>
       </c>
       <c r="K254" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L254" s="11"/>
+    </row>
+    <row r="255" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A255" s="5">
         <v>98</v>
       </c>
@@ -18429,8 +18723,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L255" s="11"/>
+    </row>
+    <row r="256" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A256" s="5">
         <v>145</v>
       </c>
@@ -18452,15 +18747,16 @@
         <v>69</v>
       </c>
       <c r="I256" s="11"/>
-      <c r="J256" s="18">
+      <c r="J256" s="17">
         <v>0</v>
       </c>
       <c r="K256" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L256" s="11"/>
+    </row>
+    <row r="257" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A257" s="5">
         <v>306</v>
       </c>
@@ -18484,15 +18780,16 @@
       <c r="I257" s="11">
         <v>12</v>
       </c>
-      <c r="J257" s="18">
+      <c r="J257" s="17">
         <v>0</v>
       </c>
       <c r="K257" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L257" s="11"/>
+    </row>
+    <row r="258" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A258" s="5">
         <v>339</v>
       </c>
@@ -18516,15 +18813,16 @@
       <c r="I258" s="11">
         <v>13</v>
       </c>
-      <c r="J258" s="18">
+      <c r="J258" s="17">
         <v>0</v>
       </c>
       <c r="K258" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L258" s="11"/>
+    </row>
+    <row r="259" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A259" s="5">
         <v>340</v>
       </c>
@@ -18548,15 +18846,16 @@
       <c r="I259" s="11">
         <v>12</v>
       </c>
-      <c r="J259" s="18">
+      <c r="J259" s="17">
         <v>0</v>
       </c>
       <c r="K259" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L259" s="11"/>
+    </row>
+    <row r="260" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A260" s="5">
         <v>72</v>
       </c>
@@ -18589,8 +18888,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L260" s="11"/>
+    </row>
+    <row r="261" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A261" s="5">
         <v>371</v>
       </c>
@@ -18622,8 +18922,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L261" s="11"/>
+    </row>
+    <row r="262" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A262" s="5">
         <v>472</v>
       </c>
@@ -18651,15 +18952,16 @@
       <c r="I262" s="11">
         <v>6</v>
       </c>
-      <c r="J262" s="18">
+      <c r="J262" s="17">
         <v>45000</v>
       </c>
       <c r="K262" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="L262" s="11"/>
+    </row>
+    <row r="263" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A263" s="5">
         <v>63</v>
       </c>
@@ -18692,8 +18994,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L263" s="11"/>
+    </row>
+    <row r="264" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A264" s="5">
         <v>178</v>
       </c>
@@ -18724,8 +19027,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L264" s="11"/>
+    </row>
+    <row r="265" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A265" s="5">
         <v>90</v>
       </c>
@@ -18749,15 +19053,16 @@
         <v>66</v>
       </c>
       <c r="I265" s="8"/>
-      <c r="J265" s="18">
+      <c r="J265" s="17">
         <v>0</v>
       </c>
       <c r="K265" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L265" s="11"/>
+    </row>
+    <row r="266" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A266" s="5">
         <v>167</v>
       </c>
@@ -18781,15 +19086,16 @@
         <v>38</v>
       </c>
       <c r="I266" s="11"/>
-      <c r="J266" s="18">
+      <c r="J266" s="17">
         <v>0</v>
       </c>
       <c r="K266" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L266" s="11"/>
+    </row>
+    <row r="267" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A267" s="5">
         <v>238</v>
       </c>
@@ -18821,8 +19127,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L267" s="11"/>
+    </row>
+    <row r="268" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A268" s="5">
         <v>144</v>
       </c>
@@ -18846,15 +19153,16 @@
         <v>41</v>
       </c>
       <c r="I268" s="11"/>
-      <c r="J268" s="18">
+      <c r="J268" s="17">
         <v>0</v>
       </c>
       <c r="K268" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L268" s="11"/>
+    </row>
+    <row r="269" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A269" s="5">
         <v>380</v>
       </c>
@@ -18886,8 +19194,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L269" s="11"/>
+    </row>
+    <row r="270" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A270" s="5">
         <v>131</v>
       </c>
@@ -18917,8 +19226,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L270" s="11"/>
+    </row>
+    <row r="271" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A271" s="5">
         <v>87</v>
       </c>
@@ -18940,15 +19250,16 @@
         <v>48</v>
       </c>
       <c r="I271" s="8"/>
-      <c r="J271" s="18">
+      <c r="J271" s="17">
         <v>0</v>
       </c>
       <c r="K271" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L271" s="11"/>
+    </row>
+    <row r="272" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A272" s="5">
         <v>365</v>
       </c>
@@ -18982,8 +19293,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L272" s="11"/>
+    </row>
+    <row r="273" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A273" s="5">
         <v>303</v>
       </c>
@@ -19007,15 +19319,16 @@
       <c r="I273" s="11">
         <v>21</v>
       </c>
-      <c r="J273" s="18">
+      <c r="J273" s="17">
         <v>0</v>
       </c>
       <c r="K273" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L273" s="11"/>
+    </row>
+    <row r="274" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A274" s="5">
         <v>133</v>
       </c>
@@ -19045,8 +19358,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L274" s="11"/>
+    </row>
+    <row r="275" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A275" s="5">
         <v>97</v>
       </c>
@@ -19079,8 +19393,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L275" s="11"/>
+    </row>
+    <row r="276" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A276" s="5">
         <v>237</v>
       </c>
@@ -19112,8 +19427,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L276" s="11"/>
+    </row>
+    <row r="277" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A277" s="5">
         <v>166</v>
       </c>
@@ -19135,15 +19451,16 @@
         <v>49</v>
       </c>
       <c r="I277" s="11"/>
-      <c r="J277" s="18">
+      <c r="J277" s="17">
         <v>0</v>
       </c>
       <c r="K277" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L277" s="11"/>
+    </row>
+    <row r="278" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A278" s="5">
         <v>279</v>
       </c>
@@ -19175,8 +19492,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L278" s="11"/>
+    </row>
+    <row r="279" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A279" s="5">
         <v>95</v>
       </c>
@@ -19209,8 +19527,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L279" s="11"/>
+    </row>
+    <row r="280" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A280" s="5">
         <v>88</v>
       </c>
@@ -19232,15 +19551,16 @@
         <v>32</v>
       </c>
       <c r="I280" s="8"/>
-      <c r="J280" s="18">
+      <c r="J280" s="17">
         <v>0</v>
       </c>
       <c r="K280" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L280" s="11"/>
+    </row>
+    <row r="281" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A281" s="5">
         <v>164</v>
       </c>
@@ -19262,15 +19582,16 @@
         <v>44</v>
       </c>
       <c r="I281" s="11"/>
-      <c r="J281" s="18">
+      <c r="J281" s="17">
         <v>0</v>
       </c>
       <c r="K281" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L281" s="11"/>
+    </row>
+    <row r="282" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A282" s="5">
         <v>188</v>
       </c>
@@ -19292,7 +19613,7 @@
         <v>79</v>
       </c>
       <c r="I282" s="11"/>
-      <c r="J282" s="18">
+      <c r="J282" s="17">
         <f>9000+3000</f>
         <v>12000</v>
       </c>
@@ -19300,8 +19621,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L282" s="11"/>
+    </row>
+    <row r="283" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A283" s="5">
         <v>70</v>
       </c>
@@ -19334,8 +19656,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L283" s="11"/>
+    </row>
+    <row r="284" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A284" s="5">
         <v>239</v>
       </c>
@@ -19367,8 +19690,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L284" s="11"/>
+    </row>
+    <row r="285" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A285" s="5">
         <v>473</v>
       </c>
@@ -19402,8 +19726,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L285" s="11"/>
+    </row>
+    <row r="286" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A286" s="5">
         <v>361</v>
       </c>
@@ -19434,8 +19759,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L286" s="11"/>
+    </row>
+    <row r="287" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A287" s="5">
         <v>236</v>
       </c>
@@ -19467,8 +19793,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L287" s="11"/>
+    </row>
+    <row r="288" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A288" s="5">
         <v>250</v>
       </c>
@@ -19500,8 +19827,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L288" s="11"/>
+    </row>
+    <row r="289" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A289" s="5">
         <v>258</v>
       </c>
@@ -19533,8 +19861,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L289" s="11"/>
+    </row>
+    <row r="290" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A290" s="5">
         <v>35</v>
       </c>
@@ -19565,8 +19894,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L290" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A291" s="5">
         <v>338</v>
       </c>
@@ -19590,15 +19922,16 @@
       <c r="I291" s="11">
         <v>7</v>
       </c>
-      <c r="J291" s="18">
+      <c r="J291" s="17">
         <v>0</v>
       </c>
       <c r="K291" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L291" s="11"/>
+    </row>
+    <row r="292" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A292" s="5">
         <v>82</v>
       </c>
@@ -19624,15 +19957,16 @@
       <c r="I292" s="11">
         <v>15</v>
       </c>
-      <c r="J292" s="18">
+      <c r="J292" s="17">
         <v>103000</v>
       </c>
       <c r="K292" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L292" s="11"/>
+    </row>
+    <row r="293" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A293" s="5">
         <v>162</v>
       </c>
@@ -19654,15 +19988,16 @@
         <v>43</v>
       </c>
       <c r="I293" s="11"/>
-      <c r="J293" s="18">
+      <c r="J293" s="17">
         <v>0</v>
       </c>
       <c r="K293" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L293" s="11"/>
+    </row>
+    <row r="294" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A294" s="5">
         <v>191</v>
       </c>
@@ -19684,15 +20019,16 @@
         <v>65</v>
       </c>
       <c r="I294" s="11"/>
-      <c r="J294" s="18">
+      <c r="J294" s="17">
         <v>21000</v>
       </c>
       <c r="K294" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L294" s="11"/>
+    </row>
+    <row r="295" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A295" s="5">
         <v>337</v>
       </c>
@@ -19716,15 +20052,16 @@
       <c r="I295" s="11">
         <v>20</v>
       </c>
-      <c r="J295" s="18">
+      <c r="J295" s="17">
         <v>0</v>
       </c>
       <c r="K295" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L295" s="11"/>
+    </row>
+    <row r="296" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A296" s="5">
         <v>355</v>
       </c>
@@ -19748,15 +20085,16 @@
       <c r="I296" s="11">
         <v>16</v>
       </c>
-      <c r="J296" s="18">
+      <c r="J296" s="17">
         <v>0</v>
       </c>
       <c r="K296" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L296" s="11"/>
+    </row>
+    <row r="297" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A297" s="5">
         <v>368</v>
       </c>
@@ -19788,8 +20126,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L297" s="11"/>
+    </row>
+    <row r="298" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A298" s="5">
         <v>274</v>
       </c>
@@ -19821,8 +20160,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L298" s="11"/>
+    </row>
+    <row r="299" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A299" s="5">
         <v>129</v>
       </c>
@@ -19852,8 +20192,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L299" s="11"/>
+    </row>
+    <row r="300" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A300" s="5">
         <v>324</v>
       </c>
@@ -19877,15 +20218,16 @@
       <c r="I300" s="11">
         <v>20</v>
       </c>
-      <c r="J300" s="18">
+      <c r="J300" s="17">
         <v>0</v>
       </c>
       <c r="K300" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L300" s="11"/>
+    </row>
+    <row r="301" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A301" s="5">
         <v>316</v>
       </c>
@@ -19917,8 +20259,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L301" s="11"/>
+    </row>
+    <row r="302" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A302" s="5">
         <v>91</v>
       </c>
@@ -19940,15 +20283,16 @@
         <v>71</v>
       </c>
       <c r="I302" s="8"/>
-      <c r="J302" s="18">
+      <c r="J302" s="17">
         <v>5000</v>
       </c>
       <c r="K302" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L302" s="11"/>
+    </row>
+    <row r="303" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A303" s="5">
         <v>267</v>
       </c>
@@ -19972,7 +20316,7 @@
       <c r="I303" s="11">
         <v>6</v>
       </c>
-      <c r="J303" s="18">
+      <c r="J303" s="17">
         <f>33000+1500+3000</f>
         <v>37500</v>
       </c>
@@ -19980,8 +20324,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L303" s="11"/>
+    </row>
+    <row r="304" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A304" s="5">
         <v>94</v>
       </c>
@@ -20014,8 +20359,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L304" s="11"/>
+    </row>
+    <row r="305" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A305" s="5">
         <v>147</v>
       </c>
@@ -20048,8 +20394,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L305" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A306" s="5">
         <v>268</v>
       </c>
@@ -20073,7 +20422,7 @@
       <c r="I306" s="11">
         <v>4</v>
       </c>
-      <c r="J306" s="18">
+      <c r="J306" s="17">
         <f>13500+1500+3000</f>
         <v>18000</v>
       </c>
@@ -20081,8 +20430,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L306" s="11"/>
+    </row>
+    <row r="307" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A307" s="5">
         <v>141</v>
       </c>
@@ -20108,15 +20458,16 @@
         <v>142</v>
       </c>
       <c r="I307" s="11"/>
-      <c r="J307" s="18">
+      <c r="J307" s="17">
         <v>104000</v>
       </c>
       <c r="K307" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L307" s="11"/>
+    </row>
+    <row r="308" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A308" s="5">
         <v>251</v>
       </c>
@@ -20148,8 +20499,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L308" s="11"/>
+    </row>
+    <row r="309" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A309" s="5">
         <v>75</v>
       </c>
@@ -20181,8 +20533,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L309" s="11"/>
+    </row>
+    <row r="310" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A310" s="5">
         <v>176</v>
       </c>
@@ -20206,15 +20559,16 @@
         <v>237</v>
       </c>
       <c r="I310" s="11"/>
-      <c r="J310" s="18">
+      <c r="J310" s="17">
         <v>118000</v>
       </c>
       <c r="K310" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L310" s="11"/>
+    </row>
+    <row r="311" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A311" s="5">
         <v>322</v>
       </c>
@@ -20238,15 +20592,16 @@
       <c r="I311" s="11">
         <v>18</v>
       </c>
-      <c r="J311" s="18">
+      <c r="J311" s="17">
         <v>0</v>
       </c>
       <c r="K311" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L311" s="11"/>
+    </row>
+    <row r="312" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A312" s="5">
         <v>183</v>
       </c>
@@ -20279,8 +20634,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L312" s="11"/>
+    </row>
+    <row r="313" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A313" s="5">
         <v>252</v>
       </c>
@@ -20312,8 +20668,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L313" s="11"/>
+    </row>
+    <row r="314" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A314" s="5">
         <v>92</v>
       </c>
@@ -20335,15 +20692,16 @@
         <v>105</v>
       </c>
       <c r="I314" s="8"/>
-      <c r="J314" s="18">
+      <c r="J314" s="17">
         <v>10000</v>
       </c>
       <c r="K314" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L314" s="11"/>
+    </row>
+    <row r="315" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A315" s="5">
         <v>185</v>
       </c>
@@ -20376,8 +20734,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L315" s="11"/>
+    </row>
+    <row r="316" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A316" s="5">
         <v>254</v>
       </c>
@@ -20408,8 +20767,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L316" s="11"/>
+    </row>
+    <row r="317" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A317" s="5">
         <v>310</v>
       </c>
@@ -20433,15 +20793,16 @@
       <c r="I317" s="11">
         <v>20</v>
       </c>
-      <c r="J317" s="18">
+      <c r="J317" s="17">
         <v>0</v>
       </c>
       <c r="K317" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L317" s="11"/>
+    </row>
+    <row r="318" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A318" s="5">
         <v>349</v>
       </c>
@@ -20465,15 +20826,16 @@
       <c r="I318" s="11">
         <v>19</v>
       </c>
-      <c r="J318" s="18">
+      <c r="J318" s="17">
         <v>0</v>
       </c>
       <c r="K318" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L318" s="11"/>
+    </row>
+    <row r="319" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A319" s="5">
         <v>169</v>
       </c>
@@ -20506,8 +20868,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L319" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A320" s="5">
         <v>171</v>
       </c>
@@ -20531,15 +20896,16 @@
         <v>183</v>
       </c>
       <c r="I320" s="11"/>
-      <c r="J320" s="18" t="s">
+      <c r="J320" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K320" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L320" s="11"/>
+    </row>
+    <row r="321" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A321" s="5">
         <v>474</v>
       </c>
@@ -20563,15 +20929,16 @@
       <c r="I321" s="11">
         <v>19</v>
       </c>
-      <c r="J321" s="18">
+      <c r="J321" s="17">
         <v>0</v>
       </c>
       <c r="K321" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L321" s="11"/>
+    </row>
+    <row r="322" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A322" s="5">
         <v>128</v>
       </c>
@@ -20601,8 +20968,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L322" s="11"/>
+    </row>
+    <row r="323" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A323" s="5">
         <v>132</v>
       </c>
@@ -20632,8 +21000,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L323" s="11"/>
+    </row>
+    <row r="324" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A324" s="5">
         <v>346</v>
       </c>
@@ -20657,15 +21026,16 @@
       <c r="I324" s="11">
         <v>6</v>
       </c>
-      <c r="J324" s="18">
+      <c r="J324" s="17">
         <v>0</v>
       </c>
       <c r="K324" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="L324" s="11"/>
+    </row>
+    <row r="325" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A325" s="5">
         <v>61</v>
       </c>
@@ -20698,8 +21068,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L325" s="11"/>
+    </row>
+    <row r="326" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A326" s="5">
         <v>235</v>
       </c>
@@ -20731,8 +21102,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L326" s="11"/>
+    </row>
+    <row r="327" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A327" s="5">
         <v>429</v>
       </c>
@@ -20764,8 +21136,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L327" s="11"/>
+    </row>
+    <row r="328" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A328" s="5">
         <v>204</v>
       </c>
@@ -20795,8 +21168,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L328" s="11"/>
+    </row>
+    <row r="329" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A329" s="5">
         <v>428</v>
       </c>
@@ -20828,8 +21202,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L329" s="11"/>
+    </row>
+    <row r="330" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A330" s="5">
         <v>38</v>
       </c>
@@ -20862,8 +21237,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L330" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A331" s="5">
         <v>56</v>
       </c>
@@ -20896,8 +21274,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L331" s="11"/>
+    </row>
+    <row r="332" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A332" s="5">
         <v>127</v>
       </c>
@@ -20927,8 +21306,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L332" s="11"/>
+    </row>
+    <row r="333" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A333" s="5">
         <v>430</v>
       </c>
@@ -20960,8 +21340,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L333" s="11"/>
+    </row>
+    <row r="334" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A334" s="5">
         <v>181</v>
       </c>
@@ -20994,8 +21375,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L334" s="11"/>
+    </row>
+    <row r="335" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A335" s="5">
         <v>275</v>
       </c>
@@ -21029,8 +21411,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L335" s="11"/>
+    </row>
+    <row r="336" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A336" s="5">
         <v>325</v>
       </c>
@@ -21061,8 +21444,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>98</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L336" s="11"/>
+    </row>
+    <row r="337" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A337" s="5">
         <v>125</v>
       </c>
@@ -21092,8 +21476,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L337" s="11"/>
+    </row>
+    <row r="338" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A338" s="5">
         <v>77</v>
       </c>
@@ -21104,7 +21489,9 @@
       <c r="D338" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E338" s="9"/>
+      <c r="E338" s="9" t="s">
+        <v>516</v>
+      </c>
       <c r="F338" s="9" t="s">
         <v>42</v>
       </c>
@@ -21122,8 +21509,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L338" s="11">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A339" s="5">
         <v>84</v>
       </c>
@@ -21147,15 +21537,16 @@
         <v>111</v>
       </c>
       <c r="I339" s="8"/>
-      <c r="J339" s="18" t="s">
+      <c r="J339" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K339" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L339" s="11"/>
+    </row>
+    <row r="340" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A340" s="5">
         <v>363</v>
       </c>
@@ -21187,8 +21578,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L340" s="11"/>
+    </row>
+    <row r="341" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A341" s="5">
         <v>135</v>
       </c>
@@ -21218,8 +21610,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L341" s="11"/>
+    </row>
+    <row r="342" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A342" s="5">
         <v>33</v>
       </c>
@@ -21243,15 +21636,16 @@
         <v>2541</v>
       </c>
       <c r="I342" s="8"/>
-      <c r="J342" s="17">
+      <c r="J342" s="16">
         <v>225000</v>
       </c>
       <c r="K342" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L342" s="11"/>
+    </row>
+    <row r="343" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A343" s="5">
         <v>187</v>
       </c>
@@ -21273,7 +21667,7 @@
         <v>92</v>
       </c>
       <c r="I343" s="11"/>
-      <c r="J343" s="18">
+      <c r="J343" s="17">
         <f>17000+8000+11000</f>
         <v>36000</v>
       </c>
@@ -21281,8 +21675,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L343" s="11"/>
+    </row>
+    <row r="344" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A344" s="5">
         <v>3</v>
       </c>
@@ -21306,15 +21701,16 @@
         <v>1385</v>
       </c>
       <c r="I344" s="8"/>
-      <c r="J344" s="17">
+      <c r="J344" s="16">
         <v>125000</v>
       </c>
       <c r="K344" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L344" s="11"/>
+    </row>
+    <row r="345" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A345" s="5">
         <v>201</v>
       </c>
@@ -21347,8 +21743,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L345" s="11"/>
+    </row>
+    <row r="346" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A346" s="5">
         <v>4</v>
       </c>
@@ -21372,15 +21769,16 @@
         <v>1250</v>
       </c>
       <c r="I346" s="8"/>
-      <c r="J346" s="17">
+      <c r="J346" s="16">
         <v>125000</v>
       </c>
       <c r="K346" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L346" s="11"/>
+    </row>
+    <row r="347" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A347" s="5">
         <v>78</v>
       </c>
@@ -21404,15 +21802,16 @@
         <v>439</v>
       </c>
       <c r="I347" s="8"/>
-      <c r="J347" s="18" t="s">
+      <c r="J347" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K347" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L347" s="11"/>
+    </row>
+    <row r="348" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A348" s="5">
         <v>427</v>
       </c>
@@ -21444,8 +21843,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>112</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L348" s="11"/>
+    </row>
+    <row r="349" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A349" s="5">
         <v>426</v>
       </c>
@@ -21477,8 +21877,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>113</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L349" s="11"/>
+    </row>
+    <row r="350" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A350" s="5">
         <v>79</v>
       </c>
@@ -21502,15 +21903,16 @@
         <v>118</v>
       </c>
       <c r="I350" s="8"/>
-      <c r="J350" s="18">
+      <c r="J350" s="17">
         <v>10000</v>
       </c>
       <c r="K350" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>113</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L350" s="11"/>
+    </row>
+    <row r="351" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A351" s="5">
         <v>198</v>
       </c>
@@ -21543,8 +21945,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L351" s="11"/>
+    </row>
+    <row r="352" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A352" s="5">
         <v>5</v>
       </c>
@@ -21568,15 +21971,16 @@
         <v>1295</v>
       </c>
       <c r="I352" s="8"/>
-      <c r="J352" s="17">
+      <c r="J352" s="16">
         <v>125000</v>
       </c>
       <c r="K352" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L352" s="11"/>
+    </row>
+    <row r="353" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A353" s="5">
         <v>372</v>
       </c>
@@ -21608,8 +22012,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>122</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L353" s="11"/>
+    </row>
+    <row r="354" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A354" s="5">
         <v>417</v>
       </c>
@@ -21641,8 +22046,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L354" s="11"/>
+    </row>
+    <row r="355" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A355" s="5">
         <v>126</v>
       </c>
@@ -21672,8 +22078,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>124</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L355" s="11"/>
+    </row>
+    <row r="356" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A356" s="5">
         <v>432</v>
       </c>
@@ -21705,8 +22112,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L356" s="11"/>
+    </row>
+    <row r="357" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A357" s="5">
         <v>23</v>
       </c>
@@ -21730,15 +22138,16 @@
         <v>2299</v>
       </c>
       <c r="I357" s="8"/>
-      <c r="J357" s="17">
+      <c r="J357" s="16">
         <v>190000</v>
       </c>
       <c r="K357" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L357" s="11"/>
+    </row>
+    <row r="358" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A358" s="5">
         <v>431</v>
       </c>
@@ -21770,8 +22179,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>127</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L358" s="11"/>
+    </row>
+    <row r="359" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A359" s="5">
         <v>379</v>
       </c>
@@ -21803,8 +22213,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L359" s="11"/>
+    </row>
+    <row r="360" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A360" s="5">
         <v>31</v>
       </c>
@@ -21828,15 +22239,16 @@
         <v>2880</v>
       </c>
       <c r="I360" s="8"/>
-      <c r="J360" s="17">
+      <c r="J360" s="16">
         <v>220000</v>
       </c>
       <c r="K360" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L360" s="11"/>
+    </row>
+    <row r="361" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A361" s="5">
         <v>17</v>
       </c>
@@ -21860,15 +22272,16 @@
         <v>2526</v>
       </c>
       <c r="I361" s="8"/>
-      <c r="J361" s="17">
+      <c r="J361" s="16">
         <v>215000</v>
       </c>
       <c r="K361" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L361" s="11"/>
+    </row>
+    <row r="362" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A362" s="5">
         <v>20</v>
       </c>
@@ -21892,15 +22305,16 @@
         <v>2455</v>
       </c>
       <c r="I362" s="8"/>
-      <c r="J362" s="17">
+      <c r="J362" s="16">
         <v>205000</v>
       </c>
       <c r="K362" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L362" s="11"/>
+    </row>
+    <row r="363" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A363" s="5">
         <v>406</v>
       </c>
@@ -21932,8 +22346,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L363" s="11"/>
+    </row>
+    <row r="364" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A364" s="5">
         <v>177</v>
       </c>
@@ -21966,8 +22381,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L364" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A365" s="5">
         <v>362</v>
       </c>
@@ -21991,15 +22409,16 @@
       <c r="I365" s="11">
         <v>26</v>
       </c>
-      <c r="J365" s="18">
+      <c r="J365" s="17">
         <v>28000</v>
       </c>
       <c r="K365" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L365" s="11"/>
+    </row>
+    <row r="366" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A366" s="5">
         <v>14</v>
       </c>
@@ -22023,15 +22442,16 @@
         <v>3076</v>
       </c>
       <c r="I366" s="8"/>
-      <c r="J366" s="17">
+      <c r="J366" s="16">
         <v>225000</v>
       </c>
       <c r="K366" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L366" s="11"/>
+    </row>
+    <row r="367" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A367" s="5">
         <v>19</v>
       </c>
@@ -22055,15 +22475,16 @@
         <v>2268</v>
       </c>
       <c r="I367" s="8"/>
-      <c r="J367" s="17">
+      <c r="J367" s="16">
         <v>210000</v>
       </c>
       <c r="K367" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L367" s="11"/>
+    </row>
+    <row r="368" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A368" s="5">
         <v>186</v>
       </c>
@@ -22095,8 +22516,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L368" s="11"/>
+    </row>
+    <row r="369" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A369" s="5">
         <v>21</v>
       </c>
@@ -22120,15 +22542,16 @@
         <v>2924</v>
       </c>
       <c r="I369" s="8"/>
-      <c r="J369" s="17">
+      <c r="J369" s="16">
         <v>0</v>
       </c>
       <c r="K369" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L369" s="11"/>
+    </row>
+    <row r="370" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A370" s="5">
         <v>30</v>
       </c>
@@ -22152,15 +22575,16 @@
         <v>2823</v>
       </c>
       <c r="I370" s="8"/>
-      <c r="J370" s="17">
+      <c r="J370" s="16">
         <v>235000</v>
       </c>
       <c r="K370" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L370" s="11"/>
+    </row>
+    <row r="371" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A371" s="5">
         <v>411</v>
       </c>
@@ -22192,8 +22616,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L371" s="11"/>
+    </row>
+    <row r="372" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A372" s="5">
         <v>173</v>
       </c>
@@ -22226,8 +22651,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L372" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A373" s="5">
         <v>32</v>
       </c>
@@ -22251,15 +22679,16 @@
         <v>2756</v>
       </c>
       <c r="I373" s="8"/>
-      <c r="J373" s="17">
+      <c r="J373" s="16">
         <v>0</v>
       </c>
       <c r="K373" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L373" s="11"/>
+    </row>
+    <row r="374" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A374" s="5">
         <v>39</v>
       </c>
@@ -22290,8 +22719,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="L374" s="11"/>
+    </row>
+    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A375" s="5">
         <v>16</v>
       </c>
@@ -22315,15 +22745,16 @@
         <v>2843</v>
       </c>
       <c r="I375" s="8"/>
-      <c r="J375" s="17">
+      <c r="J375" s="16">
         <v>220000</v>
       </c>
       <c r="K375" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="L375" s="11"/>
+    </row>
+    <row r="376" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A376" s="5">
         <v>407</v>
       </c>
@@ -22355,8 +22786,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L376" s="11"/>
+    </row>
+    <row r="377" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A377" s="5">
         <v>18</v>
       </c>
@@ -22380,15 +22812,16 @@
         <v>2670</v>
       </c>
       <c r="I377" s="8"/>
-      <c r="J377" s="17">
+      <c r="J377" s="16">
         <v>225000</v>
       </c>
       <c r="K377" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L377" s="11"/>
+    </row>
+    <row r="378" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A378" s="5">
         <v>27</v>
       </c>
@@ -22412,15 +22845,16 @@
         <v>2745</v>
       </c>
       <c r="I378" s="8"/>
-      <c r="J378" s="17">
+      <c r="J378" s="16">
         <v>215000</v>
       </c>
       <c r="K378" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L378" s="11"/>
+    </row>
+    <row r="379" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A379" s="5">
         <v>420</v>
       </c>
@@ -22452,8 +22886,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L379" s="11"/>
+    </row>
+    <row r="380" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A380" s="5">
         <v>203</v>
       </c>
@@ -22484,8 +22919,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L380" s="11"/>
+    </row>
+    <row r="381" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A381" s="5">
         <v>318</v>
       </c>
@@ -22517,8 +22953,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>147</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L381" s="11"/>
+    </row>
+    <row r="382" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A382" s="5">
         <v>273</v>
       </c>
@@ -22552,8 +22989,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L382" s="11"/>
+    </row>
+    <row r="383" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A383" s="5">
         <v>400</v>
       </c>
@@ -22585,8 +23023,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L383" s="11"/>
+    </row>
+    <row r="384" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A384" s="5">
         <v>416</v>
       </c>
@@ -22618,8 +23057,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L384" s="11"/>
+    </row>
+    <row r="385" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A385" s="5">
         <v>418</v>
       </c>
@@ -22651,8 +23091,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L385" s="11"/>
+    </row>
+    <row r="386" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A386" s="5">
         <v>419</v>
       </c>
@@ -22684,8 +23125,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L386" s="11"/>
+    </row>
+    <row r="387" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A387" s="5">
         <v>22</v>
       </c>
@@ -22709,15 +23151,16 @@
         <v>2450</v>
       </c>
       <c r="I387" s="8"/>
-      <c r="J387" s="17">
+      <c r="J387" s="16">
         <v>190000</v>
       </c>
       <c r="K387" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>149</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L387" s="11"/>
+    </row>
+    <row r="388" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A388" s="5">
         <v>402</v>
       </c>
@@ -22749,8 +23192,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>149</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L388" s="11"/>
+    </row>
+    <row r="389" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A389" s="5">
         <v>415</v>
       </c>
@@ -22782,8 +23226,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>149</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L389" s="11"/>
+    </row>
+    <row r="390" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A390" s="5">
         <v>29</v>
       </c>
@@ -22807,15 +23252,16 @@
         <v>2824</v>
       </c>
       <c r="I390" s="8"/>
-      <c r="J390" s="17">
+      <c r="J390" s="16">
         <v>215000</v>
       </c>
       <c r="K390" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L390" s="11"/>
+    </row>
+    <row r="391" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A391" s="5">
         <v>403</v>
       </c>
@@ -22847,8 +23293,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L391" s="11"/>
+    </row>
+    <row r="392" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A392" s="5">
         <v>8</v>
       </c>
@@ -22872,15 +23319,16 @@
         <v>3002</v>
       </c>
       <c r="I392" s="8"/>
-      <c r="J392" s="17">
+      <c r="J392" s="16">
         <v>245000</v>
       </c>
       <c r="K392" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L392" s="11"/>
+    </row>
+    <row r="393" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A393" s="5">
         <v>408</v>
       </c>
@@ -22912,8 +23360,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L393" s="11"/>
+    </row>
+    <row r="394" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A394" s="5">
         <v>12</v>
       </c>
@@ -22937,15 +23386,16 @@
         <v>2803</v>
       </c>
       <c r="I394" s="8"/>
-      <c r="J394" s="17">
+      <c r="J394" s="16">
         <v>240000</v>
       </c>
       <c r="K394" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>153</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L394" s="11"/>
+    </row>
+    <row r="395" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A395" s="5">
         <v>142</v>
       </c>
@@ -22967,15 +23417,16 @@
         <v>184</v>
       </c>
       <c r="I395" s="11"/>
-      <c r="J395" s="18">
+      <c r="J395" s="17">
         <v>0</v>
       </c>
       <c r="K395" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>154</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L395" s="11"/>
+    </row>
+    <row r="396" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A396" s="5">
         <v>15</v>
       </c>
@@ -22999,15 +23450,16 @@
         <v>2513</v>
       </c>
       <c r="I396" s="8"/>
-      <c r="J396" s="17">
+      <c r="J396" s="16">
         <v>225000</v>
       </c>
       <c r="K396" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L396" s="11"/>
+    </row>
+    <row r="397" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A397" s="5">
         <v>130</v>
       </c>
@@ -23037,8 +23489,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L397" s="11"/>
+    </row>
+    <row r="398" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A398" s="5">
         <v>398</v>
       </c>
@@ -23070,8 +23523,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L398" s="11"/>
+    </row>
+    <row r="399" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A399" s="5">
         <v>422</v>
       </c>
@@ -23103,8 +23557,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L399" s="11"/>
+    </row>
+    <row r="400" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A400" s="5">
         <v>28</v>
       </c>
@@ -23128,15 +23583,16 @@
         <v>2927</v>
       </c>
       <c r="I400" s="8"/>
-      <c r="J400" s="17">
+      <c r="J400" s="16">
         <v>215000</v>
       </c>
       <c r="K400" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L400" s="11"/>
+    </row>
+    <row r="401" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A401" s="5">
         <v>421</v>
       </c>
@@ -23168,8 +23624,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L401" s="11"/>
+    </row>
+    <row r="402" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A402" s="5">
         <v>26</v>
       </c>
@@ -23193,15 +23650,16 @@
         <v>3039</v>
       </c>
       <c r="I402" s="8"/>
-      <c r="J402" s="17">
+      <c r="J402" s="16">
         <v>225000</v>
       </c>
       <c r="K402" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L402" s="11"/>
+    </row>
+    <row r="403" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A403" s="5">
         <v>399</v>
       </c>
@@ -23233,8 +23691,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L403" s="11"/>
+    </row>
+    <row r="404" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A404" s="5">
         <v>369</v>
       </c>
@@ -23266,8 +23725,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L404" s="11"/>
+    </row>
+    <row r="405" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A405" s="5">
         <v>410</v>
       </c>
@@ -23299,8 +23759,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L405" s="11"/>
+    </row>
+    <row r="406" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A406" s="5">
         <v>124</v>
       </c>
@@ -23330,8 +23791,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>162</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L406" s="11"/>
+    </row>
+    <row r="407" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A407" s="5">
         <v>401</v>
       </c>
@@ -23363,8 +23825,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>162</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L407" s="11"/>
+    </row>
+    <row r="408" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A408" s="5">
         <v>425</v>
       </c>
@@ -23396,8 +23859,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>163</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L408" s="11"/>
+    </row>
+    <row r="409" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A409" s="5">
         <v>343</v>
       </c>
@@ -23421,15 +23885,16 @@
       <c r="I409" s="11">
         <v>38</v>
       </c>
-      <c r="J409" s="18">
+      <c r="J409" s="17">
         <v>0</v>
       </c>
       <c r="K409" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>164</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L409" s="11"/>
+    </row>
+    <row r="410" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A410" s="5">
         <v>360</v>
       </c>
@@ -23460,8 +23925,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>164</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L410" s="11"/>
+    </row>
+    <row r="411" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A411" s="5">
         <v>314</v>
       </c>
@@ -23495,8 +23961,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L411" s="11"/>
+    </row>
+    <row r="412" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A412" s="5">
         <v>11</v>
       </c>
@@ -23520,15 +23987,16 @@
         <v>2960</v>
       </c>
       <c r="I412" s="8"/>
-      <c r="J412" s="17">
+      <c r="J412" s="16">
         <v>235000</v>
       </c>
       <c r="K412" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>168</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L412" s="11"/>
+    </row>
+    <row r="413" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A413" s="5">
         <v>404</v>
       </c>
@@ -23560,8 +24028,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L413" s="11"/>
+    </row>
+    <row r="414" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A414" s="5">
         <v>470</v>
       </c>
@@ -23587,15 +24056,16 @@
       <c r="I414" s="11">
         <v>46</v>
       </c>
-      <c r="J414" s="18" t="s">
+      <c r="J414" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K414" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L414" s="11"/>
+    </row>
+    <row r="415" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A415" s="5">
         <v>13</v>
       </c>
@@ -23619,15 +24089,16 @@
         <v>2725</v>
       </c>
       <c r="I415" s="8"/>
-      <c r="J415" s="17">
+      <c r="J415" s="16">
         <v>235000</v>
       </c>
       <c r="K415" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>172</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L415" s="11"/>
+    </row>
+    <row r="416" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A416" s="5">
         <v>423</v>
       </c>
@@ -23659,8 +24130,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>173</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L416" s="11"/>
+    </row>
+    <row r="417" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A417" s="5">
         <v>25</v>
       </c>
@@ -23684,15 +24156,16 @@
         <v>2924</v>
       </c>
       <c r="I417" s="8"/>
-      <c r="J417" s="17">
+      <c r="J417" s="16">
         <v>240000</v>
       </c>
       <c r="K417" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>174</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L417" s="11"/>
+    </row>
+    <row r="418" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A418" s="5">
         <v>396</v>
       </c>
@@ -23724,8 +24197,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>179</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L418" s="11"/>
+    </row>
+    <row r="419" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A419" s="5">
         <v>412</v>
       </c>
@@ -23757,8 +24231,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>186</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L419" s="11"/>
+    </row>
+    <row r="420" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A420" s="5">
         <v>174</v>
       </c>
@@ -23782,15 +24257,16 @@
         <v>830</v>
       </c>
       <c r="I420" s="11"/>
-      <c r="J420" s="18" t="s">
+      <c r="J420" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K420" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>186</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L420" s="11"/>
+    </row>
+    <row r="421" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A421" s="5">
         <v>405</v>
       </c>
@@ -23822,8 +24298,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>189</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L421" s="11"/>
+    </row>
+    <row r="422" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A422" s="5">
         <v>51</v>
       </c>
@@ -23856,8 +24333,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>189</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L422" s="11"/>
+    </row>
+    <row r="423" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A423" s="5">
         <v>10</v>
       </c>
@@ -23881,15 +24359,16 @@
         <v>2677</v>
       </c>
       <c r="I423" s="8"/>
-      <c r="J423" s="17">
+      <c r="J423" s="16">
         <v>210000</v>
       </c>
       <c r="K423" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L423" s="11"/>
+    </row>
+    <row r="424" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A424" s="5">
         <v>397</v>
       </c>
@@ -23921,8 +24400,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L424" s="11"/>
+    </row>
+    <row r="425" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A425" s="5">
         <v>394</v>
       </c>
@@ -23954,8 +24434,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L425" s="11"/>
+    </row>
+    <row r="426" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A426" s="5">
         <v>409</v>
       </c>
@@ -23987,8 +24468,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L426" s="11"/>
+    </row>
+    <row r="427" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A427" s="5">
         <v>317</v>
       </c>
@@ -24020,8 +24502,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>194</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="L427" s="11"/>
+    </row>
+    <row r="428" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A428" s="5">
         <v>74</v>
       </c>
@@ -24052,8 +24535,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L428" s="11"/>
+    </row>
+    <row r="429" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A429" s="5">
         <v>138</v>
       </c>
@@ -24084,8 +24568,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>203</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L429" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A430" s="5">
         <v>7</v>
       </c>
@@ -24109,15 +24596,16 @@
         <v>2597</v>
       </c>
       <c r="I430" s="8"/>
-      <c r="J430" s="17">
+      <c r="J430" s="16">
         <v>220000</v>
       </c>
       <c r="K430" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>204</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L430" s="11"/>
+    </row>
+    <row r="431" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A431" s="5">
         <v>393</v>
       </c>
@@ -24149,8 +24637,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L431" s="11"/>
+    </row>
+    <row r="432" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A432" s="5">
         <v>395</v>
       </c>
@@ -24182,8 +24671,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>213</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L432" s="11"/>
+    </row>
+    <row r="433" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A433" s="5">
         <v>9</v>
       </c>
@@ -24207,15 +24697,16 @@
         <v>2843</v>
       </c>
       <c r="I433" s="8"/>
-      <c r="J433" s="17">
+      <c r="J433" s="16">
         <v>265000</v>
       </c>
       <c r="K433" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L433" s="11"/>
+    </row>
+    <row r="434" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A434" s="5">
         <v>34</v>
       </c>
@@ -24239,15 +24730,16 @@
         <v>2946</v>
       </c>
       <c r="I434" s="8"/>
-      <c r="J434" s="17">
+      <c r="J434" s="16">
         <v>235000</v>
       </c>
       <c r="K434" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>218</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L434" s="11"/>
+    </row>
+    <row r="435" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A435" s="5">
         <v>320</v>
       </c>
@@ -24279,8 +24771,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L435" s="11"/>
+    </row>
+    <row r="436" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A436" s="5">
         <v>24</v>
       </c>
@@ -24304,15 +24797,16 @@
         <v>2645</v>
       </c>
       <c r="I436" s="8"/>
-      <c r="J436" s="17">
+      <c r="J436" s="16">
         <v>195000</v>
       </c>
       <c r="K436" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L436" s="11"/>
+    </row>
+    <row r="437" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A437" s="5">
         <v>143</v>
       </c>
@@ -24334,15 +24828,16 @@
         <v>195</v>
       </c>
       <c r="I437" s="11"/>
-      <c r="J437" s="18">
+      <c r="J437" s="17">
         <v>0</v>
       </c>
       <c r="K437" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L437" s="11"/>
+    </row>
+    <row r="438" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A438" s="5">
         <v>234</v>
       </c>
@@ -24374,8 +24869,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>222</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L438" s="11"/>
+    </row>
+    <row r="439" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A439" s="5">
         <v>414</v>
       </c>
@@ -24407,8 +24903,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L439" s="11"/>
+    </row>
+    <row r="440" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A440" s="5">
         <v>364</v>
       </c>
@@ -24440,8 +24937,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L440" s="11"/>
+    </row>
+    <row r="441" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A441" s="5">
         <v>315</v>
       </c>
@@ -24473,8 +24971,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>231</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L441" s="11"/>
+    </row>
+    <row r="442" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A442" s="5">
         <v>319</v>
       </c>
@@ -24506,8 +25005,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>236</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L442" s="11"/>
+    </row>
+    <row r="443" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A443" s="5">
         <v>93</v>
       </c>
@@ -24540,8 +25040,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L443" s="11"/>
+    </row>
+    <row r="444" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A444" s="5">
         <v>392</v>
       </c>
@@ -24573,8 +25074,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>249</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L444" s="11"/>
+    </row>
+    <row r="445" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A445" s="5">
         <v>466</v>
       </c>
@@ -24607,8 +25109,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L445" s="11"/>
+    </row>
+    <row r="446" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A446" s="5">
         <v>68</v>
       </c>
@@ -24641,8 +25144,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L446" s="11"/>
+    </row>
+    <row r="447" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A447" s="5">
         <v>139</v>
       </c>
@@ -24664,15 +25168,16 @@
         <v>348</v>
       </c>
       <c r="I447" s="11"/>
-      <c r="J447" s="18">
+      <c r="J447" s="17">
         <v>0</v>
       </c>
       <c r="K447" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>254</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L447" s="11"/>
+    </row>
+    <row r="448" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A448" s="5">
         <v>471</v>
       </c>
@@ -24705,8 +25210,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>258</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L448" s="11"/>
+    </row>
+    <row r="449" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A449" s="5">
         <v>463</v>
       </c>
@@ -24738,8 +25244,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>264</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L449" s="11"/>
+    </row>
+    <row r="450" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A450" s="5">
         <v>413</v>
       </c>
@@ -24771,8 +25278,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>265</v>
       </c>
-    </row>
-    <row r="451" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L450" s="11"/>
+    </row>
+    <row r="451" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A451" s="5">
         <v>202</v>
       </c>
@@ -24805,8 +25313,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="452" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L451" s="11"/>
+    </row>
+    <row r="452" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A452" s="5">
         <v>52</v>
       </c>
@@ -24839,8 +25348,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>271</v>
       </c>
-    </row>
-    <row r="453" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L452" s="11"/>
+    </row>
+    <row r="453" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A453" s="5">
         <v>356</v>
       </c>
@@ -24872,8 +25382,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>293</v>
       </c>
-    </row>
-    <row r="454" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L453" s="11"/>
+    </row>
+    <row r="454" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A454" s="5">
         <v>36</v>
       </c>
@@ -24905,8 +25416,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>294</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L454" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A455" s="5">
         <v>357</v>
       </c>
@@ -24938,8 +25452,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>303</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L455" s="11"/>
+    </row>
+    <row r="456" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A456" s="5">
         <v>136</v>
       </c>
@@ -24968,8 +25483,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>303</v>
       </c>
-    </row>
-    <row r="457" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L456" s="11"/>
+    </row>
+    <row r="457" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A457" s="5">
         <v>1</v>
       </c>
@@ -25002,8 +25518,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>305</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L457" s="11"/>
+    </row>
+    <row r="458" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A458" s="5">
         <v>170</v>
       </c>
@@ -25033,8 +25550,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>320</v>
       </c>
-    </row>
-    <row r="459" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L458" s="11"/>
+    </row>
+    <row r="459" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A459" s="5">
         <v>190</v>
       </c>
@@ -25067,8 +25585,11 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>320</v>
       </c>
-    </row>
-    <row r="460" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L459" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A460" s="5">
         <v>89</v>
       </c>
@@ -25090,15 +25611,16 @@
         <v>1097</v>
       </c>
       <c r="I460" s="8"/>
-      <c r="J460" s="18">
+      <c r="J460" s="17">
         <v>365000</v>
       </c>
       <c r="K460" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="461" spans="1:11" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="L460" s="11"/>
+    </row>
+    <row r="461" spans="1:12" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A461" s="5">
         <v>60</v>
       </c>
@@ -25129,8 +25651,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>358</v>
       </c>
-    </row>
-    <row r="462" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L461" s="11"/>
+    </row>
+    <row r="462" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A462" s="5">
         <v>69</v>
       </c>
@@ -25161,8 +25684,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="463" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L462" s="11"/>
+    </row>
+    <row r="463" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A463" s="5">
         <v>180</v>
       </c>
@@ -25195,8 +25719,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>386</v>
       </c>
-    </row>
-    <row r="464" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L463" s="11"/>
+    </row>
+    <row r="464" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A464" s="5">
         <v>465</v>
       </c>
@@ -25228,8 +25753,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>393</v>
       </c>
-    </row>
-    <row r="465" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L464" s="11"/>
+    </row>
+    <row r="465" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A465" s="5">
         <v>424</v>
       </c>
@@ -25261,8 +25787,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>399</v>
       </c>
-    </row>
-    <row r="466" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L465" s="11"/>
+    </row>
+    <row r="466" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A466" s="5">
         <v>6</v>
       </c>
@@ -25286,15 +25813,16 @@
         <v>2965</v>
       </c>
       <c r="I466" s="8"/>
-      <c r="J466" s="17">
+      <c r="J466" s="16">
         <v>245000</v>
       </c>
       <c r="K466" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>406</v>
       </c>
-    </row>
-    <row r="467" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L466" s="11"/>
+    </row>
+    <row r="467" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A467" s="5">
         <v>123</v>
       </c>
@@ -25324,8 +25852,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>453</v>
       </c>
-    </row>
-    <row r="468" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L467" s="11"/>
+    </row>
+    <row r="468" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A468" s="5">
         <v>146</v>
       </c>
@@ -25356,8 +25885,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>469</v>
       </c>
-    </row>
-    <row r="469" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L468" s="11"/>
+    </row>
+    <row r="469" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A469" s="5">
         <v>2</v>
       </c>
@@ -25381,7 +25911,7 @@
         <v>2504</v>
       </c>
       <c r="I469" s="8"/>
-      <c r="J469" s="17">
+      <c r="J469" s="16">
         <f>205000+25000</f>
         <v>230000</v>
       </c>
@@ -25389,8 +25919,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="470" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L469" s="11"/>
+    </row>
+    <row r="470" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A470" s="5">
         <v>367</v>
       </c>
@@ -25422,8 +25953,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>590</v>
       </c>
-    </row>
-    <row r="471" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L470" s="11"/>
+    </row>
+    <row r="471" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A471" s="5">
         <v>140</v>
       </c>
@@ -25447,15 +25979,16 @@
         <v>1420</v>
       </c>
       <c r="I471" s="11"/>
-      <c r="J471" s="18" t="s">
+      <c r="J471" s="17" t="s">
         <v>496</v>
       </c>
       <c r="K471" s="11">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>610</v>
       </c>
-    </row>
-    <row r="472" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L471" s="11"/>
+    </row>
+    <row r="472" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A472" s="5">
         <v>391</v>
       </c>
@@ -25487,8 +26020,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>799</v>
       </c>
-    </row>
-    <row r="473" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L472" s="11"/>
+    </row>
+    <row r="473" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A473" s="5">
         <v>467</v>
       </c>
@@ -25523,8 +26057,9 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>804</v>
       </c>
-    </row>
-    <row r="474" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L473" s="11"/>
+    </row>
+    <row r="474" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A474" s="5">
         <v>370</v>
       </c>
@@ -25556,17 +26091,18 @@
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا (سایت جدید)]]</f>
         <v>1160</v>
       </c>
-    </row>
-    <row r="475" spans="1:11" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="L474" s="11"/>
+    </row>
+    <row r="475" spans="1:12" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A475" s="5" t="s">
         <v>497</v>
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
-      <c r="E475" s="25">
+      <c r="E475" s="24">
         <f>SUBTOTAL(103,Table1[تامین کننده])</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
@@ -25578,17 +26114,21 @@
         <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
         <v>5929</v>
       </c>
-      <c r="J475" s="26">
+      <c r="J475" s="25">
         <f>SUBTOTAL(109,Table1[فروش])</f>
         <v>58282606</v>
       </c>
-      <c r="K475" s="11">
-        <f>SUBTOTAL(103,Table1[جمع دانلود و تماشا])</f>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E477" s="16" t="s">
+      <c r="K475" s="7">
+        <f>SUBTOTAL(109,Table1[جمع دانلود و تماشا])</f>
+        <v>38875</v>
+      </c>
+      <c r="L475" s="11">
+        <f>SUBTOTAL(103,Table1[ارزیابی شاندیزی])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E477" s="15" t="s">
         <v>513</v>
       </c>
       <c r="F477" s="8" t="s">
@@ -25604,8 +26144,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E478" s="21">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E478" s="20">
         <f>F478/473</f>
         <v>0.7378435517970402</v>
       </c>
@@ -25621,16 +26161,16 @@
       <c r="I478" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="J478" s="20">
+      <c r="J478" s="19">
         <f>1+3.3*LOG10(473)</f>
         <v>9.8270417644347781</v>
       </c>
-      <c r="K478" s="19" t="s">
+      <c r="K478" s="18" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E479" s="21">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E479" s="20">
         <f t="shared" ref="E479:E487" si="0">F479/473</f>
         <v>0.19238900634249473</v>
       </c>
@@ -25646,15 +26186,15 @@
       <c r="I479" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="J479" s="20">
+      <c r="J479" s="19">
         <v>116</v>
       </c>
       <c r="K479" s="8" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E480" s="21">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E480" s="20">
         <f t="shared" si="0"/>
         <v>4.0169133192389003E-2</v>
       </c>
@@ -25672,7 +26212,7 @@
       </c>
     </row>
     <row r="481" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E481" s="21">
+      <c r="E481" s="20">
         <f t="shared" si="0"/>
         <v>1.4799154334038054E-2</v>
       </c>
@@ -25690,7 +26230,7 @@
       </c>
     </row>
     <row r="482" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E482" s="21">
+      <c r="E482" s="20">
         <f t="shared" si="0"/>
         <v>4.2283298097251587E-3</v>
       </c>
@@ -25708,7 +26248,7 @@
       </c>
     </row>
     <row r="483" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E483" s="21">
+      <c r="E483" s="20">
         <f t="shared" si="0"/>
         <v>4.2283298097251587E-3</v>
       </c>
@@ -25726,7 +26266,7 @@
       </c>
     </row>
     <row r="484" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E484" s="21">
+      <c r="E484" s="20">
         <f t="shared" si="0"/>
         <v>4.2283298097251587E-3</v>
       </c>
@@ -25744,7 +26284,7 @@
       </c>
     </row>
     <row r="485" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E485" s="21">
+      <c r="E485" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25762,7 +26302,7 @@
       </c>
     </row>
     <row r="486" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E486" s="21">
+      <c r="E486" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25780,7 +26320,7 @@
       </c>
     </row>
     <row r="487" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E487" s="21">
+      <c r="E487" s="20">
         <f t="shared" si="0"/>
         <v>2.1141649048625794E-3</v>
       </c>
@@ -25799,14 +26339,14 @@
       </c>
     </row>
     <row r="488" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E488" s="24">
+      <c r="E488" s="23">
         <f>SUBTOTAL(109,Table2[فراوانی نسبی])</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="F488" s="22"/>
-      <c r="G488" s="22"/>
-      <c r="H488" s="22"/>
-      <c r="I488" s="23">
+      <c r="F488" s="21"/>
+      <c r="G488" s="21"/>
+      <c r="H488" s="21"/>
+      <c r="I488" s="22">
         <f>SUBTOTAL(103,Table2[رده ها])</f>
         <v>10</v>
       </c>
